--- a/RBS/GPA分布.xlsx
+++ b/RBS/GPA分布.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haruma\Desktop\高度2B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haruma\source\repos\RakutanBoshiSystem\RBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81908A99-7E5C-4C8C-B539-967B135DA064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E585E2-C013-4638-9511-F75EF23AB349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="449">
   <si>
     <t>系列</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>基礎熱統計力学</t>
-  </si>
-  <si>
-    <t>基礎熱統計力学演習</t>
   </si>
   <si>
     <t>基礎力学および演習</t>
@@ -1312,6 +1309,80 @@
   </si>
   <si>
     <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/138254.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/138292.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137752.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137904.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/138416.html?y=2023&amp;g=L01</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/138417.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137831.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137832.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137833.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137834.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137748.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137835.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137844.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137842.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137843.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137840.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137841.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137829.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137938.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/138300.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>基礎熱統計力学演習</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/138301.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137746.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137747.html?y=2023&amp;g=L01</t>
+  </si>
+  <si>
+    <t>http://syllabus.sic.shibaura-it.ac.jp/syllabus/2023/ko1/137939.html?y=2023&amp;g=L01</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1955,8 @@
   </sheetPr>
   <dimension ref="A2:W208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I173" zoomScale="89" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S187" sqref="S187"/>
+    <sheetView tabSelected="1" topLeftCell="S13" zoomScale="49" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1946,13 +2017,13 @@
         <v>13</v>
       </c>
       <c r="U2" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="V2" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="V2" s="33" t="s">
-        <v>355</v>
-      </c>
       <c r="W2" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
@@ -2014,6 +2085,9 @@
       <c r="V3" s="34">
         <v>76</v>
       </c>
+      <c r="W3" s="38" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -2074,6 +2148,9 @@
       <c r="V4" s="34">
         <v>75</v>
       </c>
+      <c r="W4" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -2134,6 +2211,9 @@
       <c r="V5" s="34">
         <v>100</v>
       </c>
+      <c r="W5" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="31" t="s">
@@ -2243,6 +2323,9 @@
       <c r="V7" s="34">
         <v>60</v>
       </c>
+      <c r="W7" s="38" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="31" t="s">
@@ -2363,6 +2446,9 @@
       <c r="V9" s="34">
         <v>55</v>
       </c>
+      <c r="W9" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="31" t="s">
@@ -2425,6 +2511,9 @@
       <c r="V10" s="34">
         <v>0</v>
       </c>
+      <c r="W10" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -2487,6 +2576,9 @@
       <c r="V11" s="34">
         <v>0</v>
       </c>
+      <c r="W11" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="31" t="s">
@@ -2549,6 +2641,9 @@
       <c r="V12" s="34">
         <v>0</v>
       </c>
+      <c r="W12" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="31" t="s">
@@ -2611,6 +2706,9 @@
       <c r="V13" s="34">
         <v>0</v>
       </c>
+      <c r="W13" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="31" t="s">
@@ -2673,6 +2771,9 @@
       <c r="V14" s="34">
         <v>0</v>
       </c>
+      <c r="W14" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="31" t="s">
@@ -2735,6 +2836,9 @@
       <c r="V15" s="34">
         <v>0</v>
       </c>
+      <c r="W15" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
@@ -2797,8 +2901,11 @@
       <c r="V16" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="31" t="s">
         <v>31</v>
       </c>
@@ -2859,8 +2966,11 @@
       <c r="V17" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>31</v>
       </c>
@@ -2921,8 +3031,11 @@
       <c r="V18" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>31</v>
       </c>
@@ -2983,8 +3096,11 @@
       <c r="V19" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>31</v>
       </c>
@@ -3045,8 +3161,11 @@
       <c r="V20" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>31</v>
       </c>
@@ -3107,8 +3226,11 @@
       <c r="V21" s="34">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
@@ -3169,8 +3291,11 @@
       <c r="V22" s="34">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
@@ -3231,8 +3356,11 @@
       <c r="V23" s="34">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>31</v>
       </c>
@@ -3243,7 +3371,7 @@
         <v>2134301</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>59</v>
+        <v>444</v>
       </c>
       <c r="E24" s="10">
         <v>2</v>
@@ -3293,8 +3421,11 @@
       <c r="V24" s="34">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>31</v>
       </c>
@@ -3305,7 +3436,7 @@
         <v>2135500</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="10">
         <v>4</v>
@@ -3355,8 +3486,11 @@
       <c r="V25" s="34">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>31</v>
       </c>
@@ -3367,7 +3501,7 @@
         <v>2136000</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <v>4</v>
@@ -3417,8 +3551,11 @@
       <c r="V26" s="34">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>31</v>
       </c>
@@ -3429,7 +3566,7 @@
         <v>2128700</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="10">
         <v>2</v>
@@ -3479,8 +3616,11 @@
       <c r="V27" s="34">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>31</v>
       </c>
@@ -3491,7 +3631,7 @@
         <v>2128800</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="10">
         <v>2</v>
@@ -3530,19 +3670,22 @@
       <c r="V28" s="34">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="E29" s="10">
         <v>2</v>
@@ -3593,18 +3736,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="8">
         <v>2132400</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="10">
         <v>2</v>
@@ -3655,18 +3798,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="8">
         <v>2133000</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="10">
         <v>2</v>
@@ -3717,18 +3860,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="8">
         <v>2134000</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="10">
         <v>2</v>
@@ -3784,13 +3927,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8">
         <v>2135000</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="10">
         <v>2</v>
@@ -3846,13 +3989,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="8">
         <v>2133700</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="10">
         <v>2</v>
@@ -3905,16 +4048,16 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1">
       <c r="A35" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D35" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E35" s="10">
         <v>2</v>
@@ -3967,16 +4110,16 @@
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1">
       <c r="A36" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C36" s="8">
         <v>6108000</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="10">
         <v>2</v>
@@ -4029,16 +4172,16 @@
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1">
       <c r="A37" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="C37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="E37" s="10">
         <v>2</v>
@@ -4091,16 +4234,16 @@
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1">
       <c r="A38" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C38" s="8">
         <v>6107000</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="10">
         <v>2</v>
@@ -4153,16 +4296,16 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1">
       <c r="A39" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C39" s="8">
         <v>6113500</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="10">
         <v>2</v>
@@ -4215,16 +4358,16 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1">
       <c r="A40" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C40" s="8">
         <v>6114300</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="10">
         <v>2</v>
@@ -4277,16 +4420,16 @@
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1">
       <c r="A41" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C41" s="8">
         <v>6212500</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="10">
         <v>2</v>
@@ -4339,16 +4482,16 @@
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1">
       <c r="A42" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C42" s="8">
         <v>6213000</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="10">
         <v>2</v>
@@ -4401,14 +4544,14 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1">
       <c r="A43" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="8">
         <v>126500</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="10">
         <v>2</v>
@@ -4461,14 +4604,14 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1">
       <c r="A44" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="8">
         <v>508200</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44" s="10">
         <v>2</v>
@@ -4489,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L44" s="4">
         <v>42.6</v>
@@ -4521,14 +4664,14 @@
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1">
       <c r="A45" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="8">
         <v>579300</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="10">
         <v>2</v>
@@ -4581,14 +4724,14 @@
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1">
       <c r="A46" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8">
         <v>597701</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" s="10">
         <v>2</v>
@@ -4641,14 +4784,14 @@
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1">
       <c r="A47" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8">
         <v>597901</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" s="10">
         <v>2</v>
@@ -4701,14 +4844,14 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1">
       <c r="A48" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="8">
         <v>598901</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="10">
         <v>2</v>
@@ -4761,14 +4904,14 @@
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1">
       <c r="A49" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8">
         <v>599001</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49" s="10">
         <v>2</v>
@@ -4821,14 +4964,14 @@
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1">
       <c r="A50" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8">
         <v>599101</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="10">
         <v>2</v>
@@ -4881,14 +5024,14 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1">
       <c r="A51" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8">
         <v>599201</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="10">
         <v>2</v>
@@ -4941,14 +5084,14 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1">
       <c r="A52" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8">
         <v>599301</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E52" s="10">
         <v>2</v>
@@ -4969,7 +5112,7 @@
         <v>18</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L52" s="4">
         <v>36.1</v>
@@ -5001,14 +5144,14 @@
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1">
       <c r="A53" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="8">
         <v>599901</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" s="10">
         <v>2</v>
@@ -5061,14 +5204,14 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1">
       <c r="A54" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="8">
         <v>600001</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E54" s="10">
         <v>2</v>
@@ -5121,14 +5264,14 @@
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1">
       <c r="A55" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="8">
         <v>600201</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" s="10">
         <v>2</v>
@@ -5181,14 +5324,14 @@
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1">
       <c r="A56" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="8">
         <v>4182500</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E56" s="10">
         <v>2</v>
@@ -5209,7 +5352,7 @@
         <v>18</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L56" s="4">
         <v>51</v>
@@ -5241,14 +5384,14 @@
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1">
       <c r="A57" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="8">
         <v>4185201</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E57" s="10">
         <v>2</v>
@@ -5301,14 +5444,14 @@
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1">
       <c r="A58" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="8">
         <v>4185801</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E58" s="10">
         <v>2</v>
@@ -5361,14 +5504,14 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1">
       <c r="A59" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="8">
         <v>4186500</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="10">
         <v>2</v>
@@ -5421,14 +5564,14 @@
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1">
       <c r="A60" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="8">
         <v>4186600</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="10">
         <v>2</v>
@@ -5481,14 +5624,14 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1">
       <c r="A61" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8">
         <v>4186700</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" s="10">
         <v>2</v>
@@ -5541,14 +5684,14 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1">
       <c r="A62" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8">
         <v>4187100</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="10">
         <v>2</v>
@@ -5601,14 +5744,14 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1">
       <c r="A63" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8">
         <v>4187200</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" s="10">
         <v>2</v>
@@ -5629,7 +5772,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L63" s="4">
         <v>90.9</v>
@@ -5661,14 +5804,14 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1">
       <c r="A64" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8">
         <v>4145900</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="10">
         <v>2</v>
@@ -5721,14 +5864,14 @@
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1">
       <c r="A65" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="8">
         <v>592600</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="10">
         <v>2</v>
@@ -5781,14 +5924,14 @@
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1">
       <c r="A66" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8">
         <v>595900</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E66" s="10">
         <v>2</v>
@@ -5841,14 +5984,14 @@
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1">
       <c r="A67" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="8">
         <v>598701</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" s="10">
         <v>2</v>
@@ -5901,14 +6044,14 @@
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1">
       <c r="A68" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="8">
         <v>601303</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="10">
         <v>2</v>
@@ -5961,14 +6104,14 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1">
       <c r="A69" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="8">
         <v>4172300</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E69" s="10">
         <v>2</v>
@@ -6021,14 +6164,14 @@
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1">
       <c r="A70" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="8">
         <v>4186201</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="10">
         <v>2</v>
@@ -6081,14 +6224,14 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1">
       <c r="A71" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="8">
         <v>4187300</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E71" s="10">
         <v>2</v>
@@ -6141,14 +6284,14 @@
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1">
       <c r="A72" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="8">
         <v>598200</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E72" s="10">
         <v>2</v>
@@ -6201,14 +6344,14 @@
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1">
       <c r="A73" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="8">
         <v>600101</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" s="10">
         <v>2</v>
@@ -6261,14 +6404,14 @@
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1">
       <c r="A74" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="8">
         <v>600301</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E74" s="10">
         <v>2</v>
@@ -6321,14 +6464,14 @@
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1">
       <c r="A75" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8">
         <v>600601</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E75" s="10">
         <v>2</v>
@@ -6381,14 +6524,14 @@
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1">
       <c r="A76" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="8">
         <v>600803</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E76" s="10">
         <v>2</v>
@@ -6441,14 +6584,14 @@
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1">
       <c r="A77" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="8">
         <v>4161600</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E77" s="10">
         <v>2</v>
@@ -6501,14 +6644,14 @@
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1">
       <c r="A78" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="8">
         <v>4186401</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E78" s="10">
         <v>2</v>
@@ -6561,14 +6704,14 @@
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1">
       <c r="A79" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="8">
         <v>4186503</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E79" s="10">
         <v>2</v>
@@ -6621,16 +6764,16 @@
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1">
       <c r="A80" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C80" s="8">
         <v>6161100</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E80" s="10">
         <v>2</v>
@@ -6683,16 +6826,16 @@
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1">
       <c r="A81" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C81" s="8">
         <v>151100</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" s="10">
         <v>2</v>
@@ -6745,16 +6888,16 @@
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1">
       <c r="A82" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C82" s="8">
         <v>151200</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E82" s="10">
         <v>2</v>
@@ -6807,16 +6950,16 @@
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1">
       <c r="A83" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C83" s="8">
         <v>551200</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" s="10">
         <v>2</v>
@@ -6858,16 +7001,16 @@
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1">
       <c r="A84" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C84" s="8">
         <v>556100</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E84" s="10">
         <v>2</v>
@@ -6909,16 +7052,16 @@
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1">
       <c r="A85" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C85" s="8">
         <v>556303</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85" s="10">
         <v>2</v>
@@ -6971,16 +7114,16 @@
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1">
       <c r="A86" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C86" s="8">
         <v>151000</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E86" s="10">
         <v>2</v>
@@ -7033,16 +7176,16 @@
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1">
       <c r="A87" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C87" s="8">
         <v>152900</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="10">
         <v>2</v>
@@ -7095,16 +7238,16 @@
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1">
       <c r="A88" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C88" s="8">
         <v>153700</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="10">
         <v>2</v>
@@ -7157,16 +7300,16 @@
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1">
       <c r="A89" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="C89" s="8">
         <v>154500</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E89" s="10">
         <v>2</v>
@@ -7219,16 +7362,16 @@
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1">
       <c r="A90" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C90" s="8">
         <v>6221600</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E90" s="10">
         <v>2</v>
@@ -7246,7 +7389,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K90" s="17" t="s">
         <v>19</v>
@@ -7281,16 +7424,16 @@
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1">
       <c r="A91" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="8">
         <v>6165500</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E91" s="10">
         <v>1</v>
@@ -7308,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K91" s="17" t="s">
         <v>19</v>
@@ -7343,16 +7486,16 @@
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1">
       <c r="A92" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="8">
         <v>6155600</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E92" s="10">
         <v>1</v>
@@ -7370,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K92" s="17" t="s">
         <v>19</v>
@@ -7405,16 +7548,16 @@
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1">
       <c r="A93" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="8">
         <v>6164800</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E93" s="10">
         <v>1</v>
@@ -7432,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K93" s="17" t="s">
         <v>19</v>
@@ -7467,16 +7610,16 @@
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1">
       <c r="A94" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" s="8">
         <v>6156400</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E94" s="10">
         <v>1</v>
@@ -7494,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K94" s="17" t="s">
         <v>19</v>
@@ -7529,16 +7672,16 @@
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1">
       <c r="A95" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="8">
         <v>6221701</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E95" s="10">
         <v>1</v>
@@ -7556,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K95" s="17" t="s">
         <v>19</v>
@@ -7591,16 +7734,16 @@
     </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1">
       <c r="A96" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" s="8">
         <v>6157200</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="10">
         <v>1</v>
@@ -7618,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K96" s="17" t="s">
         <v>19</v>
@@ -7653,16 +7796,16 @@
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1">
       <c r="A97" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="8">
         <v>6221001</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E97" s="10">
         <v>1</v>
@@ -7680,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K97" s="17" t="s">
         <v>19</v>
@@ -7715,16 +7858,16 @@
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1">
       <c r="A98" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="8">
         <v>6158000</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E98" s="10">
         <v>1</v>
@@ -7742,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K98" s="17" t="s">
         <v>19</v>
@@ -7777,16 +7920,16 @@
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1">
       <c r="A99" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" s="8">
         <v>6221101</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" s="10">
         <v>1</v>
@@ -7804,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K99" s="17" t="s">
         <v>19</v>
@@ -7839,16 +7982,16 @@
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1">
       <c r="A100" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="8">
         <v>6159800</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E100" s="10">
         <v>1</v>
@@ -7866,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K100" s="17" t="s">
         <v>19</v>
@@ -7901,16 +8044,16 @@
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1">
       <c r="A101" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="8">
         <v>6167100</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E101" s="10">
         <v>1</v>
@@ -7928,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K101" s="17" t="s">
         <v>19</v>
@@ -7963,16 +8106,16 @@
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1">
       <c r="A102" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="8">
         <v>6163000</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E102" s="10">
         <v>1</v>
@@ -7990,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K102" s="17" t="s">
         <v>19</v>
@@ -8025,16 +8168,16 @@
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1">
       <c r="A103" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="8">
         <v>6220901</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E103" s="10">
         <v>1</v>
@@ -8052,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K103" s="17" t="s">
         <v>19</v>
@@ -8087,16 +8230,16 @@
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1">
       <c r="A104" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104" s="8">
         <v>6166300</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E104" s="10">
         <v>1</v>
@@ -8114,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K104" s="17" t="s">
         <v>19</v>
@@ -8149,16 +8292,16 @@
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1">
       <c r="A105" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105" s="8">
         <v>6220701</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" s="10">
         <v>1</v>
@@ -8176,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K105" s="17" t="s">
         <v>19</v>
@@ -8211,16 +8354,16 @@
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1">
       <c r="A106" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C106" s="8">
         <v>6175400</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E106" s="10">
         <v>1</v>
@@ -8238,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K106" s="17" t="s">
         <v>19</v>
@@ -8273,16 +8416,16 @@
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1">
       <c r="A107" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C107" s="8">
         <v>6220801</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E107" s="10">
         <v>1</v>
@@ -8300,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K107" s="17" t="s">
         <v>19</v>
@@ -8335,16 +8478,16 @@
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1">
       <c r="A108" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C108" s="8">
         <v>6221301</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E108" s="10">
         <v>1</v>
@@ -8362,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>19</v>
@@ -8386,16 +8529,16 @@
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1">
       <c r="A109" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" s="8">
         <v>6221201</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E109" s="10">
         <v>1</v>
@@ -8413,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K109" s="17" t="s">
         <v>19</v>
@@ -8448,16 +8591,16 @@
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1">
       <c r="A110" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C110" s="8">
         <v>6220301</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E110" s="10">
         <v>1</v>
@@ -8475,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K110" s="17" t="s">
         <v>19</v>
@@ -8510,16 +8653,16 @@
     </row>
     <row r="111" spans="1:22" ht="15.75" customHeight="1">
       <c r="A111" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C111" s="8">
         <v>6221601</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E111" s="10">
         <v>1</v>
@@ -8537,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K111" s="17" t="s">
         <v>19</v>
@@ -8572,16 +8715,16 @@
     </row>
     <row r="112" spans="1:22" ht="15.75" customHeight="1">
       <c r="A112" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C112" s="8">
         <v>6172100</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E112" s="10">
         <v>1</v>
@@ -8599,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K112" s="17" t="s">
         <v>19</v>
@@ -8634,16 +8777,16 @@
     </row>
     <row r="113" spans="1:22" ht="15.75" customHeight="1">
       <c r="A113" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C113" s="8">
         <v>6221801</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E113" s="10">
         <v>1</v>
@@ -8661,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K113" s="17" t="s">
         <v>19</v>
@@ -8696,16 +8839,16 @@
     </row>
     <row r="114" spans="1:22" ht="15.75" customHeight="1">
       <c r="A114" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C114" s="8">
         <v>6221303</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" s="10">
         <v>1</v>
@@ -8723,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K114" s="17" t="s">
         <v>19</v>
@@ -8758,16 +8901,16 @@
     </row>
     <row r="115" spans="1:22" ht="15.75" customHeight="1">
       <c r="A115" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115" s="8">
         <v>6221403</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E115" s="10">
         <v>1</v>
@@ -8785,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K115" s="17" t="s">
         <v>19</v>
@@ -8820,14 +8963,14 @@
     </row>
     <row r="116" spans="1:22" ht="15.75" customHeight="1">
       <c r="A116" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="18">
         <v>4185200</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -8880,14 +9023,14 @@
     </row>
     <row r="117" spans="1:22" ht="15.75" customHeight="1">
       <c r="A117" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D117" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -8908,7 +9051,7 @@
         <v>18</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L117" s="4">
         <v>81.599999999999994</v>
@@ -8940,14 +9083,14 @@
     </row>
     <row r="118" spans="1:22" ht="15.75" customHeight="1">
       <c r="A118" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="18">
         <v>4120200</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -9000,14 +9143,14 @@
     </row>
     <row r="119" spans="1:22" ht="15.75" customHeight="1">
       <c r="A119" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -9060,14 +9203,14 @@
     </row>
     <row r="120" spans="1:22" ht="15.75" customHeight="1">
       <c r="A120" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="18">
         <v>4119600</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E120" s="20">
         <v>2</v>
@@ -9088,7 +9231,7 @@
         <v>18</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L120" s="4">
         <v>70.8</v>
@@ -9120,14 +9263,14 @@
     </row>
     <row r="121" spans="1:22" ht="15.75" customHeight="1">
       <c r="A121" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="E121" s="20">
         <v>2</v>
@@ -9180,14 +9323,14 @@
     </row>
     <row r="122" spans="1:22" ht="15.75" customHeight="1">
       <c r="A122" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="18">
         <v>4165700</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E122" s="20">
         <v>2</v>
@@ -9240,14 +9383,14 @@
     </row>
     <row r="123" spans="1:22" ht="15.75" customHeight="1">
       <c r="A123" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="18">
         <v>4168100</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E123" s="20">
         <v>2</v>
@@ -9268,7 +9411,7 @@
         <v>18</v>
       </c>
       <c r="K123" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L123" s="4">
         <v>31</v>
@@ -9300,14 +9443,14 @@
     </row>
     <row r="124" spans="1:22" ht="15.75" customHeight="1">
       <c r="A124" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="18">
         <v>4188000</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E124" s="20">
         <v>2</v>
@@ -9328,7 +9471,7 @@
         <v>18</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L124" s="4">
         <v>78.900000000000006</v>
@@ -9360,14 +9503,14 @@
     </row>
     <row r="125" spans="1:22" ht="15.75" customHeight="1">
       <c r="A125" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="E125" s="20">
         <v>2</v>
@@ -9388,7 +9531,7 @@
         <v>18</v>
       </c>
       <c r="K125" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L125" s="4">
         <v>100</v>
@@ -9420,14 +9563,14 @@
     </row>
     <row r="126" spans="1:22" ht="15.75" customHeight="1">
       <c r="A126" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>180</v>
       </c>
       <c r="E126" s="20">
         <v>1</v>
@@ -9448,7 +9591,7 @@
         <v>18</v>
       </c>
       <c r="K126" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L126" s="4">
         <v>100</v>
@@ -9480,14 +9623,14 @@
     </row>
     <row r="127" spans="1:22" ht="15.75" customHeight="1">
       <c r="A127" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="E127" s="20">
         <v>2</v>
@@ -9508,7 +9651,7 @@
         <v>18</v>
       </c>
       <c r="K127" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L127" s="4">
         <v>50</v>
@@ -9540,14 +9683,14 @@
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1">
       <c r="A128" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="E128" s="20">
         <v>1</v>
@@ -9556,7 +9699,7 @@
         <v>4</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H128" s="21" t="s">
         <v>17</v>
@@ -9568,7 +9711,7 @@
         <v>18</v>
       </c>
       <c r="K128" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q128" s="5"/>
       <c r="R128" s="5">
@@ -9589,14 +9732,14 @@
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1">
       <c r="A129" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="E129" s="20">
         <v>2</v>
@@ -9605,7 +9748,7 @@
         <v>4</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H129" s="21" t="s">
         <v>17</v>
@@ -9614,10 +9757,10 @@
         <v>2</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K129" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q129" s="5"/>
       <c r="R129" s="5">
@@ -9638,14 +9781,14 @@
     </row>
     <row r="130" spans="1:23" ht="15.75" customHeight="1">
       <c r="A130" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="E130" s="20">
         <v>2</v>
@@ -9654,7 +9797,7 @@
         <v>4</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H130" s="21" t="s">
         <v>17</v>
@@ -9663,10 +9806,10 @@
         <v>2</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K130" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q130" s="5"/>
       <c r="R130" s="5">
@@ -9687,14 +9830,14 @@
     </row>
     <row r="131" spans="1:23" ht="15.75" customHeight="1">
       <c r="A131" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D131" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="E131" s="20">
         <v>2</v>
@@ -9715,7 +9858,7 @@
         <v>25</v>
       </c>
       <c r="K131" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L131" s="4">
         <v>90.9</v>
@@ -9747,14 +9890,14 @@
     </row>
     <row r="132" spans="1:23" ht="15.75" customHeight="1">
       <c r="A132" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="18">
         <v>4285000</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E132" s="20">
         <v>2</v>
@@ -9775,7 +9918,7 @@
         <v>25</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L132" s="4">
         <v>100</v>
@@ -9807,14 +9950,14 @@
     </row>
     <row r="133" spans="1:23" ht="15.75" customHeight="1">
       <c r="A133" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="18">
         <v>4285001</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E133" s="20">
         <v>2</v>
@@ -9835,7 +9978,7 @@
         <v>25</v>
       </c>
       <c r="K133" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L133" s="4">
         <v>100</v>
@@ -9867,14 +10010,14 @@
     </row>
     <row r="134" spans="1:23" ht="15.75" customHeight="1">
       <c r="A134" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="18">
         <v>4285002</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E134" s="20">
         <v>2</v>
@@ -9895,7 +10038,7 @@
         <v>25</v>
       </c>
       <c r="K134" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q134" s="5"/>
       <c r="R134" s="5">
@@ -9916,14 +10059,14 @@
     </row>
     <row r="135" spans="1:23" ht="15.75" customHeight="1">
       <c r="A135" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="18">
         <v>4285003</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E135" s="20">
         <v>2</v>
@@ -9944,7 +10087,7 @@
         <v>25</v>
       </c>
       <c r="K135" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q135" s="5"/>
       <c r="R135" s="5">
@@ -9965,14 +10108,14 @@
     </row>
     <row r="136" spans="1:23" ht="15.75" customHeight="1">
       <c r="A136" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="18">
         <v>4385000</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E136" s="20">
         <v>2</v>
@@ -9993,7 +10136,7 @@
         <v>25</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L136" s="4">
         <v>95</v>
@@ -10025,14 +10168,14 @@
     </row>
     <row r="137" spans="1:23" ht="15.75" customHeight="1">
       <c r="A137" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="18">
         <v>4385001</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E137" s="20">
         <v>2</v>
@@ -10053,7 +10196,7 @@
         <v>25</v>
       </c>
       <c r="K137" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L137" s="4">
         <v>100</v>
@@ -10085,14 +10228,14 @@
     </row>
     <row r="138" spans="1:23" ht="15.75" customHeight="1">
       <c r="A138" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="18">
         <v>4185000</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E138" s="20">
         <v>2</v>
@@ -10113,7 +10256,7 @@
         <v>25</v>
       </c>
       <c r="K138" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L138" s="4">
         <v>100</v>
@@ -10145,14 +10288,14 @@
     </row>
     <row r="139" spans="1:23" ht="15.75" customHeight="1">
       <c r="A139" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="18">
         <v>4185602</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E139" s="20">
         <v>2</v>
@@ -10173,7 +10316,7 @@
         <v>25</v>
       </c>
       <c r="K139" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U139" s="34">
         <v>-1</v>
@@ -10184,14 +10327,14 @@
     </row>
     <row r="140" spans="1:23" ht="15.75" customHeight="1">
       <c r="A140" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="18">
         <v>4185603</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E140" s="20">
         <v>2</v>
@@ -10212,7 +10355,7 @@
         <v>25</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U140" s="34">
         <v>-1</v>
@@ -10223,14 +10366,14 @@
     </row>
     <row r="141" spans="1:23" ht="15.75" customHeight="1">
       <c r="A141" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="18">
         <v>4185604</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E141" s="20">
         <v>2</v>
@@ -10251,7 +10394,7 @@
         <v>25</v>
       </c>
       <c r="K141" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U141" s="34">
         <v>-1</v>
@@ -10262,14 +10405,14 @@
     </row>
     <row r="142" spans="1:23" ht="15.75" customHeight="1">
       <c r="A142" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B142" s="30"/>
       <c r="C142" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="D142" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="E142" s="25">
         <v>2</v>
@@ -10292,7 +10435,7 @@
         <v>18</v>
       </c>
       <c r="Q142" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R142" s="4">
         <v>49.1</v>
@@ -10310,19 +10453,19 @@
         <v>0</v>
       </c>
       <c r="W142" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="15.75" customHeight="1">
       <c r="A143" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B143" s="30"/>
       <c r="C143" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D143" s="24" t="s">
         <v>207</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>208</v>
       </c>
       <c r="E143" s="25">
         <v>2</v>
@@ -10345,7 +10488,7 @@
         <v>18</v>
       </c>
       <c r="Q143" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R143" s="4">
         <v>92.3</v>
@@ -10363,19 +10506,19 @@
         <v>100</v>
       </c>
       <c r="W143" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="15.75" customHeight="1">
       <c r="A144" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B144" s="30"/>
       <c r="C144" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" s="24" t="s">
         <v>210</v>
-      </c>
-      <c r="D144" s="24" t="s">
-        <v>211</v>
       </c>
       <c r="E144" s="25">
         <v>2</v>
@@ -10398,7 +10541,7 @@
         <v>18</v>
       </c>
       <c r="Q144" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R144" s="4">
         <v>72.3</v>
@@ -10416,19 +10559,19 @@
         <v>60</v>
       </c>
       <c r="W144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="15.75" customHeight="1">
       <c r="A145" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B145" s="30"/>
       <c r="C145" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>214</v>
       </c>
       <c r="E145" s="25">
         <v>2</v>
@@ -10451,7 +10594,7 @@
         <v>18</v>
       </c>
       <c r="Q145" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R145" s="4">
         <v>91.5</v>
@@ -10469,19 +10612,19 @@
         <v>0</v>
       </c>
       <c r="W145" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="15.5" customHeight="1">
       <c r="A146" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B146" s="30"/>
       <c r="C146" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" s="24" t="s">
         <v>215</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>216</v>
       </c>
       <c r="E146" s="25">
         <v>2</v>
@@ -10504,7 +10647,7 @@
         <v>25</v>
       </c>
       <c r="Q146" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R146" s="4">
         <v>70.5</v>
@@ -10522,19 +10665,19 @@
         <v>90</v>
       </c>
       <c r="W146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="15.75" customHeight="1">
       <c r="A147" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B147" s="30"/>
       <c r="C147" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D147" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E147" s="25">
         <v>2</v>
@@ -10557,7 +10700,7 @@
         <v>25</v>
       </c>
       <c r="Q147" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R147" s="4">
         <v>94.4</v>
@@ -10575,19 +10718,19 @@
         <v>13</v>
       </c>
       <c r="W147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="15.75" customHeight="1">
       <c r="A148" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B148" s="30"/>
       <c r="C148" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D148" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>222</v>
       </c>
       <c r="E148" s="25">
         <v>2</v>
@@ -10610,7 +10753,7 @@
         <v>18</v>
       </c>
       <c r="Q148" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R148" s="4">
         <v>63</v>
@@ -10628,19 +10771,19 @@
         <v>35</v>
       </c>
       <c r="W148" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="15.75" customHeight="1">
       <c r="A149" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B149" s="30"/>
       <c r="C149" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" s="24" t="s">
         <v>223</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>224</v>
       </c>
       <c r="E149" s="25">
         <v>2</v>
@@ -10663,7 +10806,7 @@
         <v>18</v>
       </c>
       <c r="Q149" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R149" s="4">
         <v>85.2</v>
@@ -10681,19 +10824,19 @@
         <v>66</v>
       </c>
       <c r="W149" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="15.75" customHeight="1">
       <c r="A150" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B150" s="30"/>
       <c r="C150" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D150" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>227</v>
       </c>
       <c r="E150" s="25">
         <v>2</v>
@@ -10716,7 +10859,7 @@
         <v>18</v>
       </c>
       <c r="Q150" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R150" s="4">
         <v>79.2</v>
@@ -10734,19 +10877,19 @@
         <v>40</v>
       </c>
       <c r="W150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="15.75" customHeight="1">
       <c r="A151" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B151" s="30"/>
       <c r="C151" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D151" s="24" t="s">
         <v>228</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>229</v>
       </c>
       <c r="E151" s="25">
         <v>2</v>
@@ -10769,7 +10912,7 @@
         <v>25</v>
       </c>
       <c r="Q151" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R151" s="4">
         <v>72.7</v>
@@ -10787,19 +10930,19 @@
         <v>100</v>
       </c>
       <c r="W151" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="15.75" customHeight="1">
       <c r="A152" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B152" s="30"/>
       <c r="C152" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D152" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="E152" s="25">
         <v>2</v>
@@ -10822,7 +10965,7 @@
         <v>25</v>
       </c>
       <c r="Q152" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R152" s="4">
         <v>64.5</v>
@@ -10840,19 +10983,19 @@
         <v>70</v>
       </c>
       <c r="W152" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="15.75" customHeight="1">
       <c r="A153" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B153" s="30"/>
       <c r="C153" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D153" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="D153" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="E153" s="25">
         <v>2</v>
@@ -10875,7 +11018,7 @@
         <v>25</v>
       </c>
       <c r="Q153" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R153" s="4">
         <v>75.400000000000006</v>
@@ -10893,19 +11036,19 @@
         <v>100</v>
       </c>
       <c r="W153" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="15.75" customHeight="1">
       <c r="A154" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B154" s="30"/>
       <c r="C154" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="D154" s="24" t="s">
-        <v>235</v>
       </c>
       <c r="E154" s="25">
         <v>2</v>
@@ -10928,7 +11071,7 @@
         <v>25</v>
       </c>
       <c r="Q154" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R154" s="4">
         <v>83.2</v>
@@ -10946,19 +11089,19 @@
         <v>55</v>
       </c>
       <c r="W154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.75" customHeight="1">
       <c r="A155" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B155" s="30"/>
       <c r="C155" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D155" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="E155" s="25">
         <v>2</v>
@@ -10981,7 +11124,7 @@
         <v>18</v>
       </c>
       <c r="Q155" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R155" s="4">
         <v>23</v>
@@ -10999,19 +11142,19 @@
         <v>100</v>
       </c>
       <c r="W155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="15.75" customHeight="1">
       <c r="A156" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B156" s="30"/>
       <c r="C156" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" s="24" t="s">
         <v>239</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>240</v>
       </c>
       <c r="E156" s="25">
         <v>2</v>
@@ -11034,7 +11177,7 @@
         <v>18</v>
       </c>
       <c r="Q156" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R156" s="4">
         <v>62.6</v>
@@ -11052,19 +11195,19 @@
         <v>80</v>
       </c>
       <c r="W156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="15.75" customHeight="1">
       <c r="A157" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B157" s="30"/>
       <c r="C157" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D157" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>242</v>
       </c>
       <c r="E157" s="25">
         <v>2</v>
@@ -11087,7 +11230,7 @@
         <v>18</v>
       </c>
       <c r="Q157" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R157" s="4">
         <v>58.3</v>
@@ -11105,19 +11248,19 @@
         <v>100</v>
       </c>
       <c r="W157" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="15.75" customHeight="1">
       <c r="A158" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B158" s="30"/>
       <c r="C158" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D158" s="24" t="s">
         <v>243</v>
-      </c>
-      <c r="D158" s="24" t="s">
-        <v>244</v>
       </c>
       <c r="E158" s="25">
         <v>2</v>
@@ -11125,7 +11268,7 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -11140,7 +11283,7 @@
         <v>18</v>
       </c>
       <c r="Q158" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R158" s="4">
         <v>29.7</v>
@@ -11158,30 +11301,30 @@
         <v>80</v>
       </c>
       <c r="W158" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="15.75" customHeight="1">
       <c r="A159" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B159" s="30"/>
       <c r="C159" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D159" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="D159" s="24" t="s">
+      <c r="E159" s="25">
+        <v>1</v>
+      </c>
+      <c r="F159" s="27" t="s">
         <v>248</v>
-      </c>
-      <c r="E159" s="25">
-        <v>1</v>
-      </c>
-      <c r="F159" s="27" t="s">
-        <v>249</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -11195,7 +11338,7 @@
         <v>18</v>
       </c>
       <c r="Q159" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R159" s="4">
         <v>57</v>
@@ -11213,19 +11356,19 @@
         <v>100</v>
       </c>
       <c r="W159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="15.75" customHeight="1">
       <c r="A160" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B160" s="30"/>
       <c r="C160" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D160" s="24" t="s">
         <v>250</v>
-      </c>
-      <c r="D160" s="24" t="s">
-        <v>251</v>
       </c>
       <c r="E160" s="25">
         <v>2</v>
@@ -11234,7 +11377,7 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
       <c r="I160" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -11248,7 +11391,7 @@
         <v>18</v>
       </c>
       <c r="Q160" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R160" s="4">
         <v>9.3000000000000007</v>
@@ -11266,19 +11409,19 @@
         <v>25</v>
       </c>
       <c r="W160" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="15.75" customHeight="1">
       <c r="A161" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B161" s="30"/>
       <c r="C161" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D161" s="24" t="s">
         <v>253</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>254</v>
       </c>
       <c r="E161" s="25">
         <v>2</v>
@@ -11288,7 +11431,7 @@
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
@@ -11301,7 +11444,7 @@
         <v>18</v>
       </c>
       <c r="Q161" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R161" s="4">
         <v>74.8</v>
@@ -11319,19 +11462,19 @@
         <v>50</v>
       </c>
       <c r="W161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="15.75" customHeight="1">
       <c r="A162" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B162" s="30"/>
       <c r="C162" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D162" s="24" t="s">
         <v>256</v>
-      </c>
-      <c r="D162" s="24" t="s">
-        <v>257</v>
       </c>
       <c r="E162" s="25">
         <v>2</v>
@@ -11341,7 +11484,7 @@
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
@@ -11354,7 +11497,7 @@
         <v>18</v>
       </c>
       <c r="Q162" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R162" s="4">
         <v>61.2</v>
@@ -11372,31 +11515,31 @@
         <v>100</v>
       </c>
       <c r="W162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="15.75" customHeight="1">
       <c r="A163" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B163" s="30"/>
       <c r="C163" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D163" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D163" s="24" t="s">
+      <c r="E163" s="25">
+        <v>1</v>
+      </c>
+      <c r="F163" s="27" t="s">
         <v>259</v>
-      </c>
-      <c r="E163" s="25">
-        <v>1</v>
-      </c>
-      <c r="F163" s="27" t="s">
-        <v>260</v>
       </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
@@ -11409,7 +11552,7 @@
         <v>18</v>
       </c>
       <c r="Q163" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R163" s="4">
         <v>94.1</v>
@@ -11427,19 +11570,19 @@
         <v>10</v>
       </c>
       <c r="W163" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="15.75" customHeight="1">
       <c r="A164" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B164" s="30"/>
       <c r="C164" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D164" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>262</v>
       </c>
       <c r="E164" s="25">
         <v>2</v>
@@ -11449,7 +11592,7 @@
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
@@ -11462,7 +11605,7 @@
         <v>18</v>
       </c>
       <c r="Q164" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R164" s="4">
         <v>46.6</v>
@@ -11480,19 +11623,19 @@
         <v>30</v>
       </c>
       <c r="W164" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="15.75" customHeight="1">
       <c r="A165" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B165" s="30"/>
       <c r="C165" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D165" s="24" t="s">
         <v>263</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>264</v>
       </c>
       <c r="E165" s="25">
         <v>2</v>
@@ -11503,7 +11646,7 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
@@ -11515,7 +11658,7 @@
         <v>18</v>
       </c>
       <c r="Q165" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R165" s="4">
         <v>40.5</v>
@@ -11533,19 +11676,19 @@
         <v>20</v>
       </c>
       <c r="W165" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="15.75" customHeight="1">
       <c r="A166" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B166" s="30"/>
       <c r="C166" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166" s="24" t="s">
         <v>265</v>
-      </c>
-      <c r="D166" s="24" t="s">
-        <v>266</v>
       </c>
       <c r="E166" s="25">
         <v>2</v>
@@ -11556,7 +11699,7 @@
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
@@ -11568,7 +11711,7 @@
         <v>18</v>
       </c>
       <c r="Q166" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R166" s="4">
         <v>67.900000000000006</v>
@@ -11586,32 +11729,32 @@
         <v>100</v>
       </c>
       <c r="W166" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="15.75" customHeight="1">
       <c r="A167" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B167" s="30"/>
       <c r="C167" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D167" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D167" s="24" t="s">
-        <v>268</v>
-      </c>
       <c r="E167" s="25">
         <v>2</v>
       </c>
       <c r="F167" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
@@ -11623,7 +11766,7 @@
         <v>18</v>
       </c>
       <c r="Q167" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R167" s="4">
         <v>77.099999999999994</v>
@@ -11641,32 +11784,32 @@
         <v>80</v>
       </c>
       <c r="W167" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="15.75" customHeight="1">
       <c r="A168" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B168" s="30"/>
       <c r="C168" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D168" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D168" s="24" t="s">
+      <c r="E168" s="25">
+        <v>2</v>
+      </c>
+      <c r="F168" s="27" t="s">
         <v>271</v>
-      </c>
-      <c r="E168" s="25">
-        <v>2</v>
-      </c>
-      <c r="F168" s="27" t="s">
-        <v>272</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
@@ -11678,7 +11821,7 @@
         <v>18</v>
       </c>
       <c r="Q168" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R168" s="4">
         <v>70.900000000000006</v>
@@ -11696,19 +11839,19 @@
         <v>100</v>
       </c>
       <c r="W168" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="15.75" customHeight="1">
       <c r="A169" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B169" s="30"/>
       <c r="C169" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D169" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="D169" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="E169" s="25">
         <v>2</v>
@@ -11719,7 +11862,7 @@
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
@@ -11731,7 +11874,7 @@
         <v>18</v>
       </c>
       <c r="Q169" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R169" s="4">
         <v>59.6</v>
@@ -11749,19 +11892,19 @@
         <v>40</v>
       </c>
       <c r="W169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="15.75" customHeight="1">
       <c r="A170" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B170" s="30"/>
       <c r="C170" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D170" s="24" t="s">
         <v>276</v>
-      </c>
-      <c r="D170" s="24" t="s">
-        <v>277</v>
       </c>
       <c r="E170" s="25">
         <v>2</v>
@@ -11772,7 +11915,7 @@
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
@@ -11784,7 +11927,7 @@
         <v>18</v>
       </c>
       <c r="Q170" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R170" s="4">
         <v>72</v>
@@ -11802,19 +11945,19 @@
         <v>100</v>
       </c>
       <c r="W170" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="15.75" customHeight="1">
       <c r="A171" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B171" s="30"/>
       <c r="C171" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D171" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="D171" s="24" t="s">
-        <v>280</v>
       </c>
       <c r="E171" s="25">
         <v>2</v>
@@ -11825,7 +11968,7 @@
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
@@ -11837,7 +11980,7 @@
         <v>18</v>
       </c>
       <c r="Q171" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R171" s="4">
         <v>85.7</v>
@@ -11855,19 +11998,19 @@
         <v>50</v>
       </c>
       <c r="W171" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="15.75" customHeight="1">
       <c r="A172" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B172" s="30"/>
       <c r="C172" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D172" s="24" t="s">
         <v>281</v>
-      </c>
-      <c r="D172" s="24" t="s">
-        <v>282</v>
       </c>
       <c r="E172" s="25">
         <v>2</v>
@@ -11878,7 +12021,7 @@
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
@@ -11890,7 +12033,7 @@
         <v>18</v>
       </c>
       <c r="Q172" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R172" s="4">
         <v>44.3</v>
@@ -11908,32 +12051,32 @@
         <v>40</v>
       </c>
       <c r="W172" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="15.75" customHeight="1">
       <c r="A173" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B173" s="30"/>
       <c r="C173" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D173" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="D173" s="24" t="s">
-        <v>284</v>
-      </c>
       <c r="E173" s="25">
         <v>1</v>
       </c>
       <c r="F173" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
@@ -11945,7 +12088,7 @@
         <v>18</v>
       </c>
       <c r="Q173" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R173" s="4">
         <v>55.7</v>
@@ -11963,19 +12106,19 @@
         <v>40</v>
       </c>
       <c r="W173" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="15.75" customHeight="1">
       <c r="A174" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B174" s="30"/>
       <c r="C174" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D174" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="D174" s="24" t="s">
-        <v>286</v>
       </c>
       <c r="E174" s="25">
         <v>2</v>
@@ -11986,7 +12129,7 @@
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
@@ -11998,7 +12141,7 @@
         <v>18</v>
       </c>
       <c r="Q174" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R174" s="4">
         <v>58.2</v>
@@ -12016,19 +12159,19 @@
         <v>70</v>
       </c>
       <c r="W174" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="15.75" customHeight="1">
       <c r="A175" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B175" s="30"/>
       <c r="C175" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E175" s="25">
         <v>2</v>
@@ -12040,7 +12183,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
@@ -12051,7 +12194,7 @@
         <v>18</v>
       </c>
       <c r="Q175" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R175" s="4">
         <v>42</v>
@@ -12069,19 +12212,19 @@
         <v>100</v>
       </c>
       <c r="W175" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="15.75" customHeight="1">
       <c r="A176" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B176" s="30"/>
       <c r="C176" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D176" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="D176" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="E176" s="25">
         <v>2</v>
@@ -12093,7 +12236,7 @@
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
@@ -12104,7 +12247,7 @@
         <v>18</v>
       </c>
       <c r="Q176" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R176" s="4">
         <v>78</v>
@@ -12122,19 +12265,19 @@
         <v>100</v>
       </c>
       <c r="W176" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="15.75" customHeight="1">
       <c r="A177" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B177" s="30"/>
       <c r="C177" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D177" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="D177" s="24" t="s">
-        <v>291</v>
       </c>
       <c r="E177" s="25">
         <v>2</v>
@@ -12146,7 +12289,7 @@
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
@@ -12157,7 +12300,7 @@
         <v>18</v>
       </c>
       <c r="Q177" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R177" s="4">
         <v>69.599999999999994</v>
@@ -12175,19 +12318,19 @@
         <v>100</v>
       </c>
       <c r="W177" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="15.75" customHeight="1">
       <c r="A178" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B178" s="30"/>
       <c r="C178" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D178" s="24" t="s">
         <v>292</v>
-      </c>
-      <c r="D178" s="24" t="s">
-        <v>293</v>
       </c>
       <c r="E178" s="25">
         <v>2</v>
@@ -12199,7 +12342,7 @@
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
@@ -12210,7 +12353,7 @@
         <v>18</v>
       </c>
       <c r="Q178" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R178" s="4">
         <v>11.1</v>
@@ -12228,19 +12371,19 @@
         <v>100</v>
       </c>
       <c r="W178" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="15.75" customHeight="1">
       <c r="A179" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B179" s="30"/>
       <c r="C179" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D179" s="24" t="s">
         <v>294</v>
-      </c>
-      <c r="D179" s="24" t="s">
-        <v>295</v>
       </c>
       <c r="E179" s="25">
         <v>2</v>
@@ -12252,7 +12395,7 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
@@ -12263,7 +12406,7 @@
         <v>18</v>
       </c>
       <c r="Q179" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R179" s="36">
         <v>-1</v>
@@ -12281,19 +12424,19 @@
         <v>-1</v>
       </c>
       <c r="W179" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="15.75" customHeight="1">
       <c r="A180" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B180" s="30"/>
       <c r="C180" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D180" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="D180" s="24" t="s">
-        <v>297</v>
       </c>
       <c r="E180" s="25">
         <v>2</v>
@@ -12305,7 +12448,7 @@
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
@@ -12316,7 +12459,7 @@
         <v>18</v>
       </c>
       <c r="Q180" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R180" s="4">
         <v>74.099999999999994</v>
@@ -12334,19 +12477,19 @@
         <v>100</v>
       </c>
       <c r="W180" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="15.75" customHeight="1">
       <c r="A181" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B181" s="30"/>
       <c r="C181" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D181" s="24" t="s">
         <v>298</v>
-      </c>
-      <c r="D181" s="24" t="s">
-        <v>299</v>
       </c>
       <c r="E181" s="25">
         <v>2</v>
@@ -12358,7 +12501,7 @@
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
@@ -12369,7 +12512,7 @@
         <v>18</v>
       </c>
       <c r="Q181" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R181" s="4">
         <v>78.900000000000006</v>
@@ -12387,19 +12530,19 @@
         <v>65</v>
       </c>
       <c r="W181" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="15.75" customHeight="1">
       <c r="A182" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B182" s="30"/>
       <c r="C182" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D182" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="D182" s="24" t="s">
-        <v>301</v>
       </c>
       <c r="E182" s="25">
         <v>2</v>
@@ -12411,7 +12554,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
@@ -12422,7 +12565,7 @@
         <v>18</v>
       </c>
       <c r="Q182" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R182" s="4">
         <v>53.3</v>
@@ -12440,19 +12583,19 @@
         <v>60</v>
       </c>
       <c r="W182" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="15.75" customHeight="1">
       <c r="A183" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B183" s="30"/>
       <c r="C183" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D183" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="D183" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="E183" s="25">
         <v>2</v>
@@ -12464,7 +12607,7 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
@@ -12475,7 +12618,7 @@
         <v>18</v>
       </c>
       <c r="Q183" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R183" s="4">
         <v>36.799999999999997</v>
@@ -12493,19 +12636,19 @@
         <v>100</v>
       </c>
       <c r="W183" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="15.75" customHeight="1">
       <c r="A184" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B184" s="30"/>
       <c r="C184" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D184" s="24" t="s">
         <v>304</v>
-      </c>
-      <c r="D184" s="24" t="s">
-        <v>305</v>
       </c>
       <c r="E184" s="25">
         <v>2</v>
@@ -12516,7 +12659,7 @@
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
@@ -12528,7 +12671,7 @@
         <v>25</v>
       </c>
       <c r="Q184" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R184" s="4">
         <v>89.2</v>
@@ -12546,19 +12689,19 @@
         <v>100</v>
       </c>
       <c r="W184" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="15.75" customHeight="1">
       <c r="A185" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B185" s="30"/>
       <c r="C185" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E185" s="25">
         <v>3</v>
@@ -12569,7 +12712,7 @@
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
@@ -12581,7 +12724,7 @@
         <v>25</v>
       </c>
       <c r="Q185" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R185" s="4">
         <v>75</v>
@@ -12599,19 +12742,19 @@
         <v>100</v>
       </c>
       <c r="W185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="15.75" customHeight="1">
       <c r="A186" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B186" s="30"/>
       <c r="C186" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D186" s="24" t="s">
         <v>308</v>
-      </c>
-      <c r="D186" s="24" t="s">
-        <v>309</v>
       </c>
       <c r="E186" s="25">
         <v>2</v>
@@ -12623,7 +12766,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
@@ -12634,7 +12777,7 @@
         <v>25</v>
       </c>
       <c r="Q186" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R186" s="4">
         <v>68</v>
@@ -12652,19 +12795,19 @@
         <v>100</v>
       </c>
       <c r="W186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="15.75" customHeight="1">
       <c r="A187" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B187" s="30"/>
       <c r="C187" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D187" s="24" t="s">
         <v>310</v>
-      </c>
-      <c r="D187" s="24" t="s">
-        <v>311</v>
       </c>
       <c r="E187" s="25">
         <v>3</v>
@@ -12676,7 +12819,7 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
@@ -12687,7 +12830,7 @@
         <v>25</v>
       </c>
       <c r="Q187" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R187" s="4">
         <v>55.6</v>
@@ -12705,19 +12848,19 @@
         <v>100</v>
       </c>
       <c r="W187" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="15.75" customHeight="1">
       <c r="A188" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B188" s="30"/>
       <c r="C188" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D188" s="24" t="s">
         <v>312</v>
-      </c>
-      <c r="D188" s="24" t="s">
-        <v>313</v>
       </c>
       <c r="E188" s="25">
         <v>2</v>
@@ -12729,7 +12872,7 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
@@ -12740,7 +12883,7 @@
         <v>25</v>
       </c>
       <c r="Q188" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R188" s="4">
         <v>86.5</v>
@@ -12758,48 +12901,48 @@
         <v>100</v>
       </c>
       <c r="W188" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="15.75" customHeight="1">
       <c r="A189" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B189" s="30"/>
       <c r="C189" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D189" s="24" t="s">
         <v>314</v>
-      </c>
-      <c r="D189" s="24" t="s">
-        <v>315</v>
       </c>
       <c r="E189" s="25">
         <v>1</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H189" s="40"/>
       <c r="I189" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J189" s="40"/>
       <c r="K189" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L189" s="40"/>
       <c r="M189" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N189" s="40"/>
       <c r="O189" s="27">
         <v>1</v>
       </c>
       <c r="P189" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q189" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R189" s="36">
         <v>-1</v>
@@ -12817,48 +12960,48 @@
         <v>-1</v>
       </c>
       <c r="W189" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="15.75" customHeight="1">
       <c r="A190" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B190" s="30"/>
       <c r="C190" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D190" s="24" t="s">
         <v>317</v>
-      </c>
-      <c r="D190" s="24" t="s">
-        <v>318</v>
       </c>
       <c r="E190" s="25">
         <v>2</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H190" s="40"/>
       <c r="I190" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J190" s="40"/>
       <c r="K190" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L190" s="40"/>
       <c r="M190" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N190" s="40"/>
       <c r="O190" s="27">
         <v>2</v>
       </c>
       <c r="P190" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q190" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R190" s="4">
         <v>91.7</v>
@@ -12876,48 +13019,48 @@
         <v>-1</v>
       </c>
       <c r="W190" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="15.75" customHeight="1">
       <c r="A191" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B191" s="30"/>
       <c r="C191" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D191" s="24" t="s">
         <v>319</v>
-      </c>
-      <c r="D191" s="24" t="s">
-        <v>320</v>
       </c>
       <c r="E191" s="25">
         <v>2</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H191" s="40"/>
       <c r="I191" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J191" s="40"/>
       <c r="K191" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L191" s="40"/>
       <c r="M191" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N191" s="40"/>
       <c r="O191" s="27">
         <v>2</v>
       </c>
       <c r="P191" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q191" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R191" s="36">
         <v>-1</v>
@@ -12935,48 +13078,48 @@
         <v>-1</v>
       </c>
       <c r="W191" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="15.75" customHeight="1">
       <c r="A192" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B192" s="30"/>
       <c r="C192" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D192" s="24" t="s">
         <v>321</v>
-      </c>
-      <c r="D192" s="24" t="s">
-        <v>322</v>
       </c>
       <c r="E192" s="25">
         <v>2</v>
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H192" s="40"/>
       <c r="I192" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J192" s="40"/>
       <c r="K192" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L192" s="40"/>
       <c r="M192" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N192" s="40"/>
       <c r="O192" s="27">
         <v>2</v>
       </c>
       <c r="P192" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q192" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R192" s="36">
         <v>-1</v>
@@ -12994,48 +13137,48 @@
         <v>-1</v>
       </c>
       <c r="W192" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="15.75" customHeight="1">
       <c r="A193" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B193" s="30"/>
       <c r="C193" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D193" s="24" t="s">
         <v>323</v>
-      </c>
-      <c r="D193" s="24" t="s">
-        <v>324</v>
       </c>
       <c r="E193" s="25">
         <v>2</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H193" s="40"/>
       <c r="I193" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J193" s="40"/>
       <c r="K193" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L193" s="40"/>
       <c r="M193" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N193" s="40"/>
       <c r="O193" s="27">
         <v>2</v>
       </c>
       <c r="P193" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q193" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R193" s="36">
         <v>-1</v>
@@ -13053,19 +13196,19 @@
         <v>-1</v>
       </c>
       <c r="W193" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="15.75" customHeight="1">
       <c r="A194" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B194" s="30"/>
       <c r="C194" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D194" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="D194" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="E194" s="25">
         <v>2</v>
@@ -13073,7 +13216,7 @@
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -13088,7 +13231,7 @@
         <v>18</v>
       </c>
       <c r="Q194" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R194" s="4">
         <v>22.2</v>
@@ -13106,19 +13249,19 @@
         <v>-1</v>
       </c>
       <c r="W194" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="15.75" customHeight="1">
       <c r="A195" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B195" s="30"/>
       <c r="C195" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D195" s="25" t="s">
         <v>327</v>
-      </c>
-      <c r="D195" s="25" t="s">
-        <v>328</v>
       </c>
       <c r="E195" s="25">
         <v>2</v>
@@ -13128,7 +13271,7 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
@@ -13141,7 +13284,7 @@
         <v>25</v>
       </c>
       <c r="Q195" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R195" s="36">
         <v>-1</v>
@@ -13159,19 +13302,19 @@
         <v>-1</v>
       </c>
       <c r="W195" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="15.75" customHeight="1">
       <c r="A196" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B196" s="30"/>
       <c r="C196" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D196" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="D196" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="E196" s="25">
         <v>2</v>
@@ -13182,7 +13325,7 @@
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
@@ -13212,19 +13355,19 @@
         <v>-1</v>
       </c>
       <c r="W196" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="15.75" customHeight="1">
       <c r="A197" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B197" s="30"/>
       <c r="C197" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D197" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>332</v>
       </c>
       <c r="E197" s="25">
         <v>2</v>
@@ -13235,7 +13378,7 @@
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
@@ -13247,7 +13390,7 @@
         <v>18</v>
       </c>
       <c r="Q197" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R197" s="4">
         <v>80</v>
@@ -13265,19 +13408,19 @@
         <v>-1</v>
       </c>
       <c r="W197" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="15.75" customHeight="1">
       <c r="A198" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B198" s="30"/>
       <c r="C198" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D198" s="25" t="s">
         <v>333</v>
-      </c>
-      <c r="D198" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="E198" s="25">
         <v>2</v>
@@ -13288,7 +13431,7 @@
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
@@ -13300,7 +13443,7 @@
         <v>18</v>
       </c>
       <c r="Q198" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R198" s="4">
         <v>50</v>
@@ -13318,19 +13461,19 @@
         <v>-1</v>
       </c>
       <c r="W198" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="15.75" customHeight="1">
       <c r="A199" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B199" s="30"/>
       <c r="C199" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D199" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>336</v>
       </c>
       <c r="E199" s="25">
         <v>2</v>
@@ -13342,7 +13485,7 @@
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
@@ -13353,7 +13496,7 @@
         <v>25</v>
       </c>
       <c r="Q199" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R199" s="4">
         <v>23.5</v>
@@ -13371,19 +13514,19 @@
         <v>-1</v>
       </c>
       <c r="W199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="15.75" customHeight="1">
       <c r="A200" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B200" s="30"/>
       <c r="C200" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D200" s="25" t="s">
         <v>337</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>338</v>
       </c>
       <c r="E200" s="25">
         <v>2</v>
@@ -13394,7 +13537,7 @@
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
@@ -13406,7 +13549,7 @@
         <v>25</v>
       </c>
       <c r="Q200" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R200" s="36">
         <v>-1</v>
@@ -13424,19 +13567,19 @@
         <v>-1</v>
       </c>
       <c r="W200" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="15.75" customHeight="1">
       <c r="A201" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B201" s="30"/>
       <c r="C201" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D201" s="25" t="s">
         <v>339</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>340</v>
       </c>
       <c r="E201" s="25">
         <v>2</v>
@@ -13448,7 +13591,7 @@
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
       <c r="L201" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M201" s="7"/>
       <c r="N201" s="7"/>
@@ -13459,7 +13602,7 @@
         <v>25</v>
       </c>
       <c r="Q201" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R201" s="36">
         <v>-1</v>
@@ -13477,19 +13620,19 @@
         <v>-1</v>
       </c>
       <c r="W201" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" customHeight="1">
       <c r="A202" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B202" s="30"/>
       <c r="C202" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D202" s="25" t="s">
         <v>341</v>
-      </c>
-      <c r="D202" s="25" t="s">
-        <v>342</v>
       </c>
       <c r="E202" s="25">
         <v>2</v>
@@ -13498,7 +13641,7 @@
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
       <c r="I202" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
@@ -13512,7 +13655,7 @@
         <v>18</v>
       </c>
       <c r="Q202" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R202" s="36">
         <v>-1</v>
@@ -13530,19 +13673,19 @@
         <v>-1</v>
       </c>
       <c r="W202" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="15.75" customHeight="1">
       <c r="A203" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B203" s="30"/>
       <c r="C203" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D203" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>344</v>
       </c>
       <c r="E203" s="25">
         <v>2</v>
@@ -13552,7 +13695,7 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
       <c r="J203" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
@@ -13565,7 +13708,7 @@
         <v>18</v>
       </c>
       <c r="Q203" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R203" s="4">
         <v>84.6</v>
@@ -13583,19 +13726,19 @@
         <v>-1</v>
       </c>
       <c r="W203" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="15.75" customHeight="1">
       <c r="A204" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B204" s="30"/>
       <c r="C204" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D204" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>346</v>
       </c>
       <c r="E204" s="25">
         <v>2</v>
@@ -13607,7 +13750,7 @@
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
       <c r="L204" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M204" s="7"/>
       <c r="N204" s="7"/>
@@ -13618,7 +13761,7 @@
         <v>18</v>
       </c>
       <c r="Q204" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R204" s="36">
         <v>-1</v>
@@ -13636,19 +13779,19 @@
         <v>-1</v>
       </c>
       <c r="W204" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="15.75" customHeight="1">
       <c r="A205" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B205" s="30"/>
       <c r="C205" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D205" s="24" t="s">
         <v>347</v>
-      </c>
-      <c r="D205" s="24" t="s">
-        <v>348</v>
       </c>
       <c r="E205" s="25">
         <v>4</v>
@@ -13664,16 +13807,16 @@
         <v>36</v>
       </c>
       <c r="N205" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="O205" s="27">
+        <v>2</v>
+      </c>
+      <c r="P205" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="O205" s="27">
-        <v>2</v>
-      </c>
-      <c r="P205" s="28" t="s">
+      <c r="Q205" s="27" t="s">
         <v>350</v>
-      </c>
-      <c r="Q205" s="27" t="s">
-        <v>351</v>
       </c>
       <c r="R205" s="4">
         <v>0</v>
@@ -13693,14 +13836,14 @@
     </row>
     <row r="206" spans="1:23" ht="15.75" customHeight="1">
       <c r="A206" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B206" s="30"/>
       <c r="C206" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="D206" s="24" t="s">
         <v>352</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>353</v>
       </c>
       <c r="E206" s="25">
         <v>8</v>
@@ -13713,7 +13856,7 @@
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
       <c r="M206" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N206" s="28" t="s">
         <v>36</v>
@@ -13722,10 +13865,10 @@
         <v>4</v>
       </c>
       <c r="P206" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q206" s="27" t="s">
         <v>350</v>
-      </c>
-      <c r="Q206" s="27" t="s">
-        <v>351</v>
       </c>
       <c r="R206" s="4">
         <v>80.900000000000006</v>
@@ -13780,14 +13923,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="I193:J193"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:N193"/>
     <mergeCell ref="G191:H191"/>
     <mergeCell ref="I191:J191"/>
     <mergeCell ref="K191:L191"/>
@@ -13800,13 +13935,22 @@
     <mergeCell ref="K190:L190"/>
     <mergeCell ref="M190:N190"/>
     <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="I193:J193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <hyperlinks>
     <hyperlink ref="W142" r:id="rId1" xr:uid="{6D031BD5-FE9F-4C4F-BCD6-592A0BBB94CF}"/>
     <hyperlink ref="W143" r:id="rId2" xr:uid="{38FCC0A4-1AB7-48DA-8FFC-CF2D8E0D62B3}"/>
+    <hyperlink ref="W7" r:id="rId3" xr:uid="{FA6FBB16-69C0-4160-BC1C-960DD759A3FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/RBS/GPA分布.xlsx
+++ b/RBS/GPA分布.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haruma\source\repos\RakutanBoshiSystem\RBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naru\source\repos\RakutanBoshiSystem\RBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E585E2-C013-4638-9511-F75EF23AB349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B330854-A234-4ACE-BA6D-C2A0753A0A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -1400,6 +1400,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1413,6 +1414,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -1630,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1674,9 +1676,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1687,9 +1686,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1734,6 +1730,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1955,11 +1963,11 @@
   </sheetPr>
   <dimension ref="A2:W208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S13" zoomScale="49" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2016,18 +2024,18 @@
       <c r="T2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7"/>
@@ -2079,18 +2087,18 @@
       <c r="T3" s="16">
         <v>38.9</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="32">
         <v>24</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3" s="32">
         <v>76</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="36" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7"/>
@@ -2142,10 +2150,10 @@
       <c r="T4" s="16">
         <v>23.5</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="32">
         <v>25</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="32">
         <v>75</v>
       </c>
       <c r="W4" t="s">
@@ -2153,7 +2161,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7"/>
@@ -2205,10 +2213,10 @@
       <c r="T5" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U5" s="34">
-        <v>0</v>
-      </c>
-      <c r="V5" s="34">
+      <c r="U5" s="32">
+        <v>0</v>
+      </c>
+      <c r="V5" s="32">
         <v>100</v>
       </c>
       <c r="W5" t="s">
@@ -2216,7 +2224,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="7"/>
@@ -2265,7 +2273,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7"/>
@@ -2317,18 +2325,18 @@
       <c r="T7" s="16">
         <v>0</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="32">
         <v>40</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="32">
         <v>60</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="36" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="7"/>
@@ -2380,15 +2388,15 @@
       <c r="T8" s="16">
         <v>0</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="32">
         <v>-1</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
@@ -2440,10 +2448,10 @@
       <c r="T9" s="16">
         <v>0</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="32">
         <v>45</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="32">
         <v>55</v>
       </c>
       <c r="W9" t="s">
@@ -2451,7 +2459,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2505,10 +2513,10 @@
       <c r="T10" s="16">
         <v>15</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="32">
         <v>100</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="32">
         <v>0</v>
       </c>
       <c r="W10" t="s">
@@ -2516,7 +2524,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -2570,10 +2578,10 @@
       <c r="T11" s="16">
         <v>9.6</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="32">
         <v>100</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="32">
         <v>0</v>
       </c>
       <c r="W11" t="s">
@@ -2581,7 +2589,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2635,10 +2643,10 @@
       <c r="T12" s="16">
         <v>24.6</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="32">
         <v>100</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="32">
         <v>0</v>
       </c>
       <c r="W12" t="s">
@@ -2646,7 +2654,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2700,10 +2708,10 @@
       <c r="T13" s="16">
         <v>12.9</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13" s="32">
         <v>100</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="32">
         <v>0</v>
       </c>
       <c r="W13" t="s">
@@ -2711,7 +2719,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2765,10 +2773,10 @@
       <c r="T14" s="16">
         <v>18.899999999999999</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="32">
         <v>100</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="32">
         <v>0</v>
       </c>
       <c r="W14" t="s">
@@ -2776,7 +2784,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -2830,10 +2838,10 @@
       <c r="T15" s="16">
         <v>24.3</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="32">
         <v>100</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="32">
         <v>0</v>
       </c>
       <c r="W15" t="s">
@@ -2841,7 +2849,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -2895,10 +2903,10 @@
       <c r="T16" s="16">
         <v>10.7</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16" s="32">
         <v>100</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="32">
         <v>0</v>
       </c>
       <c r="W16" t="s">
@@ -2906,7 +2914,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2960,10 +2968,10 @@
       <c r="T17" s="16">
         <v>18.5</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="32">
         <v>100</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17" s="32">
         <v>0</v>
       </c>
       <c r="W17" t="s">
@@ -2971,7 +2979,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -3025,10 +3033,10 @@
       <c r="T18" s="16">
         <v>22.1</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="32">
         <v>100</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="32">
         <v>0</v>
       </c>
       <c r="W18" t="s">
@@ -3036,7 +3044,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -3090,10 +3098,10 @@
       <c r="T19" s="16">
         <v>23.7</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="32">
         <v>100</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="32">
         <v>0</v>
       </c>
       <c r="W19" t="s">
@@ -3101,7 +3109,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -3155,10 +3163,10 @@
       <c r="T20" s="16">
         <v>18.899999999999999</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U20" s="32">
         <v>100</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V20" s="32">
         <v>0</v>
       </c>
       <c r="W20" t="s">
@@ -3166,7 +3174,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -3220,10 +3228,10 @@
       <c r="T21" s="16">
         <v>25</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="32">
         <v>20</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="32">
         <v>80</v>
       </c>
       <c r="W21" t="s">
@@ -3231,7 +3239,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -3285,10 +3293,10 @@
       <c r="T22" s="16">
         <v>9.1</v>
       </c>
-      <c r="U22" s="34">
-        <v>0</v>
-      </c>
-      <c r="V22" s="34">
+      <c r="U22" s="32">
+        <v>0</v>
+      </c>
+      <c r="V22" s="32">
         <v>100</v>
       </c>
       <c r="W22" t="s">
@@ -3296,7 +3304,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3350,10 +3358,10 @@
       <c r="T23" s="16">
         <v>0</v>
       </c>
-      <c r="U23" s="34">
-        <v>0</v>
-      </c>
-      <c r="V23" s="34">
+      <c r="U23" s="32">
+        <v>0</v>
+      </c>
+      <c r="V23" s="32">
         <v>100</v>
       </c>
       <c r="W23" t="s">
@@ -3361,7 +3369,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3415,10 +3423,10 @@
       <c r="T24" s="16">
         <v>4.2</v>
       </c>
-      <c r="U24" s="34">
-        <v>0</v>
-      </c>
-      <c r="V24" s="34">
+      <c r="U24" s="32">
+        <v>0</v>
+      </c>
+      <c r="V24" s="32">
         <v>100</v>
       </c>
       <c r="W24" t="s">
@@ -3426,7 +3434,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -3480,10 +3488,10 @@
       <c r="T25" s="16">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U25" s="34">
-        <v>0</v>
-      </c>
-      <c r="V25" s="34">
+      <c r="U25" s="32">
+        <v>0</v>
+      </c>
+      <c r="V25" s="32">
         <v>100</v>
       </c>
       <c r="W25" t="s">
@@ -3491,7 +3499,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3545,10 +3553,10 @@
       <c r="T26" s="16">
         <v>13.3</v>
       </c>
-      <c r="U26" s="34">
-        <v>0</v>
-      </c>
-      <c r="V26" s="34">
+      <c r="U26" s="32">
+        <v>0</v>
+      </c>
+      <c r="V26" s="32">
         <v>100</v>
       </c>
       <c r="W26" t="s">
@@ -3556,7 +3564,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -3610,10 +3618,10 @@
       <c r="T27" s="16">
         <v>20</v>
       </c>
-      <c r="U27" s="34">
+      <c r="U27" s="32">
         <v>20</v>
       </c>
-      <c r="V27" s="34">
+      <c r="V27" s="32">
         <v>80</v>
       </c>
       <c r="W27" t="s">
@@ -3621,7 +3629,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -3664,10 +3672,10 @@
       <c r="T28" s="5">
         <v>-1</v>
       </c>
-      <c r="U28" s="34">
-        <v>0</v>
-      </c>
-      <c r="V28" s="34">
+      <c r="U28" s="32">
+        <v>0</v>
+      </c>
+      <c r="V28" s="32">
         <v>100</v>
       </c>
       <c r="W28" t="s">
@@ -3675,7 +3683,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -3729,15 +3737,15 @@
       <c r="T29" s="16">
         <v>13.7</v>
       </c>
-      <c r="U29" s="34">
+      <c r="U29" s="32">
         <v>60</v>
       </c>
-      <c r="V29" s="34">
+      <c r="V29" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -3791,15 +3799,15 @@
       <c r="T30" s="16">
         <v>10.8</v>
       </c>
-      <c r="U30" s="34">
+      <c r="U30" s="32">
         <v>46</v>
       </c>
-      <c r="V30" s="34">
+      <c r="V30" s="32">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -3853,15 +3861,15 @@
       <c r="T31" s="16">
         <v>14.6</v>
       </c>
-      <c r="U31" s="34">
+      <c r="U31" s="32">
         <v>50</v>
       </c>
-      <c r="V31" s="34">
+      <c r="V31" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -3915,15 +3923,15 @@
       <c r="T32" s="16">
         <v>2.5</v>
       </c>
-      <c r="U32" s="34">
+      <c r="U32" s="32">
         <v>60</v>
       </c>
-      <c r="V32" s="34">
+      <c r="V32" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -3977,15 +3985,15 @@
       <c r="T33" s="16">
         <v>19.600000000000001</v>
       </c>
-      <c r="U33" s="34">
+      <c r="U33" s="32">
         <v>50</v>
       </c>
-      <c r="V33" s="34">
+      <c r="V33" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -4039,15 +4047,15 @@
       <c r="T34" s="16">
         <v>3.8</v>
       </c>
-      <c r="U34" s="34">
+      <c r="U34" s="32">
         <v>8</v>
       </c>
-      <c r="V34" s="34">
+      <c r="V34" s="32">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -4101,15 +4109,15 @@
       <c r="T35" s="16">
         <v>7.6</v>
       </c>
-      <c r="U35" s="34">
+      <c r="U35" s="32">
         <v>60</v>
       </c>
-      <c r="V35" s="34">
+      <c r="V35" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -4163,15 +4171,15 @@
       <c r="T36" s="16">
         <v>1.5</v>
       </c>
-      <c r="U36" s="34">
+      <c r="U36" s="32">
         <v>60</v>
       </c>
-      <c r="V36" s="34">
+      <c r="V36" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -4225,15 +4233,15 @@
       <c r="T37" s="16">
         <v>8.5</v>
       </c>
-      <c r="U37" s="34">
+      <c r="U37" s="32">
         <v>60</v>
       </c>
-      <c r="V37" s="34">
+      <c r="V37" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -4287,15 +4295,15 @@
       <c r="T38" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U38" s="34">
+      <c r="U38" s="32">
         <v>50</v>
       </c>
-      <c r="V38" s="34">
+      <c r="V38" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -4349,15 +4357,15 @@
       <c r="T39" s="16">
         <v>11.1</v>
       </c>
-      <c r="U39" s="34">
+      <c r="U39" s="32">
         <v>60</v>
       </c>
-      <c r="V39" s="34">
+      <c r="V39" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -4411,15 +4419,15 @@
       <c r="T40" s="16">
         <v>13.3</v>
       </c>
-      <c r="U40" s="34">
+      <c r="U40" s="32">
         <v>60</v>
       </c>
-      <c r="V40" s="34">
+      <c r="V40" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -4473,15 +4481,15 @@
       <c r="T41" s="16">
         <v>16.399999999999999</v>
       </c>
-      <c r="U41" s="34">
+      <c r="U41" s="32">
         <v>60</v>
       </c>
-      <c r="V41" s="34">
+      <c r="V41" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -4535,15 +4543,15 @@
       <c r="T42" s="16">
         <v>17.3</v>
       </c>
-      <c r="U42" s="34">
+      <c r="U42" s="32">
         <v>60</v>
       </c>
-      <c r="V42" s="34">
+      <c r="V42" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="7"/>
@@ -4595,15 +4603,15 @@
       <c r="T43" s="16">
         <v>28.1</v>
       </c>
-      <c r="U43" s="34">
+      <c r="U43" s="32">
         <v>60</v>
       </c>
-      <c r="V43" s="34">
+      <c r="V43" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B44" s="7"/>
@@ -4655,15 +4663,15 @@
       <c r="T44" s="16">
         <v>17</v>
       </c>
-      <c r="U44" s="34">
-        <v>0</v>
-      </c>
-      <c r="V44" s="34">
+      <c r="U44" s="32">
+        <v>0</v>
+      </c>
+      <c r="V44" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="7"/>
@@ -4715,15 +4723,15 @@
       <c r="T45" s="16">
         <v>0</v>
       </c>
-      <c r="U45" s="34">
-        <v>0</v>
-      </c>
-      <c r="V45" s="34">
+      <c r="U45" s="32">
+        <v>0</v>
+      </c>
+      <c r="V45" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B46" s="7"/>
@@ -4775,15 +4783,15 @@
       <c r="T46" s="16">
         <v>20.7</v>
       </c>
-      <c r="U46" s="34">
+      <c r="U46" s="32">
         <v>60</v>
       </c>
-      <c r="V46" s="34">
+      <c r="V46" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="7"/>
@@ -4835,15 +4843,15 @@
       <c r="T47" s="16">
         <v>31.5</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="32">
         <v>50</v>
       </c>
-      <c r="V47" s="34">
+      <c r="V47" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B48" s="7"/>
@@ -4895,15 +4903,15 @@
       <c r="T48" s="16">
         <v>5.5</v>
       </c>
-      <c r="U48" s="34">
+      <c r="U48" s="32">
         <v>40</v>
       </c>
-      <c r="V48" s="34">
+      <c r="V48" s="32">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="7"/>
@@ -4955,15 +4963,15 @@
       <c r="T49" s="16">
         <v>15</v>
       </c>
-      <c r="U49" s="34">
-        <v>0</v>
-      </c>
-      <c r="V49" s="34">
+      <c r="U49" s="32">
+        <v>0</v>
+      </c>
+      <c r="V49" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B50" s="7"/>
@@ -5015,15 +5023,15 @@
       <c r="T50" s="16">
         <v>0</v>
       </c>
-      <c r="U50" s="34">
+      <c r="U50" s="32">
         <v>40</v>
       </c>
-      <c r="V50" s="34">
+      <c r="V50" s="32">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B51" s="7"/>
@@ -5075,15 +5083,15 @@
       <c r="T51" s="16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="U51" s="34">
-        <v>0</v>
-      </c>
-      <c r="V51" s="34">
+      <c r="U51" s="32">
+        <v>0</v>
+      </c>
+      <c r="V51" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B52" s="7"/>
@@ -5135,15 +5143,15 @@
       <c r="T52" s="16">
         <v>17.2</v>
       </c>
-      <c r="U52" s="34">
+      <c r="U52" s="32">
         <v>20</v>
       </c>
-      <c r="V52" s="34">
+      <c r="V52" s="32">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B53" s="7"/>
@@ -5195,15 +5203,15 @@
       <c r="T53" s="16">
         <v>0</v>
       </c>
-      <c r="U53" s="34">
+      <c r="U53" s="32">
         <v>-1</v>
       </c>
-      <c r="V53" s="34">
+      <c r="V53" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B54" s="7"/>
@@ -5255,15 +5263,15 @@
       <c r="T54" s="16">
         <v>3.1</v>
       </c>
-      <c r="U54" s="34">
-        <v>0</v>
-      </c>
-      <c r="V54" s="34">
+      <c r="U54" s="32">
+        <v>0</v>
+      </c>
+      <c r="V54" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="7"/>
@@ -5315,15 +5323,15 @@
       <c r="T55" s="16">
         <v>15.6</v>
       </c>
-      <c r="U55" s="34">
+      <c r="U55" s="32">
         <v>60</v>
       </c>
-      <c r="V55" s="34">
+      <c r="V55" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B56" s="7"/>
@@ -5375,15 +5383,15 @@
       <c r="T56" s="16">
         <v>17.2</v>
       </c>
-      <c r="U56" s="34">
-        <v>0</v>
-      </c>
-      <c r="V56" s="34">
+      <c r="U56" s="32">
+        <v>0</v>
+      </c>
+      <c r="V56" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B57" s="7"/>
@@ -5435,15 +5443,15 @@
       <c r="T57" s="16">
         <v>22.2</v>
       </c>
-      <c r="U57" s="34">
+      <c r="U57" s="32">
         <v>80</v>
       </c>
-      <c r="V57" s="34">
+      <c r="V57" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B58" s="7"/>
@@ -5495,15 +5503,15 @@
       <c r="T58" s="16">
         <v>14.3</v>
       </c>
-      <c r="U58" s="34">
+      <c r="U58" s="32">
         <v>50</v>
       </c>
-      <c r="V58" s="34">
+      <c r="V58" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B59" s="7"/>
@@ -5555,15 +5563,15 @@
       <c r="T59" s="16">
         <v>17.5</v>
       </c>
-      <c r="U59" s="34">
+      <c r="U59" s="32">
         <v>40</v>
       </c>
-      <c r="V59" s="34">
+      <c r="V59" s="32">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="7"/>
@@ -5615,15 +5623,15 @@
       <c r="T60" s="16">
         <v>33.299999999999997</v>
       </c>
-      <c r="U60" s="34">
-        <v>0</v>
-      </c>
-      <c r="V60" s="34">
+      <c r="U60" s="32">
+        <v>0</v>
+      </c>
+      <c r="V60" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="7"/>
@@ -5675,15 +5683,15 @@
       <c r="T61" s="16">
         <v>7.8</v>
       </c>
-      <c r="U61" s="34">
+      <c r="U61" s="32">
         <v>80</v>
       </c>
-      <c r="V61" s="34">
+      <c r="V61" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="7"/>
@@ -5735,15 +5743,15 @@
       <c r="T62" s="16">
         <v>2.1</v>
       </c>
-      <c r="U62" s="34">
-        <v>0</v>
-      </c>
-      <c r="V62" s="34">
+      <c r="U62" s="32">
+        <v>0</v>
+      </c>
+      <c r="V62" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="7"/>
@@ -5795,15 +5803,15 @@
       <c r="T63" s="16">
         <v>0</v>
       </c>
-      <c r="U63" s="34">
-        <v>0</v>
-      </c>
-      <c r="V63" s="34">
+      <c r="U63" s="32">
+        <v>0</v>
+      </c>
+      <c r="V63" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B64" s="7"/>
@@ -5855,15 +5863,15 @@
       <c r="T64" s="16">
         <v>18.7</v>
       </c>
-      <c r="U64" s="34">
+      <c r="U64" s="32">
         <v>80</v>
       </c>
-      <c r="V64" s="34">
+      <c r="V64" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="7"/>
@@ -5915,15 +5923,15 @@
       <c r="T65" s="16">
         <v>9.1</v>
       </c>
-      <c r="U65" s="34">
+      <c r="U65" s="32">
         <v>20</v>
       </c>
-      <c r="V65" s="34">
+      <c r="V65" s="32">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="7"/>
@@ -5975,15 +5983,15 @@
       <c r="T66" s="16">
         <v>3.6</v>
       </c>
-      <c r="U66" s="34">
+      <c r="U66" s="32">
         <v>30</v>
       </c>
-      <c r="V66" s="34">
+      <c r="V66" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B67" s="7"/>
@@ -6035,15 +6043,15 @@
       <c r="T67" s="16">
         <v>0</v>
       </c>
-      <c r="U67" s="34">
-        <v>0</v>
-      </c>
-      <c r="V67" s="34">
+      <c r="U67" s="32">
+        <v>0</v>
+      </c>
+      <c r="V67" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B68" s="7"/>
@@ -6095,15 +6103,15 @@
       <c r="T68" s="16">
         <v>21.7</v>
       </c>
-      <c r="U68" s="34">
+      <c r="U68" s="32">
         <v>30</v>
       </c>
-      <c r="V68" s="34">
+      <c r="V68" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="7"/>
@@ -6155,15 +6163,15 @@
       <c r="T69" s="16">
         <v>37.9</v>
       </c>
-      <c r="U69" s="34">
+      <c r="U69" s="32">
         <v>35</v>
       </c>
-      <c r="V69" s="34">
+      <c r="V69" s="32">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B70" s="7"/>
@@ -6215,15 +6223,15 @@
       <c r="T70" s="16">
         <v>50</v>
       </c>
-      <c r="U70" s="34">
+      <c r="U70" s="32">
         <v>40</v>
       </c>
-      <c r="V70" s="34">
+      <c r="V70" s="32">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="7"/>
@@ -6275,15 +6283,15 @@
       <c r="T71" s="16">
         <v>5.6</v>
       </c>
-      <c r="U71" s="34">
-        <v>0</v>
-      </c>
-      <c r="V71" s="34">
+      <c r="U71" s="32">
+        <v>0</v>
+      </c>
+      <c r="V71" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="7"/>
@@ -6335,15 +6343,15 @@
       <c r="T72" s="16">
         <v>2.7</v>
       </c>
-      <c r="U72" s="34">
-        <v>0</v>
-      </c>
-      <c r="V72" s="34">
+      <c r="U72" s="32">
+        <v>0</v>
+      </c>
+      <c r="V72" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="7"/>
@@ -6395,15 +6403,15 @@
       <c r="T73" s="16">
         <v>0</v>
       </c>
-      <c r="U73" s="34">
-        <v>0</v>
-      </c>
-      <c r="V73" s="34">
+      <c r="U73" s="32">
+        <v>0</v>
+      </c>
+      <c r="V73" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B74" s="7"/>
@@ -6455,15 +6463,15 @@
       <c r="T74" s="16">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U74" s="34">
-        <v>0</v>
-      </c>
-      <c r="V74" s="34">
+      <c r="U74" s="32">
+        <v>0</v>
+      </c>
+      <c r="V74" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="7"/>
@@ -6515,15 +6523,15 @@
       <c r="T75" s="16">
         <v>9.5</v>
       </c>
-      <c r="U75" s="34">
-        <v>0</v>
-      </c>
-      <c r="V75" s="34">
+      <c r="U75" s="32">
+        <v>0</v>
+      </c>
+      <c r="V75" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="7"/>
@@ -6575,15 +6583,15 @@
       <c r="T76" s="16">
         <v>17.100000000000001</v>
       </c>
-      <c r="U76" s="34">
+      <c r="U76" s="32">
         <v>30</v>
       </c>
-      <c r="V76" s="34">
+      <c r="V76" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="7"/>
@@ -6611,7 +6619,7 @@
       <c r="J77" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="39" t="s">
         <v>19</v>
       </c>
       <c r="L77" s="4">
@@ -6635,15 +6643,15 @@
       <c r="T77" s="16">
         <v>26.7</v>
       </c>
-      <c r="U77" s="34">
+      <c r="U77" s="32">
         <v>60</v>
       </c>
-      <c r="V77" s="34">
+      <c r="V77" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B78" s="7"/>
@@ -6671,7 +6679,7 @@
       <c r="J78" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K78" s="39" t="s">
         <v>19</v>
       </c>
       <c r="L78" s="4">
@@ -6695,15 +6703,15 @@
       <c r="T78" s="16">
         <v>32.1</v>
       </c>
-      <c r="U78" s="34">
-        <v>0</v>
-      </c>
-      <c r="V78" s="34">
+      <c r="U78" s="32">
+        <v>0</v>
+      </c>
+      <c r="V78" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="7"/>
@@ -6731,7 +6739,7 @@
       <c r="J79" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K79" s="39" t="s">
         <v>19</v>
       </c>
       <c r="L79" s="4">
@@ -6755,15 +6763,15 @@
       <c r="T79" s="16">
         <v>15</v>
       </c>
-      <c r="U79" s="34">
-        <v>0</v>
-      </c>
-      <c r="V79" s="34">
+      <c r="U79" s="32">
+        <v>0</v>
+      </c>
+      <c r="V79" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B80" s="12" t="s">
@@ -6793,7 +6801,7 @@
       <c r="J80" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="17" t="s">
+      <c r="K80" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L80" s="4">
@@ -6817,15 +6825,15 @@
       <c r="T80" s="16">
         <v>1</v>
       </c>
-      <c r="U80" s="34">
-        <v>0</v>
-      </c>
-      <c r="V80" s="34">
+      <c r="U80" s="32">
+        <v>0</v>
+      </c>
+      <c r="V80" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -6855,7 +6863,7 @@
       <c r="J81" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K81" s="17" t="s">
+      <c r="K81" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L81" s="4">
@@ -6879,15 +6887,15 @@
       <c r="T81" s="16">
         <v>5.6</v>
       </c>
-      <c r="U81" s="34">
+      <c r="U81" s="32">
         <v>-1</v>
       </c>
-      <c r="V81" s="34">
+      <c r="V81" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -6917,7 +6925,7 @@
       <c r="J82" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K82" s="17" t="s">
+      <c r="K82" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L82" s="4">
@@ -6941,15 +6949,15 @@
       <c r="T82" s="16">
         <v>0</v>
       </c>
-      <c r="U82" s="34">
+      <c r="U82" s="32">
         <v>-1</v>
       </c>
-      <c r="V82" s="34">
+      <c r="V82" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -6979,7 +6987,7 @@
       <c r="J83" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K83" s="17" t="s">
+      <c r="K83" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q83" s="5"/>
@@ -6992,15 +7000,15 @@
       <c r="T83" s="5">
         <v>-1</v>
       </c>
-      <c r="U83" s="34">
+      <c r="U83" s="32">
         <v>-1</v>
       </c>
-      <c r="V83" s="34">
+      <c r="V83" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B84" s="12" t="s">
@@ -7030,7 +7038,7 @@
       <c r="J84" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="17" t="s">
+      <c r="K84" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q84" s="5"/>
@@ -7043,15 +7051,15 @@
       <c r="T84" s="5">
         <v>-1</v>
       </c>
-      <c r="U84" s="34">
+      <c r="U84" s="32">
         <v>-1</v>
       </c>
-      <c r="V84" s="34">
+      <c r="V84" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B85" s="12" t="s">
@@ -7081,7 +7089,7 @@
       <c r="J85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K85" s="17" t="s">
+      <c r="K85" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L85" s="4">
@@ -7105,15 +7113,15 @@
       <c r="T85" s="16">
         <v>22.2</v>
       </c>
-      <c r="U85" s="34">
+      <c r="U85" s="32">
         <v>70</v>
       </c>
-      <c r="V85" s="34">
+      <c r="V85" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B86" s="12" t="s">
@@ -7143,7 +7151,7 @@
       <c r="J86" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K86" s="17" t="s">
+      <c r="K86" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L86" s="4">
@@ -7167,15 +7175,15 @@
       <c r="T86" s="16">
         <v>14.1</v>
       </c>
-      <c r="U86" s="34">
+      <c r="U86" s="32">
         <v>50</v>
       </c>
-      <c r="V86" s="34">
+      <c r="V86" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B87" s="12" t="s">
@@ -7205,7 +7213,7 @@
       <c r="J87" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K87" s="17" t="s">
+      <c r="K87" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L87" s="4">
@@ -7229,15 +7237,15 @@
       <c r="T87" s="16">
         <v>11</v>
       </c>
-      <c r="U87" s="34">
+      <c r="U87" s="32">
         <v>-1</v>
       </c>
-      <c r="V87" s="34">
+      <c r="V87" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B88" s="12" t="s">
@@ -7267,7 +7275,7 @@
       <c r="J88" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K88" s="17" t="s">
+      <c r="K88" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L88" s="4">
@@ -7291,15 +7299,15 @@
       <c r="T88" s="16">
         <v>21.4</v>
       </c>
-      <c r="U88" s="34">
+      <c r="U88" s="32">
         <v>80</v>
       </c>
-      <c r="V88" s="34">
+      <c r="V88" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B89" s="12" t="s">
@@ -7329,7 +7337,7 @@
       <c r="J89" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K89" s="17" t="s">
+      <c r="K89" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L89" s="4">
@@ -7353,15 +7361,15 @@
       <c r="T89" s="16">
         <v>6.7</v>
       </c>
-      <c r="U89" s="34">
+      <c r="U89" s="32">
         <v>80</v>
       </c>
-      <c r="V89" s="34">
+      <c r="V89" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -7391,7 +7399,7 @@
       <c r="J90" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K90" s="17" t="s">
+      <c r="K90" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="4">
@@ -7415,15 +7423,15 @@
       <c r="T90" s="16">
         <v>0</v>
       </c>
-      <c r="U90" s="34">
-        <v>0</v>
-      </c>
-      <c r="V90" s="34">
+      <c r="U90" s="32">
+        <v>0</v>
+      </c>
+      <c r="V90" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -7453,7 +7461,7 @@
       <c r="J91" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K91" s="17" t="s">
+      <c r="K91" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="4">
@@ -7477,15 +7485,15 @@
       <c r="T91" s="16">
         <v>0</v>
       </c>
-      <c r="U91" s="34">
-        <v>0</v>
-      </c>
-      <c r="V91" s="34">
+      <c r="U91" s="32">
+        <v>0</v>
+      </c>
+      <c r="V91" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -7515,7 +7523,7 @@
       <c r="J92" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K92" s="17" t="s">
+      <c r="K92" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L92" s="4">
@@ -7539,15 +7547,15 @@
       <c r="T92" s="16">
         <v>0</v>
       </c>
-      <c r="U92" s="34">
-        <v>0</v>
-      </c>
-      <c r="V92" s="34">
+      <c r="U92" s="32">
+        <v>0</v>
+      </c>
+      <c r="V92" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -7577,7 +7585,7 @@
       <c r="J93" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K93" s="17" t="s">
+      <c r="K93" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L93" s="4">
@@ -7601,15 +7609,15 @@
       <c r="T93" s="16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U93" s="34">
-        <v>0</v>
-      </c>
-      <c r="V93" s="34">
+      <c r="U93" s="32">
+        <v>0</v>
+      </c>
+      <c r="V93" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -7639,7 +7647,7 @@
       <c r="J94" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K94" s="17" t="s">
+      <c r="K94" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L94" s="4">
@@ -7663,15 +7671,15 @@
       <c r="T94" s="16">
         <v>0</v>
       </c>
-      <c r="U94" s="34">
-        <v>0</v>
-      </c>
-      <c r="V94" s="34">
+      <c r="U94" s="32">
+        <v>0</v>
+      </c>
+      <c r="V94" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -7701,7 +7709,7 @@
       <c r="J95" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K95" s="17" t="s">
+      <c r="K95" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L95" s="4">
@@ -7725,15 +7733,15 @@
       <c r="T95" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U95" s="34">
-        <v>0</v>
-      </c>
-      <c r="V95" s="34">
+      <c r="U95" s="32">
+        <v>0</v>
+      </c>
+      <c r="V95" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -7763,7 +7771,7 @@
       <c r="J96" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K96" s="17" t="s">
+      <c r="K96" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L96" s="4">
@@ -7787,15 +7795,15 @@
       <c r="T96" s="16">
         <v>3.5</v>
       </c>
-      <c r="U96" s="34">
-        <v>0</v>
-      </c>
-      <c r="V96" s="34">
+      <c r="U96" s="32">
+        <v>0</v>
+      </c>
+      <c r="V96" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -7825,7 +7833,7 @@
       <c r="J97" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K97" s="17" t="s">
+      <c r="K97" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L97" s="4">
@@ -7849,15 +7857,15 @@
       <c r="T97" s="16">
         <v>7.1</v>
       </c>
-      <c r="U97" s="34">
-        <v>0</v>
-      </c>
-      <c r="V97" s="34">
+      <c r="U97" s="32">
+        <v>0</v>
+      </c>
+      <c r="V97" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -7887,7 +7895,7 @@
       <c r="J98" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="17" t="s">
+      <c r="K98" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L98" s="4">
@@ -7911,15 +7919,15 @@
       <c r="T98" s="16">
         <v>0</v>
       </c>
-      <c r="U98" s="34">
-        <v>0</v>
-      </c>
-      <c r="V98" s="34">
+      <c r="U98" s="32">
+        <v>0</v>
+      </c>
+      <c r="V98" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -7949,7 +7957,7 @@
       <c r="J99" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K99" s="17" t="s">
+      <c r="K99" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L99" s="4">
@@ -7973,15 +7981,15 @@
       <c r="T99" s="16">
         <v>3</v>
       </c>
-      <c r="U99" s="34">
-        <v>0</v>
-      </c>
-      <c r="V99" s="34">
+      <c r="U99" s="32">
+        <v>0</v>
+      </c>
+      <c r="V99" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -8011,7 +8019,7 @@
       <c r="J100" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K100" s="17" t="s">
+      <c r="K100" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L100" s="4">
@@ -8035,15 +8043,15 @@
       <c r="T100" s="16">
         <v>2.4</v>
       </c>
-      <c r="U100" s="34">
-        <v>0</v>
-      </c>
-      <c r="V100" s="34">
+      <c r="U100" s="32">
+        <v>0</v>
+      </c>
+      <c r="V100" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -8073,7 +8081,7 @@
       <c r="J101" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K101" s="17" t="s">
+      <c r="K101" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L101" s="4">
@@ -8097,15 +8105,15 @@
       <c r="T101" s="16">
         <v>5</v>
       </c>
-      <c r="U101" s="34">
-        <v>0</v>
-      </c>
-      <c r="V101" s="34">
+      <c r="U101" s="32">
+        <v>0</v>
+      </c>
+      <c r="V101" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -8135,7 +8143,7 @@
       <c r="J102" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K102" s="17" t="s">
+      <c r="K102" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L102" s="4">
@@ -8159,15 +8167,15 @@
       <c r="T102" s="16">
         <v>5.3</v>
       </c>
-      <c r="U102" s="34">
-        <v>0</v>
-      </c>
-      <c r="V102" s="34">
+      <c r="U102" s="32">
+        <v>0</v>
+      </c>
+      <c r="V102" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -8197,7 +8205,7 @@
       <c r="J103" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K103" s="17" t="s">
+      <c r="K103" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L103" s="4">
@@ -8221,15 +8229,15 @@
       <c r="T103" s="16">
         <v>4.3</v>
       </c>
-      <c r="U103" s="34">
-        <v>0</v>
-      </c>
-      <c r="V103" s="34">
+      <c r="U103" s="32">
+        <v>0</v>
+      </c>
+      <c r="V103" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -8259,7 +8267,7 @@
       <c r="J104" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K104" s="17" t="s">
+      <c r="K104" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L104" s="4">
@@ -8283,15 +8291,15 @@
       <c r="T104" s="16">
         <v>7.7</v>
       </c>
-      <c r="U104" s="34">
-        <v>0</v>
-      </c>
-      <c r="V104" s="34">
+      <c r="U104" s="32">
+        <v>0</v>
+      </c>
+      <c r="V104" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -8321,7 +8329,7 @@
       <c r="J105" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K105" s="17" t="s">
+      <c r="K105" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L105" s="4">
@@ -8345,15 +8353,15 @@
       <c r="T105" s="16">
         <v>0</v>
       </c>
-      <c r="U105" s="34">
-        <v>0</v>
-      </c>
-      <c r="V105" s="34">
+      <c r="U105" s="32">
+        <v>0</v>
+      </c>
+      <c r="V105" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -8383,7 +8391,7 @@
       <c r="J106" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K106" s="17" t="s">
+      <c r="K106" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L106" s="4">
@@ -8407,15 +8415,15 @@
       <c r="T106" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U106" s="34">
-        <v>0</v>
-      </c>
-      <c r="V106" s="34">
+      <c r="U106" s="32">
+        <v>0</v>
+      </c>
+      <c r="V106" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -8445,7 +8453,7 @@
       <c r="J107" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K107" s="17" t="s">
+      <c r="K107" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L107" s="4">
@@ -8469,15 +8477,15 @@
       <c r="T107" s="16">
         <v>3.1</v>
       </c>
-      <c r="U107" s="34">
-        <v>0</v>
-      </c>
-      <c r="V107" s="34">
+      <c r="U107" s="32">
+        <v>0</v>
+      </c>
+      <c r="V107" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -8507,7 +8515,7 @@
       <c r="J108" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K108" s="17" t="s">
+      <c r="K108" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="5"/>
@@ -8520,15 +8528,15 @@
       <c r="T108" s="6">
         <v>-1</v>
       </c>
-      <c r="U108" s="34">
-        <v>0</v>
-      </c>
-      <c r="V108" s="34">
+      <c r="U108" s="32">
+        <v>0</v>
+      </c>
+      <c r="V108" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -8558,7 +8566,7 @@
       <c r="J109" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K109" s="17" t="s">
+      <c r="K109" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L109" s="4">
@@ -8582,15 +8590,15 @@
       <c r="T109" s="16">
         <v>1.6</v>
       </c>
-      <c r="U109" s="34">
-        <v>0</v>
-      </c>
-      <c r="V109" s="34">
+      <c r="U109" s="32">
+        <v>0</v>
+      </c>
+      <c r="V109" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -8620,7 +8628,7 @@
       <c r="J110" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K110" s="17" t="s">
+      <c r="K110" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L110" s="4">
@@ -8644,15 +8652,15 @@
       <c r="T110" s="16">
         <v>4</v>
       </c>
-      <c r="U110" s="34">
-        <v>0</v>
-      </c>
-      <c r="V110" s="34">
+      <c r="U110" s="32">
+        <v>0</v>
+      </c>
+      <c r="V110" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -8682,7 +8690,7 @@
       <c r="J111" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K111" s="17" t="s">
+      <c r="K111" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L111" s="4">
@@ -8706,15 +8714,15 @@
       <c r="T111" s="16">
         <v>0</v>
       </c>
-      <c r="U111" s="34">
-        <v>0</v>
-      </c>
-      <c r="V111" s="34">
+      <c r="U111" s="32">
+        <v>0</v>
+      </c>
+      <c r="V111" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -8744,7 +8752,7 @@
       <c r="J112" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K112" s="17" t="s">
+      <c r="K112" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L112" s="4">
@@ -8768,15 +8776,15 @@
       <c r="T112" s="16">
         <v>3.8</v>
       </c>
-      <c r="U112" s="34">
-        <v>0</v>
-      </c>
-      <c r="V112" s="34">
+      <c r="U112" s="32">
+        <v>0</v>
+      </c>
+      <c r="V112" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -8806,7 +8814,7 @@
       <c r="J113" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K113" s="17" t="s">
+      <c r="K113" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L113" s="4">
@@ -8830,15 +8838,15 @@
       <c r="T113" s="16">
         <v>4</v>
       </c>
-      <c r="U113" s="34">
-        <v>0</v>
-      </c>
-      <c r="V113" s="34">
+      <c r="U113" s="32">
+        <v>0</v>
+      </c>
+      <c r="V113" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -8868,7 +8876,7 @@
       <c r="J114" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K114" s="17" t="s">
+      <c r="K114" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L114" s="4">
@@ -8892,15 +8900,15 @@
       <c r="T114" s="16">
         <v>28.6</v>
       </c>
-      <c r="U114" s="34">
-        <v>0</v>
-      </c>
-      <c r="V114" s="34">
+      <c r="U114" s="32">
+        <v>0</v>
+      </c>
+      <c r="V114" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -8930,7 +8938,7 @@
       <c r="J115" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K115" s="17" t="s">
+      <c r="K115" s="41" t="s">
         <v>19</v>
       </c>
       <c r="L115" s="4">
@@ -8954,43 +8962,43 @@
       <c r="T115" s="16">
         <v>0</v>
       </c>
-      <c r="U115" s="34">
-        <v>0</v>
-      </c>
-      <c r="V115" s="34">
+      <c r="U115" s="32">
+        <v>0</v>
+      </c>
+      <c r="V115" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B116" s="7"/>
-      <c r="C116" s="18">
+      <c r="C116" s="17">
         <v>4185200</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E116" s="20">
-        <v>2</v>
-      </c>
-      <c r="F116" s="18">
-        <v>1</v>
-      </c>
-      <c r="G116" s="21" t="s">
+      <c r="E116" s="19">
+        <v>2</v>
+      </c>
+      <c r="F116" s="17">
+        <v>1</v>
+      </c>
+      <c r="G116" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H116" s="21" t="s">
+      <c r="H116" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I116" s="20">
-        <v>1</v>
-      </c>
-      <c r="J116" s="19" t="s">
+      <c r="I116" s="19">
+        <v>1</v>
+      </c>
+      <c r="J116" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K116" s="22" t="s">
+      <c r="K116" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L116" s="4">
@@ -9014,43 +9022,43 @@
       <c r="T116" s="16">
         <v>0</v>
       </c>
-      <c r="U116" s="34">
+      <c r="U116" s="32">
         <v>-1</v>
       </c>
-      <c r="V116" s="34">
+      <c r="V116" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B117" s="7"/>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E117" s="20">
-        <v>2</v>
-      </c>
-      <c r="F117" s="18">
-        <v>1</v>
-      </c>
-      <c r="G117" s="21" t="s">
+      <c r="E117" s="19">
+        <v>2</v>
+      </c>
+      <c r="F117" s="17">
+        <v>1</v>
+      </c>
+      <c r="G117" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H117" s="21" t="s">
+      <c r="H117" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I117" s="20">
-        <v>1</v>
-      </c>
-      <c r="J117" s="19" t="s">
+      <c r="I117" s="19">
+        <v>1</v>
+      </c>
+      <c r="J117" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K117" s="22" t="s">
+      <c r="K117" s="40" t="s">
         <v>106</v>
       </c>
       <c r="L117" s="4">
@@ -9074,43 +9082,43 @@
       <c r="T117" s="16">
         <v>0</v>
       </c>
-      <c r="U117" s="34">
+      <c r="U117" s="32">
         <v>30</v>
       </c>
-      <c r="V117" s="34">
+      <c r="V117" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B118" s="7"/>
-      <c r="C118" s="18">
+      <c r="C118" s="17">
         <v>4120200</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E118" s="20">
-        <v>2</v>
-      </c>
-      <c r="F118" s="18">
-        <v>1</v>
-      </c>
-      <c r="G118" s="21" t="s">
+      <c r="E118" s="19">
+        <v>2</v>
+      </c>
+      <c r="F118" s="17">
+        <v>1</v>
+      </c>
+      <c r="G118" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H118" s="21" t="s">
+      <c r="H118" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I118" s="20">
-        <v>1</v>
-      </c>
-      <c r="J118" s="19" t="s">
+      <c r="I118" s="19">
+        <v>1</v>
+      </c>
+      <c r="J118" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K118" s="22" t="s">
+      <c r="K118" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L118" s="4">
@@ -9134,43 +9142,43 @@
       <c r="T118" s="16">
         <v>8.9</v>
       </c>
-      <c r="U118" s="34">
+      <c r="U118" s="32">
         <v>-1</v>
       </c>
-      <c r="V118" s="34">
+      <c r="V118" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B119" s="7"/>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="D119" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E119" s="20">
-        <v>2</v>
-      </c>
-      <c r="F119" s="18">
-        <v>1</v>
-      </c>
-      <c r="G119" s="21" t="s">
+      <c r="E119" s="19">
+        <v>2</v>
+      </c>
+      <c r="F119" s="17">
+        <v>1</v>
+      </c>
+      <c r="G119" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H119" s="21" t="s">
+      <c r="H119" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I119" s="20">
-        <v>1</v>
-      </c>
-      <c r="J119" s="19" t="s">
+      <c r="I119" s="19">
+        <v>1</v>
+      </c>
+      <c r="J119" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K119" s="22" t="s">
+      <c r="K119" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L119" s="4">
@@ -9194,43 +9202,43 @@
       <c r="T119" s="16">
         <v>0</v>
       </c>
-      <c r="U119" s="34">
+      <c r="U119" s="32">
         <v>60</v>
       </c>
-      <c r="V119" s="34">
+      <c r="V119" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B120" s="7"/>
-      <c r="C120" s="18">
+      <c r="C120" s="17">
         <v>4119600</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E120" s="20">
-        <v>2</v>
-      </c>
-      <c r="F120" s="18">
-        <v>2</v>
-      </c>
-      <c r="G120" s="21" t="s">
+      <c r="E120" s="19">
+        <v>2</v>
+      </c>
+      <c r="F120" s="17">
+        <v>2</v>
+      </c>
+      <c r="G120" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="21" t="s">
+      <c r="H120" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I120" s="20">
-        <v>1</v>
-      </c>
-      <c r="J120" s="19" t="s">
+      <c r="I120" s="19">
+        <v>1</v>
+      </c>
+      <c r="J120" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="K120" s="40" t="s">
         <v>169</v>
       </c>
       <c r="L120" s="4">
@@ -9254,43 +9262,43 @@
       <c r="T120" s="16">
         <v>4.2</v>
       </c>
-      <c r="U120" s="34">
+      <c r="U120" s="32">
         <v>50</v>
       </c>
-      <c r="V120" s="34">
+      <c r="V120" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B121" s="7"/>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E121" s="20">
-        <v>2</v>
-      </c>
-      <c r="F121" s="18">
-        <v>2</v>
-      </c>
-      <c r="G121" s="21" t="s">
+      <c r="E121" s="19">
+        <v>2</v>
+      </c>
+      <c r="F121" s="17">
+        <v>2</v>
+      </c>
+      <c r="G121" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H121" s="21" t="s">
+      <c r="H121" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I121" s="20">
-        <v>1</v>
-      </c>
-      <c r="J121" s="19" t="s">
+      <c r="I121" s="19">
+        <v>1</v>
+      </c>
+      <c r="J121" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="22" t="s">
+      <c r="K121" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L121" s="4">
@@ -9314,43 +9322,43 @@
       <c r="T121" s="16">
         <v>0</v>
       </c>
-      <c r="U121" s="34">
+      <c r="U121" s="32">
         <v>60</v>
       </c>
-      <c r="V121" s="34">
+      <c r="V121" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B122" s="7"/>
-      <c r="C122" s="18">
+      <c r="C122" s="17">
         <v>4165700</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E122" s="20">
-        <v>2</v>
-      </c>
-      <c r="F122" s="18">
+      <c r="E122" s="19">
+        <v>2</v>
+      </c>
+      <c r="F122" s="17">
         <v>3</v>
       </c>
-      <c r="G122" s="21" t="s">
+      <c r="G122" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H122" s="21" t="s">
+      <c r="H122" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I122" s="20">
-        <v>1</v>
-      </c>
-      <c r="J122" s="19" t="s">
+      <c r="I122" s="19">
+        <v>1</v>
+      </c>
+      <c r="J122" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K122" s="22" t="s">
+      <c r="K122" s="40" t="s">
         <v>37</v>
       </c>
       <c r="L122" s="4">
@@ -9374,43 +9382,43 @@
       <c r="T122" s="16">
         <v>5.3</v>
       </c>
-      <c r="U122" s="34">
+      <c r="U122" s="32">
         <v>-1</v>
       </c>
-      <c r="V122" s="34">
+      <c r="V122" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B123" s="7"/>
-      <c r="C123" s="18">
+      <c r="C123" s="17">
         <v>4168100</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E123" s="20">
-        <v>2</v>
-      </c>
-      <c r="F123" s="18">
+      <c r="E123" s="19">
+        <v>2</v>
+      </c>
+      <c r="F123" s="17">
         <v>3</v>
       </c>
-      <c r="G123" s="21" t="s">
+      <c r="G123" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H123" s="21" t="s">
+      <c r="H123" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I123" s="20">
-        <v>1</v>
-      </c>
-      <c r="J123" s="19" t="s">
+      <c r="I123" s="19">
+        <v>1</v>
+      </c>
+      <c r="J123" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K123" s="22" t="s">
+      <c r="K123" s="40" t="s">
         <v>169</v>
       </c>
       <c r="L123" s="4">
@@ -9434,43 +9442,43 @@
       <c r="T123" s="16">
         <v>35.700000000000003</v>
       </c>
-      <c r="U123" s="34">
+      <c r="U123" s="32">
         <v>70</v>
       </c>
-      <c r="V123" s="34">
+      <c r="V123" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B124" s="7"/>
-      <c r="C124" s="18">
+      <c r="C124" s="17">
         <v>4188000</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E124" s="20">
-        <v>2</v>
-      </c>
-      <c r="F124" s="18">
+      <c r="E124" s="19">
+        <v>2</v>
+      </c>
+      <c r="F124" s="17">
         <v>3</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="G124" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H124" s="21" t="s">
+      <c r="H124" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="20">
-        <v>1</v>
-      </c>
-      <c r="J124" s="19" t="s">
+      <c r="I124" s="19">
+        <v>1</v>
+      </c>
+      <c r="J124" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K124" s="22" t="s">
+      <c r="K124" s="40" t="s">
         <v>175</v>
       </c>
       <c r="L124" s="4">
@@ -9494,43 +9502,43 @@
       <c r="T124" s="16">
         <v>5.3</v>
       </c>
-      <c r="U124" s="34">
-        <v>0</v>
-      </c>
-      <c r="V124" s="34">
+      <c r="U124" s="32">
+        <v>0</v>
+      </c>
+      <c r="V124" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B125" s="7"/>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E125" s="20">
-        <v>2</v>
-      </c>
-      <c r="F125" s="18">
+      <c r="E125" s="19">
+        <v>2</v>
+      </c>
+      <c r="F125" s="17">
         <v>3</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G125" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H125" s="21" t="s">
+      <c r="H125" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I125" s="20">
-        <v>1</v>
-      </c>
-      <c r="J125" s="19" t="s">
+      <c r="I125" s="19">
+        <v>1</v>
+      </c>
+      <c r="J125" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K125" s="22" t="s">
+      <c r="K125" s="40" t="s">
         <v>106</v>
       </c>
       <c r="L125" s="4">
@@ -9554,43 +9562,43 @@
       <c r="T125" s="16">
         <v>0</v>
       </c>
-      <c r="U125" s="34">
-        <v>0</v>
-      </c>
-      <c r="V125" s="34">
+      <c r="U125" s="32">
+        <v>0</v>
+      </c>
+      <c r="V125" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B126" s="7"/>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E126" s="20">
-        <v>1</v>
-      </c>
-      <c r="F126" s="18">
+      <c r="E126" s="19">
+        <v>1</v>
+      </c>
+      <c r="F126" s="17">
         <v>3</v>
       </c>
-      <c r="G126" s="21" t="s">
+      <c r="G126" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H126" s="21" t="s">
+      <c r="H126" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I126" s="20">
-        <v>1</v>
-      </c>
-      <c r="J126" s="19" t="s">
+      <c r="I126" s="19">
+        <v>1</v>
+      </c>
+      <c r="J126" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K126" s="22" t="s">
+      <c r="K126" s="40" t="s">
         <v>106</v>
       </c>
       <c r="L126" s="4">
@@ -9614,43 +9622,43 @@
       <c r="T126" s="16">
         <v>0</v>
       </c>
-      <c r="U126" s="34">
+      <c r="U126" s="32">
         <v>60</v>
       </c>
-      <c r="V126" s="34">
+      <c r="V126" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B127" s="7"/>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E127" s="20">
-        <v>2</v>
-      </c>
-      <c r="F127" s="18">
+      <c r="E127" s="19">
+        <v>2</v>
+      </c>
+      <c r="F127" s="17">
         <v>3</v>
       </c>
-      <c r="G127" s="21" t="s">
+      <c r="G127" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H127" s="21" t="s">
+      <c r="H127" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I127" s="20">
-        <v>1</v>
-      </c>
-      <c r="J127" s="19" t="s">
+      <c r="I127" s="19">
+        <v>1</v>
+      </c>
+      <c r="J127" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K127" s="22" t="s">
+      <c r="K127" s="40" t="s">
         <v>106</v>
       </c>
       <c r="L127" s="4">
@@ -9674,43 +9682,43 @@
       <c r="T127" s="16">
         <v>12.5</v>
       </c>
-      <c r="U127" s="34">
-        <v>0</v>
-      </c>
-      <c r="V127" s="34">
+      <c r="U127" s="32">
+        <v>0</v>
+      </c>
+      <c r="V127" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B128" s="7"/>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E128" s="20">
-        <v>1</v>
-      </c>
-      <c r="F128" s="18">
+      <c r="E128" s="19">
+        <v>1</v>
+      </c>
+      <c r="F128" s="17">
         <v>4</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G128" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="H128" s="21" t="s">
+      <c r="H128" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I128" s="20">
-        <v>1</v>
-      </c>
-      <c r="J128" s="19" t="s">
+      <c r="I128" s="19">
+        <v>1</v>
+      </c>
+      <c r="J128" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K128" s="22" t="s">
+      <c r="K128" s="40" t="s">
         <v>106</v>
       </c>
       <c r="Q128" s="5"/>
@@ -9723,43 +9731,43 @@
       <c r="T128" s="5">
         <v>-1</v>
       </c>
-      <c r="U128" s="34">
-        <v>0</v>
-      </c>
-      <c r="V128" s="34">
+      <c r="U128" s="32">
+        <v>0</v>
+      </c>
+      <c r="V128" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B129" s="7"/>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E129" s="20">
-        <v>2</v>
-      </c>
-      <c r="F129" s="18">
+      <c r="E129" s="19">
+        <v>2</v>
+      </c>
+      <c r="F129" s="17">
         <v>4</v>
       </c>
-      <c r="G129" s="21" t="s">
+      <c r="G129" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="H129" s="21" t="s">
+      <c r="H129" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I129" s="20">
-        <v>2</v>
-      </c>
-      <c r="J129" s="19" t="s">
+      <c r="I129" s="19">
+        <v>2</v>
+      </c>
+      <c r="J129" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="K129" s="22" t="s">
+      <c r="K129" s="40" t="s">
         <v>106</v>
       </c>
       <c r="Q129" s="5"/>
@@ -9772,43 +9780,43 @@
       <c r="T129" s="5">
         <v>-1</v>
       </c>
-      <c r="U129" s="34">
-        <v>0</v>
-      </c>
-      <c r="V129" s="34">
+      <c r="U129" s="32">
+        <v>0</v>
+      </c>
+      <c r="V129" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B130" s="7"/>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E130" s="20">
-        <v>2</v>
-      </c>
-      <c r="F130" s="18">
+      <c r="E130" s="19">
+        <v>2</v>
+      </c>
+      <c r="F130" s="17">
         <v>4</v>
       </c>
-      <c r="G130" s="21" t="s">
+      <c r="G130" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="H130" s="21" t="s">
+      <c r="H130" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I130" s="20">
-        <v>2</v>
-      </c>
-      <c r="J130" s="19" t="s">
+      <c r="I130" s="19">
+        <v>2</v>
+      </c>
+      <c r="J130" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="K130" s="22" t="s">
+      <c r="K130" s="40" t="s">
         <v>106</v>
       </c>
       <c r="Q130" s="5"/>
@@ -9821,43 +9829,43 @@
       <c r="T130" s="5">
         <v>-1</v>
       </c>
-      <c r="U130" s="34">
-        <v>0</v>
-      </c>
-      <c r="V130" s="34">
+      <c r="U130" s="32">
+        <v>0</v>
+      </c>
+      <c r="V130" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B131" s="7"/>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D131" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E131" s="20">
-        <v>2</v>
-      </c>
-      <c r="F131" s="18">
+      <c r="E131" s="19">
+        <v>2</v>
+      </c>
+      <c r="F131" s="17">
         <v>4</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G131" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H131" s="21" t="s">
+      <c r="H131" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I131" s="20">
-        <v>1</v>
-      </c>
-      <c r="J131" s="19" t="s">
+      <c r="I131" s="19">
+        <v>1</v>
+      </c>
+      <c r="J131" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K131" s="22" t="s">
+      <c r="K131" s="40" t="s">
         <v>106</v>
       </c>
       <c r="L131" s="4">
@@ -9881,43 +9889,43 @@
       <c r="T131" s="16">
         <v>0</v>
       </c>
-      <c r="U131" s="34">
-        <v>0</v>
-      </c>
-      <c r="V131" s="34">
+      <c r="U131" s="32">
+        <v>0</v>
+      </c>
+      <c r="V131" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B132" s="7"/>
-      <c r="C132" s="18">
+      <c r="C132" s="17">
         <v>4285000</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="20">
-        <v>2</v>
-      </c>
-      <c r="F132" s="18">
-        <v>1</v>
-      </c>
-      <c r="G132" s="21" t="s">
+      <c r="E132" s="19">
+        <v>2</v>
+      </c>
+      <c r="F132" s="17">
+        <v>1</v>
+      </c>
+      <c r="G132" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H132" s="21" t="s">
+      <c r="H132" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I132" s="20">
-        <v>2</v>
-      </c>
-      <c r="J132" s="19" t="s">
+      <c r="I132" s="19">
+        <v>2</v>
+      </c>
+      <c r="J132" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K132" s="22" t="s">
+      <c r="K132" s="40" t="s">
         <v>193</v>
       </c>
       <c r="L132" s="4">
@@ -9941,43 +9949,43 @@
       <c r="T132" s="16">
         <v>0</v>
       </c>
-      <c r="U132" s="34">
-        <v>0</v>
-      </c>
-      <c r="V132" s="34">
+      <c r="U132" s="32">
+        <v>0</v>
+      </c>
+      <c r="V132" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B133" s="7"/>
-      <c r="C133" s="18">
+      <c r="C133" s="17">
         <v>4285001</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E133" s="20">
-        <v>2</v>
-      </c>
-      <c r="F133" s="18">
-        <v>1</v>
-      </c>
-      <c r="G133" s="21" t="s">
+      <c r="E133" s="19">
+        <v>2</v>
+      </c>
+      <c r="F133" s="17">
+        <v>1</v>
+      </c>
+      <c r="G133" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H133" s="21" t="s">
+      <c r="H133" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I133" s="20">
-        <v>2</v>
-      </c>
-      <c r="J133" s="19" t="s">
+      <c r="I133" s="19">
+        <v>2</v>
+      </c>
+      <c r="J133" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K133" s="22" t="s">
+      <c r="K133" s="40" t="s">
         <v>193</v>
       </c>
       <c r="L133" s="4">
@@ -10001,43 +10009,43 @@
       <c r="T133" s="16">
         <v>0</v>
       </c>
-      <c r="U133" s="34">
-        <v>0</v>
-      </c>
-      <c r="V133" s="34">
+      <c r="U133" s="32">
+        <v>0</v>
+      </c>
+      <c r="V133" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B134" s="7"/>
-      <c r="C134" s="18">
+      <c r="C134" s="17">
         <v>4285002</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E134" s="20">
-        <v>2</v>
-      </c>
-      <c r="F134" s="18">
-        <v>1</v>
-      </c>
-      <c r="G134" s="21" t="s">
+      <c r="E134" s="19">
+        <v>2</v>
+      </c>
+      <c r="F134" s="17">
+        <v>1</v>
+      </c>
+      <c r="G134" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H134" s="21" t="s">
+      <c r="H134" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I134" s="20">
-        <v>2</v>
-      </c>
-      <c r="J134" s="19" t="s">
+      <c r="I134" s="19">
+        <v>2</v>
+      </c>
+      <c r="J134" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K134" s="22" t="s">
+      <c r="K134" s="40" t="s">
         <v>193</v>
       </c>
       <c r="Q134" s="5"/>
@@ -10058,35 +10066,35 @@
       </c>
     </row>
     <row r="135" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B135" s="7"/>
-      <c r="C135" s="18">
+      <c r="C135" s="17">
         <v>4285003</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E135" s="20">
-        <v>2</v>
-      </c>
-      <c r="F135" s="18">
-        <v>1</v>
-      </c>
-      <c r="G135" s="21" t="s">
+      <c r="E135" s="19">
+        <v>2</v>
+      </c>
+      <c r="F135" s="17">
+        <v>1</v>
+      </c>
+      <c r="G135" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H135" s="21" t="s">
+      <c r="H135" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I135" s="20">
-        <v>2</v>
-      </c>
-      <c r="J135" s="19" t="s">
+      <c r="I135" s="19">
+        <v>2</v>
+      </c>
+      <c r="J135" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K135" s="22" t="s">
+      <c r="K135" s="40" t="s">
         <v>193</v>
       </c>
       <c r="Q135" s="5"/>
@@ -10107,35 +10115,35 @@
       </c>
     </row>
     <row r="136" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B136" s="7"/>
-      <c r="C136" s="18">
+      <c r="C136" s="17">
         <v>4385000</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D136" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E136" s="20">
-        <v>2</v>
-      </c>
-      <c r="F136" s="18">
-        <v>1</v>
-      </c>
-      <c r="G136" s="21" t="s">
+      <c r="E136" s="19">
+        <v>2</v>
+      </c>
+      <c r="F136" s="17">
+        <v>1</v>
+      </c>
+      <c r="G136" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H136" s="21" t="s">
+      <c r="H136" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I136" s="20">
-        <v>2</v>
-      </c>
-      <c r="J136" s="19" t="s">
+      <c r="I136" s="19">
+        <v>2</v>
+      </c>
+      <c r="J136" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K136" s="22" t="s">
+      <c r="K136" s="40" t="s">
         <v>193</v>
       </c>
       <c r="L136" s="4">
@@ -10159,43 +10167,43 @@
       <c r="T136" s="16">
         <v>0</v>
       </c>
-      <c r="U136" s="34">
-        <v>0</v>
-      </c>
-      <c r="V136" s="34">
+      <c r="U136" s="32">
+        <v>0</v>
+      </c>
+      <c r="V136" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B137" s="7"/>
-      <c r="C137" s="18">
+      <c r="C137" s="17">
         <v>4385001</v>
       </c>
-      <c r="D137" s="19" t="s">
+      <c r="D137" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E137" s="20">
-        <v>2</v>
-      </c>
-      <c r="F137" s="18">
-        <v>1</v>
-      </c>
-      <c r="G137" s="21" t="s">
+      <c r="E137" s="19">
+        <v>2</v>
+      </c>
+      <c r="F137" s="17">
+        <v>1</v>
+      </c>
+      <c r="G137" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H137" s="21" t="s">
+      <c r="H137" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I137" s="20">
-        <v>2</v>
-      </c>
-      <c r="J137" s="19" t="s">
+      <c r="I137" s="19">
+        <v>2</v>
+      </c>
+      <c r="J137" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K137" s="22" t="s">
+      <c r="K137" s="40" t="s">
         <v>193</v>
       </c>
       <c r="L137" s="4">
@@ -10219,43 +10227,43 @@
       <c r="T137" s="16">
         <v>0</v>
       </c>
-      <c r="U137" s="34">
-        <v>0</v>
-      </c>
-      <c r="V137" s="34">
+      <c r="U137" s="32">
+        <v>0</v>
+      </c>
+      <c r="V137" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B138" s="7"/>
-      <c r="C138" s="18">
+      <c r="C138" s="17">
         <v>4185000</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E138" s="20">
-        <v>2</v>
-      </c>
-      <c r="F138" s="18">
-        <v>2</v>
-      </c>
-      <c r="G138" s="21" t="s">
+      <c r="E138" s="19">
+        <v>2</v>
+      </c>
+      <c r="F138" s="17">
+        <v>2</v>
+      </c>
+      <c r="G138" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H138" s="21" t="s">
+      <c r="H138" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I138" s="20">
-        <v>2</v>
-      </c>
-      <c r="J138" s="19" t="s">
+      <c r="I138" s="19">
+        <v>2</v>
+      </c>
+      <c r="J138" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K138" s="22" t="s">
+      <c r="K138" s="40" t="s">
         <v>193</v>
       </c>
       <c r="L138" s="4">
@@ -10279,146 +10287,146 @@
       <c r="T138" s="16">
         <v>0</v>
       </c>
-      <c r="U138" s="34">
-        <v>0</v>
-      </c>
-      <c r="V138" s="34">
+      <c r="U138" s="32">
+        <v>0</v>
+      </c>
+      <c r="V138" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B139" s="7"/>
-      <c r="C139" s="18">
+      <c r="C139" s="17">
         <v>4185602</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E139" s="20">
-        <v>2</v>
-      </c>
-      <c r="F139" s="18">
-        <v>2</v>
-      </c>
-      <c r="G139" s="21" t="s">
+      <c r="E139" s="19">
+        <v>2</v>
+      </c>
+      <c r="F139" s="17">
+        <v>2</v>
+      </c>
+      <c r="G139" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H139" s="21" t="s">
+      <c r="H139" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I139" s="20">
-        <v>2</v>
-      </c>
-      <c r="J139" s="19" t="s">
+      <c r="I139" s="19">
+        <v>2</v>
+      </c>
+      <c r="J139" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K139" s="22" t="s">
+      <c r="K139" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="U139" s="34">
+      <c r="U139" s="32">
         <v>-1</v>
       </c>
-      <c r="V139" s="34">
+      <c r="V139" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A140" s="31" t="s">
+      <c r="A140" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B140" s="7"/>
-      <c r="C140" s="18">
+      <c r="C140" s="17">
         <v>4185603</v>
       </c>
-      <c r="D140" s="19" t="s">
+      <c r="D140" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E140" s="20">
-        <v>2</v>
-      </c>
-      <c r="F140" s="18">
-        <v>2</v>
-      </c>
-      <c r="G140" s="21" t="s">
+      <c r="E140" s="19">
+        <v>2</v>
+      </c>
+      <c r="F140" s="17">
+        <v>2</v>
+      </c>
+      <c r="G140" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H140" s="21" t="s">
+      <c r="H140" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I140" s="20">
-        <v>2</v>
-      </c>
-      <c r="J140" s="19" t="s">
+      <c r="I140" s="19">
+        <v>2</v>
+      </c>
+      <c r="J140" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K140" s="22" t="s">
+      <c r="K140" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="U140" s="34">
+      <c r="U140" s="32">
         <v>-1</v>
       </c>
-      <c r="V140" s="34">
+      <c r="V140" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B141" s="7"/>
-      <c r="C141" s="18">
+      <c r="C141" s="17">
         <v>4185604</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D141" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E141" s="20">
-        <v>2</v>
-      </c>
-      <c r="F141" s="18">
-        <v>2</v>
-      </c>
-      <c r="G141" s="21" t="s">
+      <c r="E141" s="19">
+        <v>2</v>
+      </c>
+      <c r="F141" s="17">
+        <v>2</v>
+      </c>
+      <c r="G141" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H141" s="21" t="s">
+      <c r="H141" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I141" s="20">
-        <v>2</v>
-      </c>
-      <c r="J141" s="19" t="s">
+      <c r="I141" s="19">
+        <v>2</v>
+      </c>
+      <c r="J141" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K141" s="22" t="s">
+      <c r="K141" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="U141" s="34">
+      <c r="U141" s="32">
         <v>-1</v>
       </c>
-      <c r="V141" s="34">
+      <c r="V141" s="32">
         <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A142" s="35" t="s">
+      <c r="A142" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="23" t="s">
+      <c r="B142" s="28"/>
+      <c r="C142" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D142" s="24" t="s">
+      <c r="D142" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E142" s="25">
+      <c r="E142" s="23">
         <v>2</v>
       </c>
       <c r="F142" s="7"/>
-      <c r="G142" s="26" t="s">
+      <c r="G142" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H142" s="7"/>
@@ -10428,13 +10436,13 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
-      <c r="O142" s="27">
-        <v>1</v>
-      </c>
-      <c r="P142" s="28" t="s">
+      <c r="O142" s="25">
+        <v>1</v>
+      </c>
+      <c r="P142" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q142" s="27" t="s">
+      <c r="Q142" s="25" t="s">
         <v>205</v>
       </c>
       <c r="R142" s="4">
@@ -10446,33 +10454,33 @@
       <c r="T142" s="4">
         <v>10</v>
       </c>
-      <c r="U142" s="36">
+      <c r="U142" s="34">
         <v>100</v>
       </c>
-      <c r="V142" s="36">
-        <v>0</v>
-      </c>
-      <c r="W142" s="38" t="s">
+      <c r="V142" s="34">
+        <v>0</v>
+      </c>
+      <c r="W142" s="36" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A143" s="35" t="s">
+      <c r="A143" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="23" t="s">
+      <c r="B143" s="28"/>
+      <c r="C143" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E143" s="25">
+      <c r="E143" s="23">
         <v>2</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="24" t="s">
+      <c r="H143" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I143" s="7"/>
@@ -10481,13 +10489,13 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
-      <c r="O143" s="27">
-        <v>1</v>
-      </c>
-      <c r="P143" s="28" t="s">
+      <c r="O143" s="25">
+        <v>1</v>
+      </c>
+      <c r="P143" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q143" s="27" t="s">
+      <c r="Q143" s="25" t="s">
         <v>208</v>
       </c>
       <c r="R143" s="4">
@@ -10499,32 +10507,32 @@
       <c r="T143" s="4">
         <v>1.8</v>
       </c>
-      <c r="U143" s="36">
-        <v>0</v>
-      </c>
-      <c r="V143" s="36">
+      <c r="U143" s="34">
+        <v>0</v>
+      </c>
+      <c r="V143" s="34">
         <v>100</v>
       </c>
-      <c r="W143" s="38" t="s">
+      <c r="W143" s="36" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A144" s="35" t="s">
+      <c r="A144" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="23" t="s">
+      <c r="B144" s="28"/>
+      <c r="C144" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D144" s="24" t="s">
+      <c r="D144" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="E144" s="25">
+      <c r="E144" s="23">
         <v>2</v>
       </c>
       <c r="F144" s="7"/>
-      <c r="G144" s="26" t="s">
+      <c r="G144" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H144" s="7"/>
@@ -10534,13 +10542,13 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
-      <c r="O144" s="27">
-        <v>1</v>
-      </c>
-      <c r="P144" s="28" t="s">
+      <c r="O144" s="25">
+        <v>1</v>
+      </c>
+      <c r="P144" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q144" s="27" t="s">
+      <c r="Q144" s="25" t="s">
         <v>211</v>
       </c>
       <c r="R144" s="4">
@@ -10552,10 +10560,10 @@
       <c r="T144" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="U144" s="36">
+      <c r="U144" s="34">
         <v>40</v>
       </c>
-      <c r="V144" s="36">
+      <c r="V144" s="34">
         <v>60</v>
       </c>
       <c r="W144" t="s">
@@ -10563,22 +10571,22 @@
       </c>
     </row>
     <row r="145" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="23" t="s">
+      <c r="B145" s="28"/>
+      <c r="C145" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="E145" s="25">
+      <c r="E145" s="23">
         <v>2</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="24" t="s">
+      <c r="H145" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I145" s="7"/>
@@ -10587,13 +10595,13 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
-      <c r="O145" s="27">
-        <v>1</v>
-      </c>
-      <c r="P145" s="28" t="s">
+      <c r="O145" s="25">
+        <v>1</v>
+      </c>
+      <c r="P145" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q145" s="27" t="s">
+      <c r="Q145" s="25" t="s">
         <v>211</v>
       </c>
       <c r="R145" s="4">
@@ -10605,32 +10613,32 @@
       <c r="T145" s="4">
         <v>0.9</v>
       </c>
-      <c r="U145" s="36">
+      <c r="U145" s="34">
         <v>100</v>
       </c>
-      <c r="V145" s="36">
+      <c r="V145" s="34">
         <v>0</v>
       </c>
       <c r="W145" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15.5" customHeight="1">
-      <c r="A146" s="35" t="s">
+    <row r="146" spans="1:23" ht="15.6" customHeight="1">
+      <c r="A146" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="23" t="s">
+      <c r="B146" s="28"/>
+      <c r="C146" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D146" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="E146" s="25">
+      <c r="E146" s="23">
         <v>2</v>
       </c>
       <c r="F146" s="7"/>
-      <c r="G146" s="26" t="s">
+      <c r="G146" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H146" s="7"/>
@@ -10640,13 +10648,13 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
-      <c r="O146" s="27">
-        <v>2</v>
-      </c>
-      <c r="P146" s="28" t="s">
+      <c r="O146" s="25">
+        <v>2</v>
+      </c>
+      <c r="P146" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q146" s="27" t="s">
+      <c r="Q146" s="25" t="s">
         <v>216</v>
       </c>
       <c r="R146" s="4">
@@ -10658,10 +10666,10 @@
       <c r="T146" s="4">
         <v>4.5</v>
       </c>
-      <c r="U146" s="36">
+      <c r="U146" s="34">
         <v>10</v>
       </c>
-      <c r="V146" s="36">
+      <c r="V146" s="34">
         <v>90</v>
       </c>
       <c r="W146" t="s">
@@ -10669,22 +10677,22 @@
       </c>
     </row>
     <row r="147" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A147" s="35" t="s">
+      <c r="A147" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B147" s="30"/>
-      <c r="C147" s="23" t="s">
+      <c r="B147" s="28"/>
+      <c r="C147" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E147" s="25">
+      <c r="E147" s="23">
         <v>2</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
-      <c r="H147" s="24" t="s">
+      <c r="H147" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I147" s="7"/>
@@ -10693,13 +10701,13 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
-      <c r="O147" s="27">
-        <v>2</v>
-      </c>
-      <c r="P147" s="28" t="s">
+      <c r="O147" s="25">
+        <v>2</v>
+      </c>
+      <c r="P147" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q147" s="27" t="s">
+      <c r="Q147" s="25" t="s">
         <v>219</v>
       </c>
       <c r="R147" s="4">
@@ -10711,10 +10719,10 @@
       <c r="T147" s="4">
         <v>5.6</v>
       </c>
-      <c r="U147" s="36">
+      <c r="U147" s="34">
         <v>87</v>
       </c>
-      <c r="V147" s="36">
+      <c r="V147" s="34">
         <v>13</v>
       </c>
       <c r="W147" t="s">
@@ -10722,22 +10730,22 @@
       </c>
     </row>
     <row r="148" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A148" s="35" t="s">
+      <c r="A148" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="23" t="s">
+      <c r="B148" s="28"/>
+      <c r="C148" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E148" s="25">
+      <c r="E148" s="23">
         <v>2</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="24" t="s">
+      <c r="H148" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I148" s="7"/>
@@ -10746,13 +10754,13 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
-      <c r="O148" s="27">
-        <v>1</v>
-      </c>
-      <c r="P148" s="28" t="s">
+      <c r="O148" s="25">
+        <v>1</v>
+      </c>
+      <c r="P148" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q148" s="27" t="s">
+      <c r="Q148" s="25" t="s">
         <v>205</v>
       </c>
       <c r="R148" s="4">
@@ -10764,10 +10772,10 @@
       <c r="T148" s="4">
         <v>14.3</v>
       </c>
-      <c r="U148" s="36">
+      <c r="U148" s="34">
         <v>65</v>
       </c>
-      <c r="V148" s="36">
+      <c r="V148" s="34">
         <v>35</v>
       </c>
       <c r="W148" t="s">
@@ -10775,23 +10783,23 @@
       </c>
     </row>
     <row r="149" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A149" s="35" t="s">
+      <c r="A149" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B149" s="30"/>
-      <c r="C149" s="23" t="s">
+      <c r="B149" s="28"/>
+      <c r="C149" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="E149" s="25">
+      <c r="E149" s="23">
         <v>2</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
-      <c r="I149" s="28" t="s">
+      <c r="I149" s="26" t="s">
         <v>36</v>
       </c>
       <c r="J149" s="7"/>
@@ -10799,13 +10807,13 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-      <c r="O149" s="27">
-        <v>1</v>
-      </c>
-      <c r="P149" s="28" t="s">
+      <c r="O149" s="25">
+        <v>1</v>
+      </c>
+      <c r="P149" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q149" s="27" t="s">
+      <c r="Q149" s="25" t="s">
         <v>224</v>
       </c>
       <c r="R149" s="4">
@@ -10817,10 +10825,10 @@
       <c r="T149" s="4">
         <v>1.6</v>
       </c>
-      <c r="U149" s="36">
+      <c r="U149" s="34">
         <v>34</v>
       </c>
-      <c r="V149" s="36">
+      <c r="V149" s="34">
         <v>66</v>
       </c>
       <c r="W149" t="s">
@@ -10828,37 +10836,37 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A150" s="35" t="s">
+      <c r="A150" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="23" t="s">
+      <c r="B150" s="28"/>
+      <c r="C150" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D150" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E150" s="25">
+      <c r="E150" s="23">
         <v>2</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
-      <c r="J150" s="26" t="s">
+      <c r="J150" s="24" t="s">
         <v>17</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="27">
-        <v>1</v>
-      </c>
-      <c r="P150" s="28" t="s">
+      <c r="O150" s="25">
+        <v>1</v>
+      </c>
+      <c r="P150" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q150" s="27" t="s">
+      <c r="Q150" s="25" t="s">
         <v>224</v>
       </c>
       <c r="R150" s="4">
@@ -10870,10 +10878,10 @@
       <c r="T150" s="4">
         <v>6.9</v>
       </c>
-      <c r="U150" s="36">
+      <c r="U150" s="34">
         <v>60</v>
       </c>
-      <c r="V150" s="36">
+      <c r="V150" s="34">
         <v>40</v>
       </c>
       <c r="W150" t="s">
@@ -10881,23 +10889,23 @@
       </c>
     </row>
     <row r="151" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A151" s="35" t="s">
+      <c r="A151" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B151" s="30"/>
-      <c r="C151" s="23" t="s">
+      <c r="B151" s="28"/>
+      <c r="C151" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="E151" s="25">
+      <c r="E151" s="23">
         <v>2</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
-      <c r="I151" s="28" t="s">
+      <c r="I151" s="26" t="s">
         <v>36</v>
       </c>
       <c r="J151" s="7"/>
@@ -10905,13 +10913,13 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-      <c r="O151" s="27">
-        <v>2</v>
-      </c>
-      <c r="P151" s="28" t="s">
+      <c r="O151" s="25">
+        <v>2</v>
+      </c>
+      <c r="P151" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q151" s="27" t="s">
+      <c r="Q151" s="25" t="s">
         <v>219</v>
       </c>
       <c r="R151" s="4">
@@ -10923,10 +10931,10 @@
       <c r="T151" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="U151" s="36">
-        <v>0</v>
-      </c>
-      <c r="V151" s="36">
+      <c r="U151" s="34">
+        <v>0</v>
+      </c>
+      <c r="V151" s="34">
         <v>100</v>
       </c>
       <c r="W151" t="s">
@@ -10934,23 +10942,23 @@
       </c>
     </row>
     <row r="152" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A152" s="35" t="s">
+      <c r="A152" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B152" s="30"/>
-      <c r="C152" s="23" t="s">
+      <c r="B152" s="28"/>
+      <c r="C152" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E152" s="25">
+      <c r="E152" s="23">
         <v>2</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
-      <c r="I152" s="28" t="s">
+      <c r="I152" s="26" t="s">
         <v>36</v>
       </c>
       <c r="J152" s="7"/>
@@ -10958,13 +10966,13 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
-      <c r="O152" s="27">
-        <v>1</v>
-      </c>
-      <c r="P152" s="28" t="s">
+      <c r="O152" s="25">
+        <v>1</v>
+      </c>
+      <c r="P152" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q152" s="27" t="s">
+      <c r="Q152" s="25" t="s">
         <v>219</v>
       </c>
       <c r="R152" s="4">
@@ -10976,10 +10984,10 @@
       <c r="T152" s="4">
         <v>9.4</v>
       </c>
-      <c r="U152" s="36">
+      <c r="U152" s="34">
         <v>30</v>
       </c>
-      <c r="V152" s="36">
+      <c r="V152" s="34">
         <v>70</v>
       </c>
       <c r="W152" t="s">
@@ -10987,37 +10995,37 @@
       </c>
     </row>
     <row r="153" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A153" s="35" t="s">
+      <c r="A153" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B153" s="30"/>
-      <c r="C153" s="23" t="s">
+      <c r="B153" s="28"/>
+      <c r="C153" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E153" s="25">
+      <c r="E153" s="23">
         <v>2</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
-      <c r="J153" s="26" t="s">
+      <c r="J153" s="24" t="s">
         <v>36</v>
       </c>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
-      <c r="O153" s="27">
-        <v>2</v>
-      </c>
-      <c r="P153" s="28" t="s">
+      <c r="O153" s="25">
+        <v>2</v>
+      </c>
+      <c r="P153" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q153" s="27" t="s">
+      <c r="Q153" s="25" t="s">
         <v>219</v>
       </c>
       <c r="R153" s="4">
@@ -11029,10 +11037,10 @@
       <c r="T153" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="U153" s="36">
-        <v>0</v>
-      </c>
-      <c r="V153" s="36">
+      <c r="U153" s="34">
+        <v>0</v>
+      </c>
+      <c r="V153" s="34">
         <v>100</v>
       </c>
       <c r="W153" t="s">
@@ -11040,37 +11048,37 @@
       </c>
     </row>
     <row r="154" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A154" s="35" t="s">
+      <c r="A154" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B154" s="30"/>
-      <c r="C154" s="23" t="s">
+      <c r="B154" s="28"/>
+      <c r="C154" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D154" s="24" t="s">
+      <c r="D154" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E154" s="25">
+      <c r="E154" s="23">
         <v>2</v>
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
-      <c r="J154" s="26" t="s">
+      <c r="J154" s="24" t="s">
         <v>36</v>
       </c>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
-      <c r="O154" s="27">
-        <v>2</v>
-      </c>
-      <c r="P154" s="28" t="s">
+      <c r="O154" s="25">
+        <v>2</v>
+      </c>
+      <c r="P154" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q154" s="27" t="s">
+      <c r="Q154" s="25" t="s">
         <v>219</v>
       </c>
       <c r="R154" s="4">
@@ -11082,10 +11090,10 @@
       <c r="T154" s="4">
         <v>2.4</v>
       </c>
-      <c r="U154" s="36">
+      <c r="U154" s="34">
         <v>45</v>
       </c>
-      <c r="V154" s="36">
+      <c r="V154" s="34">
         <v>55</v>
       </c>
       <c r="W154" t="s">
@@ -11093,23 +11101,23 @@
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A155" s="35" t="s">
+      <c r="A155" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="23" t="s">
+      <c r="B155" s="28"/>
+      <c r="C155" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E155" s="25">
+      <c r="E155" s="23">
         <v>2</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
-      <c r="I155" s="28" t="s">
+      <c r="I155" s="26" t="s">
         <v>17</v>
       </c>
       <c r="J155" s="7"/>
@@ -11117,13 +11125,13 @@
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
-      <c r="O155" s="27">
-        <v>1</v>
-      </c>
-      <c r="P155" s="28" t="s">
+      <c r="O155" s="25">
+        <v>1</v>
+      </c>
+      <c r="P155" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q155" s="27" t="s">
+      <c r="Q155" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R155" s="4">
@@ -11135,10 +11143,10 @@
       <c r="T155" s="4">
         <v>13.1</v>
       </c>
-      <c r="U155" s="36">
-        <v>0</v>
-      </c>
-      <c r="V155" s="36">
+      <c r="U155" s="34">
+        <v>0</v>
+      </c>
+      <c r="V155" s="34">
         <v>100</v>
       </c>
       <c r="W155" t="s">
@@ -11146,23 +11154,23 @@
       </c>
     </row>
     <row r="156" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A156" s="35" t="s">
+      <c r="A156" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B156" s="30"/>
-      <c r="C156" s="23" t="s">
+      <c r="B156" s="28"/>
+      <c r="C156" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D156" s="24" t="s">
+      <c r="D156" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E156" s="25">
+      <c r="E156" s="23">
         <v>2</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
-      <c r="I156" s="28" t="s">
+      <c r="I156" s="26" t="s">
         <v>17</v>
       </c>
       <c r="J156" s="7"/>
@@ -11170,13 +11178,13 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
-      <c r="O156" s="27">
-        <v>1</v>
-      </c>
-      <c r="P156" s="28" t="s">
+      <c r="O156" s="25">
+        <v>1</v>
+      </c>
+      <c r="P156" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q156" s="27" t="s">
+      <c r="Q156" s="25" t="s">
         <v>224</v>
       </c>
       <c r="R156" s="4">
@@ -11188,10 +11196,10 @@
       <c r="T156" s="4">
         <v>19.5</v>
       </c>
-      <c r="U156" s="36">
+      <c r="U156" s="34">
         <v>20</v>
       </c>
-      <c r="V156" s="36">
+      <c r="V156" s="34">
         <v>80</v>
       </c>
       <c r="W156" t="s">
@@ -11199,37 +11207,37 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A157" s="35" t="s">
+      <c r="A157" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B157" s="30"/>
-      <c r="C157" s="23" t="s">
+      <c r="B157" s="28"/>
+      <c r="C157" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="25">
+      <c r="E157" s="23">
         <v>2</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
-      <c r="J157" s="26" t="s">
+      <c r="J157" s="24" t="s">
         <v>17</v>
       </c>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
-      <c r="O157" s="27">
-        <v>1</v>
-      </c>
-      <c r="P157" s="28" t="s">
+      <c r="O157" s="25">
+        <v>1</v>
+      </c>
+      <c r="P157" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q157" s="27" t="s">
+      <c r="Q157" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R157" s="4">
@@ -11241,10 +11249,10 @@
       <c r="T157" s="4">
         <v>13</v>
       </c>
-      <c r="U157" s="36">
-        <v>0</v>
-      </c>
-      <c r="V157" s="36">
+      <c r="U157" s="34">
+        <v>0</v>
+      </c>
+      <c r="V157" s="34">
         <v>100</v>
       </c>
       <c r="W157" t="s">
@@ -11252,22 +11260,22 @@
       </c>
     </row>
     <row r="158" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A158" s="35" t="s">
+      <c r="A158" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B158" s="30"/>
-      <c r="C158" s="23" t="s">
+      <c r="B158" s="28"/>
+      <c r="C158" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D158" s="24" t="s">
+      <c r="D158" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E158" s="25">
+      <c r="E158" s="23">
         <v>2</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="24" t="s">
+      <c r="H158" s="22" t="s">
         <v>244</v>
       </c>
       <c r="I158" s="7"/>
@@ -11276,13 +11284,13 @@
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
-      <c r="O158" s="27">
-        <v>1</v>
-      </c>
-      <c r="P158" s="28" t="s">
+      <c r="O158" s="25">
+        <v>1</v>
+      </c>
+      <c r="P158" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q158" s="27" t="s">
+      <c r="Q158" s="25" t="s">
         <v>245</v>
       </c>
       <c r="R158" s="4">
@@ -11294,10 +11302,10 @@
       <c r="T158" s="4">
         <v>37.799999999999997</v>
       </c>
-      <c r="U158" s="36">
+      <c r="U158" s="34">
         <v>20</v>
       </c>
-      <c r="V158" s="36">
+      <c r="V158" s="34">
         <v>80</v>
       </c>
       <c r="W158" t="s">
@@ -11305,25 +11313,25 @@
       </c>
     </row>
     <row r="159" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A159" s="35" t="s">
+      <c r="A159" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="23" t="s">
+      <c r="B159" s="28"/>
+      <c r="C159" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D159" s="24" t="s">
+      <c r="D159" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E159" s="25">
-        <v>1</v>
-      </c>
-      <c r="F159" s="27" t="s">
+      <c r="E159" s="23">
+        <v>1</v>
+      </c>
+      <c r="F159" s="25" t="s">
         <v>248</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
-      <c r="I159" s="28" t="s">
+      <c r="I159" s="26" t="s">
         <v>244</v>
       </c>
       <c r="J159" s="7"/>
@@ -11331,13 +11339,13 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
-      <c r="O159" s="27">
-        <v>1</v>
-      </c>
-      <c r="P159" s="28" t="s">
+      <c r="O159" s="25">
+        <v>1</v>
+      </c>
+      <c r="P159" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q159" s="27" t="s">
+      <c r="Q159" s="25" t="s">
         <v>211</v>
       </c>
       <c r="R159" s="4">
@@ -11349,10 +11357,10 @@
       <c r="T159" s="4">
         <v>12.9</v>
       </c>
-      <c r="U159" s="36">
-        <v>0</v>
-      </c>
-      <c r="V159" s="36">
+      <c r="U159" s="34">
+        <v>0</v>
+      </c>
+      <c r="V159" s="34">
         <v>100</v>
       </c>
       <c r="W159" t="s">
@@ -11360,23 +11368,23 @@
       </c>
     </row>
     <row r="160" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A160" s="35" t="s">
+      <c r="A160" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="23" t="s">
+      <c r="B160" s="28"/>
+      <c r="C160" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D160" s="24" t="s">
+      <c r="D160" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E160" s="25">
+      <c r="E160" s="23">
         <v>2</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
-      <c r="I160" s="28" t="s">
+      <c r="I160" s="26" t="s">
         <v>244</v>
       </c>
       <c r="J160" s="7"/>
@@ -11384,13 +11392,13 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
-      <c r="O160" s="27">
-        <v>1</v>
-      </c>
-      <c r="P160" s="28" t="s">
+      <c r="O160" s="25">
+        <v>1</v>
+      </c>
+      <c r="P160" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q160" s="27" t="s">
+      <c r="Q160" s="25" t="s">
         <v>251</v>
       </c>
       <c r="R160" s="4">
@@ -11402,10 +11410,10 @@
       <c r="T160" s="4">
         <v>35.200000000000003</v>
       </c>
-      <c r="U160" s="36">
+      <c r="U160" s="34">
         <v>75</v>
       </c>
-      <c r="V160" s="36">
+      <c r="V160" s="34">
         <v>25</v>
       </c>
       <c r="W160" t="s">
@@ -11413,37 +11421,37 @@
       </c>
     </row>
     <row r="161" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A161" s="35" t="s">
+      <c r="A161" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B161" s="30"/>
-      <c r="C161" s="23" t="s">
+      <c r="B161" s="28"/>
+      <c r="C161" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="E161" s="25">
+      <c r="E161" s="23">
         <v>2</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
-      <c r="J161" s="26" t="s">
+      <c r="J161" s="24" t="s">
         <v>244</v>
       </c>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
-      <c r="O161" s="27">
-        <v>1</v>
-      </c>
-      <c r="P161" s="28" t="s">
+      <c r="O161" s="25">
+        <v>1</v>
+      </c>
+      <c r="P161" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q161" s="27" t="s">
+      <c r="Q161" s="25" t="s">
         <v>254</v>
       </c>
       <c r="R161" s="4">
@@ -11455,10 +11463,10 @@
       <c r="T161" s="4">
         <v>5</v>
       </c>
-      <c r="U161" s="36">
+      <c r="U161" s="34">
         <v>50</v>
       </c>
-      <c r="V161" s="36">
+      <c r="V161" s="34">
         <v>50</v>
       </c>
       <c r="W161" t="s">
@@ -11466,37 +11474,37 @@
       </c>
     </row>
     <row r="162" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A162" s="35" t="s">
+      <c r="A162" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B162" s="30"/>
-      <c r="C162" s="23" t="s">
+      <c r="B162" s="28"/>
+      <c r="C162" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D162" s="24" t="s">
+      <c r="D162" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E162" s="25">
+      <c r="E162" s="23">
         <v>2</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
-      <c r="J162" s="26" t="s">
+      <c r="J162" s="24" t="s">
         <v>244</v>
       </c>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
-      <c r="O162" s="27">
-        <v>1</v>
-      </c>
-      <c r="P162" s="28" t="s">
+      <c r="O162" s="25">
+        <v>1</v>
+      </c>
+      <c r="P162" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q162" s="27" t="s">
+      <c r="Q162" s="25" t="s">
         <v>205</v>
       </c>
       <c r="R162" s="4">
@@ -11508,10 +11516,10 @@
       <c r="T162" s="4">
         <v>10.7</v>
       </c>
-      <c r="U162" s="36">
-        <v>0</v>
-      </c>
-      <c r="V162" s="36">
+      <c r="U162" s="34">
+        <v>0</v>
+      </c>
+      <c r="V162" s="34">
         <v>100</v>
       </c>
       <c r="W162" t="s">
@@ -11519,39 +11527,39 @@
       </c>
     </row>
     <row r="163" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A163" s="35" t="s">
+      <c r="A163" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="23" t="s">
+      <c r="B163" s="28"/>
+      <c r="C163" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D163" s="24" t="s">
+      <c r="D163" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="E163" s="25">
-        <v>1</v>
-      </c>
-      <c r="F163" s="27" t="s">
+      <c r="E163" s="23">
+        <v>1</v>
+      </c>
+      <c r="F163" s="25" t="s">
         <v>259</v>
       </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
-      <c r="J163" s="26" t="s">
+      <c r="J163" s="24" t="s">
         <v>244</v>
       </c>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
-      <c r="O163" s="27">
-        <v>1</v>
-      </c>
-      <c r="P163" s="28" t="s">
+      <c r="O163" s="25">
+        <v>1</v>
+      </c>
+      <c r="P163" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q163" s="27" t="s">
+      <c r="Q163" s="25" t="s">
         <v>224</v>
       </c>
       <c r="R163" s="4">
@@ -11563,10 +11571,10 @@
       <c r="T163" s="4">
         <v>0.8</v>
       </c>
-      <c r="U163" s="36">
+      <c r="U163" s="34">
         <v>90</v>
       </c>
-      <c r="V163" s="36">
+      <c r="V163" s="34">
         <v>10</v>
       </c>
       <c r="W163" t="s">
@@ -11574,37 +11582,37 @@
       </c>
     </row>
     <row r="164" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A164" s="35" t="s">
+      <c r="A164" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="23" t="s">
+      <c r="B164" s="28"/>
+      <c r="C164" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D164" s="24" t="s">
+      <c r="D164" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="E164" s="25">
+      <c r="E164" s="23">
         <v>2</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
-      <c r="J164" s="26" t="s">
+      <c r="J164" s="24" t="s">
         <v>244</v>
       </c>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
-      <c r="O164" s="27">
-        <v>1</v>
-      </c>
-      <c r="P164" s="28" t="s">
+      <c r="O164" s="25">
+        <v>1</v>
+      </c>
+      <c r="P164" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q164" s="27" t="s">
+      <c r="Q164" s="25" t="s">
         <v>211</v>
       </c>
       <c r="R164" s="4">
@@ -11616,10 +11624,10 @@
       <c r="T164" s="4">
         <v>11</v>
       </c>
-      <c r="U164" s="36">
+      <c r="U164" s="34">
         <v>70</v>
       </c>
-      <c r="V164" s="36">
+      <c r="V164" s="34">
         <v>30</v>
       </c>
       <c r="W164" t="s">
@@ -11627,17 +11635,17 @@
       </c>
     </row>
     <row r="165" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A165" s="35" t="s">
+      <c r="A165" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="23" t="s">
+      <c r="B165" s="28"/>
+      <c r="C165" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E165" s="25">
+      <c r="E165" s="23">
         <v>2</v>
       </c>
       <c r="F165" s="7"/>
@@ -11645,19 +11653,19 @@
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
-      <c r="K165" s="24" t="s">
+      <c r="K165" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
-      <c r="O165" s="27">
-        <v>1</v>
-      </c>
-      <c r="P165" s="28" t="s">
+      <c r="O165" s="25">
+        <v>1</v>
+      </c>
+      <c r="P165" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q165" s="27" t="s">
+      <c r="Q165" s="25" t="s">
         <v>254</v>
       </c>
       <c r="R165" s="4">
@@ -11669,10 +11677,10 @@
       <c r="T165" s="4">
         <v>22.8</v>
       </c>
-      <c r="U165" s="36">
+      <c r="U165" s="34">
         <v>80</v>
       </c>
-      <c r="V165" s="36">
+      <c r="V165" s="34">
         <v>20</v>
       </c>
       <c r="W165" t="s">
@@ -11680,17 +11688,17 @@
       </c>
     </row>
     <row r="166" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A166" s="35" t="s">
+      <c r="A166" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B166" s="30"/>
-      <c r="C166" s="23" t="s">
+      <c r="B166" s="28"/>
+      <c r="C166" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D166" s="24" t="s">
+      <c r="D166" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E166" s="25">
+      <c r="E166" s="23">
         <v>2</v>
       </c>
       <c r="F166" s="7"/>
@@ -11698,19 +11706,19 @@
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
-      <c r="K166" s="24" t="s">
+      <c r="K166" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
-      <c r="O166" s="27">
-        <v>1</v>
-      </c>
-      <c r="P166" s="28" t="s">
+      <c r="O166" s="25">
+        <v>1</v>
+      </c>
+      <c r="P166" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q166" s="27" t="s">
+      <c r="Q166" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R166" s="4">
@@ -11722,10 +11730,10 @@
       <c r="T166" s="4">
         <v>9.9</v>
       </c>
-      <c r="U166" s="36">
-        <v>0</v>
-      </c>
-      <c r="V166" s="36">
+      <c r="U166" s="34">
+        <v>0</v>
+      </c>
+      <c r="V166" s="34">
         <v>100</v>
       </c>
       <c r="W166" t="s">
@@ -11733,39 +11741,39 @@
       </c>
     </row>
     <row r="167" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A167" s="35" t="s">
+      <c r="A167" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B167" s="30"/>
-      <c r="C167" s="23" t="s">
+      <c r="B167" s="28"/>
+      <c r="C167" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="E167" s="25">
-        <v>2</v>
-      </c>
-      <c r="F167" s="27" t="s">
+      <c r="E167" s="23">
+        <v>2</v>
+      </c>
+      <c r="F167" s="25" t="s">
         <v>248</v>
       </c>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-      <c r="K167" s="24" t="s">
+      <c r="K167" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
-      <c r="O167" s="27">
-        <v>2</v>
-      </c>
-      <c r="P167" s="28" t="s">
+      <c r="O167" s="25">
+        <v>2</v>
+      </c>
+      <c r="P167" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q167" s="27" t="s">
+      <c r="Q167" s="25" t="s">
         <v>268</v>
       </c>
       <c r="R167" s="4">
@@ -11777,10 +11785,10 @@
       <c r="T167" s="4">
         <v>4.8</v>
       </c>
-      <c r="U167" s="36">
+      <c r="U167" s="34">
         <v>20</v>
       </c>
-      <c r="V167" s="36">
+      <c r="V167" s="34">
         <v>80</v>
       </c>
       <c r="W167" t="s">
@@ -11788,39 +11796,39 @@
       </c>
     </row>
     <row r="168" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A168" s="35" t="s">
+      <c r="A168" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="23" t="s">
+      <c r="B168" s="28"/>
+      <c r="C168" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D168" s="24" t="s">
+      <c r="D168" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="E168" s="25">
-        <v>2</v>
-      </c>
-      <c r="F168" s="27" t="s">
+      <c r="E168" s="23">
+        <v>2</v>
+      </c>
+      <c r="F168" s="25" t="s">
         <v>271</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
-      <c r="K168" s="24" t="s">
+      <c r="K168" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
-      <c r="O168" s="27">
-        <v>2</v>
-      </c>
-      <c r="P168" s="28" t="s">
+      <c r="O168" s="25">
+        <v>2</v>
+      </c>
+      <c r="P168" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q168" s="27" t="s">
+      <c r="Q168" s="25" t="s">
         <v>272</v>
       </c>
       <c r="R168" s="4">
@@ -11832,10 +11840,10 @@
       <c r="T168" s="4">
         <v>2.9</v>
       </c>
-      <c r="U168" s="36">
-        <v>0</v>
-      </c>
-      <c r="V168" s="36">
+      <c r="U168" s="34">
+        <v>0</v>
+      </c>
+      <c r="V168" s="34">
         <v>100</v>
       </c>
       <c r="W168" t="s">
@@ -11843,17 +11851,17 @@
       </c>
     </row>
     <row r="169" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A169" s="35" t="s">
+      <c r="A169" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="23" t="s">
+      <c r="B169" s="28"/>
+      <c r="C169" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D169" s="24" t="s">
+      <c r="D169" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="E169" s="25">
+      <c r="E169" s="23">
         <v>2</v>
       </c>
       <c r="F169" s="7"/>
@@ -11861,19 +11869,19 @@
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-      <c r="K169" s="24" t="s">
+      <c r="K169" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
-      <c r="O169" s="27">
-        <v>1</v>
-      </c>
-      <c r="P169" s="28" t="s">
+      <c r="O169" s="25">
+        <v>1</v>
+      </c>
+      <c r="P169" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q169" s="27" t="s">
+      <c r="Q169" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R169" s="4">
@@ -11885,10 +11893,10 @@
       <c r="T169" s="4">
         <v>4.8</v>
       </c>
-      <c r="U169" s="36">
+      <c r="U169" s="34">
         <v>60</v>
       </c>
-      <c r="V169" s="36">
+      <c r="V169" s="34">
         <v>40</v>
       </c>
       <c r="W169" t="s">
@@ -11896,17 +11904,17 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A170" s="35" t="s">
+      <c r="A170" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="23" t="s">
+      <c r="B170" s="28"/>
+      <c r="C170" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="E170" s="25">
+      <c r="E170" s="23">
         <v>2</v>
       </c>
       <c r="F170" s="7"/>
@@ -11914,19 +11922,19 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-      <c r="K170" s="24" t="s">
+      <c r="K170" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
-      <c r="O170" s="27">
-        <v>1</v>
-      </c>
-      <c r="P170" s="28" t="s">
+      <c r="O170" s="25">
+        <v>1</v>
+      </c>
+      <c r="P170" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q170" s="27" t="s">
+      <c r="Q170" s="25" t="s">
         <v>277</v>
       </c>
       <c r="R170" s="4">
@@ -11938,10 +11946,10 @@
       <c r="T170" s="4">
         <v>4</v>
       </c>
-      <c r="U170" s="36">
-        <v>0</v>
-      </c>
-      <c r="V170" s="36">
+      <c r="U170" s="34">
+        <v>0</v>
+      </c>
+      <c r="V170" s="34">
         <v>100</v>
       </c>
       <c r="W170" t="s">
@@ -11949,17 +11957,17 @@
       </c>
     </row>
     <row r="171" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A171" s="35" t="s">
+      <c r="A171" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="23" t="s">
+      <c r="B171" s="28"/>
+      <c r="C171" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D171" s="24" t="s">
+      <c r="D171" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="E171" s="25">
+      <c r="E171" s="23">
         <v>2</v>
       </c>
       <c r="F171" s="7"/>
@@ -11967,19 +11975,19 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="K171" s="24" t="s">
+      <c r="K171" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
-      <c r="O171" s="27">
-        <v>1</v>
-      </c>
-      <c r="P171" s="28" t="s">
+      <c r="O171" s="25">
+        <v>1</v>
+      </c>
+      <c r="P171" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q171" s="27" t="s">
+      <c r="Q171" s="25" t="s">
         <v>254</v>
       </c>
       <c r="R171" s="4">
@@ -11991,10 +11999,10 @@
       <c r="T171" s="4">
         <v>0</v>
       </c>
-      <c r="U171" s="36">
+      <c r="U171" s="34">
         <v>50</v>
       </c>
-      <c r="V171" s="36">
+      <c r="V171" s="34">
         <v>50</v>
       </c>
       <c r="W171" t="s">
@@ -12002,17 +12010,17 @@
       </c>
     </row>
     <row r="172" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="23" t="s">
+      <c r="B172" s="28"/>
+      <c r="C172" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D172" s="24" t="s">
+      <c r="D172" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E172" s="25">
+      <c r="E172" s="23">
         <v>2</v>
       </c>
       <c r="F172" s="7"/>
@@ -12020,19 +12028,19 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="K172" s="24" t="s">
+      <c r="K172" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
-      <c r="O172" s="27">
-        <v>1</v>
-      </c>
-      <c r="P172" s="28" t="s">
+      <c r="O172" s="25">
+        <v>1</v>
+      </c>
+      <c r="P172" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q172" s="27" t="s">
+      <c r="Q172" s="25" t="s">
         <v>245</v>
       </c>
       <c r="R172" s="4">
@@ -12044,10 +12052,10 @@
       <c r="T172" s="4">
         <v>18</v>
       </c>
-      <c r="U172" s="36">
+      <c r="U172" s="34">
         <v>60</v>
       </c>
-      <c r="V172" s="36">
+      <c r="V172" s="34">
         <v>40</v>
       </c>
       <c r="W172" t="s">
@@ -12055,39 +12063,39 @@
       </c>
     </row>
     <row r="173" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A173" s="35" t="s">
+      <c r="A173" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="23" t="s">
+      <c r="B173" s="28"/>
+      <c r="C173" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D173" s="24" t="s">
+      <c r="D173" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="E173" s="25">
-        <v>1</v>
-      </c>
-      <c r="F173" s="27" t="s">
+      <c r="E173" s="23">
+        <v>1</v>
+      </c>
+      <c r="F173" s="25" t="s">
         <v>248</v>
       </c>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="K173" s="24" t="s">
+      <c r="K173" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
-      <c r="O173" s="27">
-        <v>1</v>
-      </c>
-      <c r="P173" s="28" t="s">
+      <c r="O173" s="25">
+        <v>1</v>
+      </c>
+      <c r="P173" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q173" s="27" t="s">
+      <c r="Q173" s="25" t="s">
         <v>211</v>
       </c>
       <c r="R173" s="4">
@@ -12099,10 +12107,10 @@
       <c r="T173" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="U173" s="36">
+      <c r="U173" s="34">
         <v>60</v>
       </c>
-      <c r="V173" s="36">
+      <c r="V173" s="34">
         <v>40</v>
       </c>
       <c r="W173" t="s">
@@ -12110,17 +12118,17 @@
       </c>
     </row>
     <row r="174" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A174" s="35" t="s">
+      <c r="A174" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B174" s="30"/>
-      <c r="C174" s="23" t="s">
+      <c r="B174" s="28"/>
+      <c r="C174" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D174" s="24" t="s">
+      <c r="D174" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="E174" s="25">
+      <c r="E174" s="23">
         <v>2</v>
       </c>
       <c r="F174" s="7"/>
@@ -12128,19 +12136,19 @@
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="24" t="s">
+      <c r="K174" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
-      <c r="O174" s="27">
-        <v>1</v>
-      </c>
-      <c r="P174" s="28" t="s">
+      <c r="O174" s="25">
+        <v>1</v>
+      </c>
+      <c r="P174" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q174" s="27" t="s">
+      <c r="Q174" s="25" t="s">
         <v>224</v>
       </c>
       <c r="R174" s="4">
@@ -12152,10 +12160,10 @@
       <c r="T174" s="4">
         <v>7.7</v>
       </c>
-      <c r="U174" s="36">
+      <c r="U174" s="34">
         <v>30</v>
       </c>
-      <c r="V174" s="36">
+      <c r="V174" s="34">
         <v>70</v>
       </c>
       <c r="W174" t="s">
@@ -12163,17 +12171,17 @@
       </c>
     </row>
     <row r="175" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A175" s="35" t="s">
+      <c r="A175" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="23" t="s">
+      <c r="B175" s="28"/>
+      <c r="C175" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D175" s="24" t="s">
+      <c r="D175" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="E175" s="25">
+      <c r="E175" s="23">
         <v>2</v>
       </c>
       <c r="F175" s="7"/>
@@ -12182,18 +12190,18 @@
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
-      <c r="L175" s="26" t="s">
+      <c r="L175" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
-      <c r="O175" s="27">
-        <v>1</v>
-      </c>
-      <c r="P175" s="28" t="s">
+      <c r="O175" s="25">
+        <v>1</v>
+      </c>
+      <c r="P175" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q175" s="27" t="s">
+      <c r="Q175" s="25" t="s">
         <v>85</v>
       </c>
       <c r="R175" s="4">
@@ -12205,10 +12213,10 @@
       <c r="T175" s="4">
         <v>19.8</v>
       </c>
-      <c r="U175" s="36">
-        <v>0</v>
-      </c>
-      <c r="V175" s="36">
+      <c r="U175" s="34">
+        <v>0</v>
+      </c>
+      <c r="V175" s="34">
         <v>100</v>
       </c>
       <c r="W175" t="s">
@@ -12216,17 +12224,17 @@
       </c>
     </row>
     <row r="176" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A176" s="35" t="s">
+      <c r="A176" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B176" s="30"/>
-      <c r="C176" s="23" t="s">
+      <c r="B176" s="28"/>
+      <c r="C176" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="D176" s="24" t="s">
+      <c r="D176" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="E176" s="25">
+      <c r="E176" s="23">
         <v>2</v>
       </c>
       <c r="F176" s="7"/>
@@ -12235,18 +12243,18 @@
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
-      <c r="L176" s="26" t="s">
+      <c r="L176" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
-      <c r="O176" s="27">
-        <v>1</v>
-      </c>
-      <c r="P176" s="28" t="s">
+      <c r="O176" s="25">
+        <v>1</v>
+      </c>
+      <c r="P176" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q176" s="27" t="s">
+      <c r="Q176" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R176" s="4">
@@ -12258,10 +12266,10 @@
       <c r="T176" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="U176" s="36">
-        <v>0</v>
-      </c>
-      <c r="V176" s="36">
+      <c r="U176" s="34">
+        <v>0</v>
+      </c>
+      <c r="V176" s="34">
         <v>100</v>
       </c>
       <c r="W176" t="s">
@@ -12269,17 +12277,17 @@
       </c>
     </row>
     <row r="177" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A177" s="35" t="s">
+      <c r="A177" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B177" s="30"/>
-      <c r="C177" s="23" t="s">
+      <c r="B177" s="28"/>
+      <c r="C177" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D177" s="24" t="s">
+      <c r="D177" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="E177" s="25">
+      <c r="E177" s="23">
         <v>2</v>
       </c>
       <c r="F177" s="7"/>
@@ -12288,18 +12296,18 @@
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
-      <c r="L177" s="26" t="s">
+      <c r="L177" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
-      <c r="O177" s="27">
-        <v>1</v>
-      </c>
-      <c r="P177" s="28" t="s">
+      <c r="O177" s="25">
+        <v>1</v>
+      </c>
+      <c r="P177" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q177" s="27" t="s">
+      <c r="Q177" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R177" s="4">
@@ -12311,10 +12319,10 @@
       <c r="T177" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U177" s="36">
-        <v>0</v>
-      </c>
-      <c r="V177" s="36">
+      <c r="U177" s="34">
+        <v>0</v>
+      </c>
+      <c r="V177" s="34">
         <v>100</v>
       </c>
       <c r="W177" t="s">
@@ -12322,17 +12330,17 @@
       </c>
     </row>
     <row r="178" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A178" s="35" t="s">
+      <c r="A178" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="23" t="s">
+      <c r="B178" s="28"/>
+      <c r="C178" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D178" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="E178" s="25">
+      <c r="E178" s="23">
         <v>2</v>
       </c>
       <c r="F178" s="7"/>
@@ -12341,18 +12349,18 @@
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
-      <c r="L178" s="26" t="s">
+      <c r="L178" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
-      <c r="O178" s="27">
-        <v>1</v>
-      </c>
-      <c r="P178" s="28" t="s">
+      <c r="O178" s="25">
+        <v>1</v>
+      </c>
+      <c r="P178" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q178" s="27" t="s">
+      <c r="Q178" s="25" t="s">
         <v>277</v>
       </c>
       <c r="R178" s="4">
@@ -12364,10 +12372,10 @@
       <c r="T178" s="4">
         <v>11.1</v>
       </c>
-      <c r="U178" s="36">
-        <v>0</v>
-      </c>
-      <c r="V178" s="36">
+      <c r="U178" s="34">
+        <v>0</v>
+      </c>
+      <c r="V178" s="34">
         <v>100</v>
       </c>
       <c r="W178" t="s">
@@ -12375,17 +12383,17 @@
       </c>
     </row>
     <row r="179" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A179" s="35" t="s">
+      <c r="A179" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B179" s="30"/>
-      <c r="C179" s="23" t="s">
+      <c r="B179" s="28"/>
+      <c r="C179" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="E179" s="25">
+      <c r="E179" s="23">
         <v>2</v>
       </c>
       <c r="F179" s="7"/>
@@ -12394,33 +12402,33 @@
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="26" t="s">
+      <c r="L179" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
-      <c r="O179" s="29">
-        <v>1</v>
-      </c>
-      <c r="P179" s="28" t="s">
+      <c r="O179" s="27">
+        <v>1</v>
+      </c>
+      <c r="P179" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q179" s="27" t="s">
+      <c r="Q179" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="R179" s="36">
+      <c r="R179" s="34">
         <v>-1</v>
       </c>
-      <c r="S179" s="36">
+      <c r="S179" s="34">
         <v>-1</v>
       </c>
-      <c r="T179" s="36">
+      <c r="T179" s="34">
         <v>-1</v>
       </c>
-      <c r="U179" s="36">
+      <c r="U179" s="34">
         <v>-1</v>
       </c>
-      <c r="V179" s="36">
+      <c r="V179" s="34">
         <v>-1</v>
       </c>
       <c r="W179" t="s">
@@ -12428,17 +12436,17 @@
       </c>
     </row>
     <row r="180" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A180" s="35" t="s">
+      <c r="A180" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="23" t="s">
+      <c r="B180" s="28"/>
+      <c r="C180" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D180" s="24" t="s">
+      <c r="D180" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="E180" s="25">
+      <c r="E180" s="23">
         <v>2</v>
       </c>
       <c r="F180" s="7"/>
@@ -12447,18 +12455,18 @@
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
-      <c r="L180" s="26" t="s">
+      <c r="L180" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
-      <c r="O180" s="27">
-        <v>1</v>
-      </c>
-      <c r="P180" s="28" t="s">
+      <c r="O180" s="25">
+        <v>1</v>
+      </c>
+      <c r="P180" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q180" s="27" t="s">
+      <c r="Q180" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R180" s="4">
@@ -12470,10 +12478,10 @@
       <c r="T180" s="4">
         <v>5.2</v>
       </c>
-      <c r="U180" s="36">
-        <v>0</v>
-      </c>
-      <c r="V180" s="36">
+      <c r="U180" s="34">
+        <v>0</v>
+      </c>
+      <c r="V180" s="34">
         <v>100</v>
       </c>
       <c r="W180" t="s">
@@ -12481,17 +12489,17 @@
       </c>
     </row>
     <row r="181" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A181" s="35" t="s">
+      <c r="A181" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B181" s="30"/>
-      <c r="C181" s="23" t="s">
+      <c r="B181" s="28"/>
+      <c r="C181" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="E181" s="25">
+      <c r="E181" s="23">
         <v>2</v>
       </c>
       <c r="F181" s="7"/>
@@ -12500,18 +12508,18 @@
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
-      <c r="L181" s="26" t="s">
+      <c r="L181" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
-      <c r="O181" s="27">
-        <v>1</v>
-      </c>
-      <c r="P181" s="28" t="s">
+      <c r="O181" s="25">
+        <v>1</v>
+      </c>
+      <c r="P181" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q181" s="27" t="s">
+      <c r="Q181" s="25" t="s">
         <v>85</v>
       </c>
       <c r="R181" s="4">
@@ -12523,10 +12531,10 @@
       <c r="T181" s="4">
         <v>0</v>
       </c>
-      <c r="U181" s="36">
+      <c r="U181" s="34">
         <v>35</v>
       </c>
-      <c r="V181" s="36">
+      <c r="V181" s="34">
         <v>65</v>
       </c>
       <c r="W181" t="s">
@@ -12534,17 +12542,17 @@
       </c>
     </row>
     <row r="182" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A182" s="35" t="s">
+      <c r="A182" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B182" s="30"/>
-      <c r="C182" s="23" t="s">
+      <c r="B182" s="28"/>
+      <c r="C182" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D182" s="24" t="s">
+      <c r="D182" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E182" s="25">
+      <c r="E182" s="23">
         <v>2</v>
       </c>
       <c r="F182" s="7"/>
@@ -12553,18 +12561,18 @@
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
-      <c r="L182" s="26" t="s">
+      <c r="L182" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
-      <c r="O182" s="27">
-        <v>1</v>
-      </c>
-      <c r="P182" s="28" t="s">
+      <c r="O182" s="25">
+        <v>1</v>
+      </c>
+      <c r="P182" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q182" s="27" t="s">
+      <c r="Q182" s="25" t="s">
         <v>211</v>
       </c>
       <c r="R182" s="4">
@@ -12576,10 +12584,10 @@
       <c r="T182" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="U182" s="36">
+      <c r="U182" s="34">
         <v>40</v>
       </c>
-      <c r="V182" s="36">
+      <c r="V182" s="34">
         <v>60</v>
       </c>
       <c r="W182" t="s">
@@ -12587,17 +12595,17 @@
       </c>
     </row>
     <row r="183" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A183" s="35" t="s">
+      <c r="A183" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B183" s="30"/>
-      <c r="C183" s="23" t="s">
+      <c r="B183" s="28"/>
+      <c r="C183" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D183" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E183" s="25">
+      <c r="E183" s="23">
         <v>2</v>
       </c>
       <c r="F183" s="7"/>
@@ -12606,18 +12614,18 @@
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
-      <c r="L183" s="26" t="s">
+      <c r="L183" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
-      <c r="O183" s="27">
-        <v>1</v>
-      </c>
-      <c r="P183" s="28" t="s">
+      <c r="O183" s="25">
+        <v>1</v>
+      </c>
+      <c r="P183" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q183" s="27" t="s">
+      <c r="Q183" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R183" s="4">
@@ -12629,10 +12637,10 @@
       <c r="T183" s="4">
         <v>10.5</v>
       </c>
-      <c r="U183" s="36">
-        <v>0</v>
-      </c>
-      <c r="V183" s="36">
+      <c r="U183" s="34">
+        <v>0</v>
+      </c>
+      <c r="V183" s="34">
         <v>100</v>
       </c>
       <c r="W183" t="s">
@@ -12640,17 +12648,17 @@
       </c>
     </row>
     <row r="184" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A184" s="35" t="s">
+      <c r="A184" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="23" t="s">
+      <c r="B184" s="28"/>
+      <c r="C184" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="D184" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E184" s="25">
+      <c r="E184" s="23">
         <v>2</v>
       </c>
       <c r="F184" s="7"/>
@@ -12658,19 +12666,19 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-      <c r="K184" s="24" t="s">
+      <c r="K184" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
-      <c r="O184" s="27">
-        <v>2</v>
-      </c>
-      <c r="P184" s="28" t="s">
+      <c r="O184" s="25">
+        <v>2</v>
+      </c>
+      <c r="P184" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q184" s="27" t="s">
+      <c r="Q184" s="25" t="s">
         <v>305</v>
       </c>
       <c r="R184" s="4">
@@ -12682,10 +12690,10 @@
       <c r="T184" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U184" s="36">
-        <v>0</v>
-      </c>
-      <c r="V184" s="36">
+      <c r="U184" s="34">
+        <v>0</v>
+      </c>
+      <c r="V184" s="34">
         <v>100</v>
       </c>
       <c r="W184" t="s">
@@ -12693,17 +12701,17 @@
       </c>
     </row>
     <row r="185" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A185" s="35" t="s">
+      <c r="A185" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B185" s="30"/>
-      <c r="C185" s="23" t="s">
+      <c r="B185" s="28"/>
+      <c r="C185" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="D185" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="E185" s="25">
+      <c r="E185" s="23">
         <v>3</v>
       </c>
       <c r="F185" s="7"/>
@@ -12711,19 +12719,19 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="24" t="s">
+      <c r="K185" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
-      <c r="O185" s="27">
-        <v>2</v>
-      </c>
-      <c r="P185" s="28" t="s">
+      <c r="O185" s="25">
+        <v>2</v>
+      </c>
+      <c r="P185" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q185" s="27" t="s">
+      <c r="Q185" s="25" t="s">
         <v>305</v>
       </c>
       <c r="R185" s="4">
@@ -12735,10 +12743,10 @@
       <c r="T185" s="4">
         <v>0</v>
       </c>
-      <c r="U185" s="36">
-        <v>0</v>
-      </c>
-      <c r="V185" s="36">
+      <c r="U185" s="34">
+        <v>0</v>
+      </c>
+      <c r="V185" s="34">
         <v>100</v>
       </c>
       <c r="W185" t="s">
@@ -12746,17 +12754,17 @@
       </c>
     </row>
     <row r="186" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A186" s="35" t="s">
+      <c r="A186" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B186" s="30"/>
-      <c r="C186" s="23" t="s">
+      <c r="B186" s="28"/>
+      <c r="C186" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D186" s="24" t="s">
+      <c r="D186" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E186" s="25">
+      <c r="E186" s="23">
         <v>2</v>
       </c>
       <c r="F186" s="7"/>
@@ -12765,18 +12773,18 @@
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
-      <c r="L186" s="26" t="s">
+      <c r="L186" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
-      <c r="O186" s="27">
-        <v>2</v>
-      </c>
-      <c r="P186" s="28" t="s">
+      <c r="O186" s="25">
+        <v>2</v>
+      </c>
+      <c r="P186" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q186" s="27" t="s">
+      <c r="Q186" s="25" t="s">
         <v>305</v>
       </c>
       <c r="R186" s="4">
@@ -12788,10 +12796,10 @@
       <c r="T186" s="4">
         <v>8</v>
       </c>
-      <c r="U186" s="36">
-        <v>0</v>
-      </c>
-      <c r="V186" s="36">
+      <c r="U186" s="34">
+        <v>0</v>
+      </c>
+      <c r="V186" s="34">
         <v>100</v>
       </c>
       <c r="W186" t="s">
@@ -12799,17 +12807,17 @@
       </c>
     </row>
     <row r="187" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A187" s="35" t="s">
+      <c r="A187" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B187" s="30"/>
-      <c r="C187" s="23" t="s">
+      <c r="B187" s="28"/>
+      <c r="C187" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="D187" s="24" t="s">
+      <c r="D187" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="E187" s="25">
+      <c r="E187" s="23">
         <v>3</v>
       </c>
       <c r="F187" s="7"/>
@@ -12818,18 +12826,18 @@
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
-      <c r="L187" s="26" t="s">
+      <c r="L187" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
-      <c r="O187" s="27">
-        <v>2</v>
-      </c>
-      <c r="P187" s="28" t="s">
+      <c r="O187" s="25">
+        <v>2</v>
+      </c>
+      <c r="P187" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q187" s="27" t="s">
+      <c r="Q187" s="25" t="s">
         <v>305</v>
       </c>
       <c r="R187" s="4">
@@ -12838,13 +12846,13 @@
       <c r="S187" s="4">
         <v>0</v>
       </c>
-      <c r="T187" s="36">
-        <v>0</v>
-      </c>
-      <c r="U187" s="36">
-        <v>0</v>
-      </c>
-      <c r="V187" s="36">
+      <c r="T187" s="34">
+        <v>0</v>
+      </c>
+      <c r="U187" s="34">
+        <v>0</v>
+      </c>
+      <c r="V187" s="34">
         <v>100</v>
       </c>
       <c r="W187" t="s">
@@ -12852,17 +12860,17 @@
       </c>
     </row>
     <row r="188" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B188" s="30"/>
-      <c r="C188" s="23" t="s">
+      <c r="B188" s="28"/>
+      <c r="C188" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D188" s="24" t="s">
+      <c r="D188" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="E188" s="25">
+      <c r="E188" s="23">
         <v>2</v>
       </c>
       <c r="F188" s="7"/>
@@ -12871,18 +12879,18 @@
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
-      <c r="L188" s="26" t="s">
+      <c r="L188" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
-      <c r="O188" s="27">
-        <v>2</v>
-      </c>
-      <c r="P188" s="28" t="s">
+      <c r="O188" s="25">
+        <v>2</v>
+      </c>
+      <c r="P188" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q188" s="27" t="s">
+      <c r="Q188" s="25" t="s">
         <v>305</v>
       </c>
       <c r="R188" s="4">
@@ -12894,10 +12902,10 @@
       <c r="T188" s="4">
         <v>1.9</v>
       </c>
-      <c r="U188" s="36">
-        <v>0</v>
-      </c>
-      <c r="V188" s="36">
+      <c r="U188" s="34">
+        <v>0</v>
+      </c>
+      <c r="V188" s="34">
         <v>100</v>
       </c>
       <c r="W188" t="s">
@@ -12905,58 +12913,58 @@
       </c>
     </row>
     <row r="189" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A189" s="35" t="s">
+      <c r="A189" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B189" s="30"/>
-      <c r="C189" s="23" t="s">
+      <c r="B189" s="28"/>
+      <c r="C189" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="D189" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="E189" s="25">
+      <c r="E189" s="23">
         <v>1</v>
       </c>
       <c r="F189" s="7"/>
-      <c r="G189" s="39" t="s">
+      <c r="G189" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H189" s="40"/>
-      <c r="I189" s="39" t="s">
+      <c r="H189" s="38"/>
+      <c r="I189" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="J189" s="40"/>
-      <c r="K189" s="39" t="s">
+      <c r="J189" s="38"/>
+      <c r="K189" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="L189" s="40"/>
-      <c r="M189" s="39" t="s">
+      <c r="L189" s="38"/>
+      <c r="M189" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="N189" s="40"/>
-      <c r="O189" s="27">
-        <v>1</v>
-      </c>
-      <c r="P189" s="28" t="s">
+      <c r="N189" s="38"/>
+      <c r="O189" s="25">
+        <v>1</v>
+      </c>
+      <c r="P189" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="Q189" s="27" t="s">
+      <c r="Q189" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="R189" s="36">
+      <c r="R189" s="34">
         <v>-1</v>
       </c>
-      <c r="S189" s="36">
+      <c r="S189" s="34">
         <v>-1</v>
       </c>
-      <c r="T189" s="36">
+      <c r="T189" s="34">
         <v>-1</v>
       </c>
-      <c r="U189" s="36">
+      <c r="U189" s="34">
         <v>-1</v>
       </c>
-      <c r="V189" s="36">
+      <c r="V189" s="34">
         <v>-1</v>
       </c>
       <c r="W189" t="s">
@@ -12964,43 +12972,43 @@
       </c>
     </row>
     <row r="190" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A190" s="35" t="s">
+      <c r="A190" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="30"/>
-      <c r="C190" s="23" t="s">
+      <c r="B190" s="28"/>
+      <c r="C190" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="D190" s="24" t="s">
+      <c r="D190" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="E190" s="25">
+      <c r="E190" s="23">
         <v>2</v>
       </c>
       <c r="F190" s="7"/>
-      <c r="G190" s="39" t="s">
+      <c r="G190" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H190" s="40"/>
-      <c r="I190" s="39" t="s">
+      <c r="H190" s="38"/>
+      <c r="I190" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="J190" s="40"/>
-      <c r="K190" s="39" t="s">
+      <c r="J190" s="38"/>
+      <c r="K190" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="L190" s="40"/>
-      <c r="M190" s="39" t="s">
+      <c r="L190" s="38"/>
+      <c r="M190" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="N190" s="40"/>
-      <c r="O190" s="27">
-        <v>2</v>
-      </c>
-      <c r="P190" s="28" t="s">
+      <c r="N190" s="38"/>
+      <c r="O190" s="25">
+        <v>2</v>
+      </c>
+      <c r="P190" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="Q190" s="27" t="s">
+      <c r="Q190" s="25" t="s">
         <v>193</v>
       </c>
       <c r="R190" s="4">
@@ -13012,10 +13020,10 @@
       <c r="T190" s="4">
         <v>0</v>
       </c>
-      <c r="U190" s="36">
+      <c r="U190" s="34">
         <v>-1</v>
       </c>
-      <c r="V190" s="36">
+      <c r="V190" s="34">
         <v>-1</v>
       </c>
       <c r="W190" t="s">
@@ -13023,58 +13031,58 @@
       </c>
     </row>
     <row r="191" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A191" s="35" t="s">
+      <c r="A191" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B191" s="30"/>
-      <c r="C191" s="23" t="s">
+      <c r="B191" s="28"/>
+      <c r="C191" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="D191" s="24" t="s">
+      <c r="D191" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="E191" s="25">
+      <c r="E191" s="23">
         <v>2</v>
       </c>
       <c r="F191" s="7"/>
-      <c r="G191" s="39" t="s">
+      <c r="G191" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H191" s="40"/>
-      <c r="I191" s="39" t="s">
+      <c r="H191" s="38"/>
+      <c r="I191" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="J191" s="40"/>
-      <c r="K191" s="39" t="s">
+      <c r="J191" s="38"/>
+      <c r="K191" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="L191" s="40"/>
-      <c r="M191" s="39" t="s">
+      <c r="L191" s="38"/>
+      <c r="M191" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="N191" s="40"/>
-      <c r="O191" s="27">
-        <v>2</v>
-      </c>
-      <c r="P191" s="28" t="s">
+      <c r="N191" s="38"/>
+      <c r="O191" s="25">
+        <v>2</v>
+      </c>
+      <c r="P191" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="Q191" s="27" t="s">
+      <c r="Q191" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="R191" s="36">
+      <c r="R191" s="34">
         <v>-1</v>
       </c>
-      <c r="S191" s="36">
+      <c r="S191" s="34">
         <v>-1</v>
       </c>
-      <c r="T191" s="36">
+      <c r="T191" s="34">
         <v>-1</v>
       </c>
-      <c r="U191" s="36">
+      <c r="U191" s="34">
         <v>-1</v>
       </c>
-      <c r="V191" s="36">
+      <c r="V191" s="34">
         <v>-1</v>
       </c>
       <c r="W191" t="s">
@@ -13082,58 +13090,58 @@
       </c>
     </row>
     <row r="192" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A192" s="35" t="s">
+      <c r="A192" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B192" s="30"/>
-      <c r="C192" s="23" t="s">
+      <c r="B192" s="28"/>
+      <c r="C192" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D192" s="24" t="s">
+      <c r="D192" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="E192" s="25">
+      <c r="E192" s="23">
         <v>2</v>
       </c>
       <c r="F192" s="7"/>
-      <c r="G192" s="39" t="s">
+      <c r="G192" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H192" s="40"/>
-      <c r="I192" s="39" t="s">
+      <c r="H192" s="38"/>
+      <c r="I192" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="J192" s="40"/>
-      <c r="K192" s="39" t="s">
+      <c r="J192" s="38"/>
+      <c r="K192" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="L192" s="40"/>
-      <c r="M192" s="39" t="s">
+      <c r="L192" s="38"/>
+      <c r="M192" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="N192" s="40"/>
-      <c r="O192" s="27">
-        <v>2</v>
-      </c>
-      <c r="P192" s="28" t="s">
+      <c r="N192" s="38"/>
+      <c r="O192" s="25">
+        <v>2</v>
+      </c>
+      <c r="P192" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="Q192" s="27" t="s">
+      <c r="Q192" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="R192" s="36">
+      <c r="R192" s="34">
         <v>-1</v>
       </c>
-      <c r="S192" s="36">
+      <c r="S192" s="34">
         <v>-1</v>
       </c>
-      <c r="T192" s="36">
+      <c r="T192" s="34">
         <v>-1</v>
       </c>
-      <c r="U192" s="36">
+      <c r="U192" s="34">
         <v>-1</v>
       </c>
-      <c r="V192" s="36">
+      <c r="V192" s="34">
         <v>-1</v>
       </c>
       <c r="W192" t="s">
@@ -13141,58 +13149,58 @@
       </c>
     </row>
     <row r="193" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A193" s="35" t="s">
+      <c r="A193" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="23" t="s">
+      <c r="B193" s="28"/>
+      <c r="C193" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="D193" s="24" t="s">
+      <c r="D193" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="E193" s="25">
+      <c r="E193" s="23">
         <v>2</v>
       </c>
       <c r="F193" s="7"/>
-      <c r="G193" s="39" t="s">
+      <c r="G193" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="H193" s="40"/>
-      <c r="I193" s="39" t="s">
+      <c r="H193" s="38"/>
+      <c r="I193" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="J193" s="40"/>
-      <c r="K193" s="39" t="s">
+      <c r="J193" s="38"/>
+      <c r="K193" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="L193" s="40"/>
-      <c r="M193" s="39" t="s">
+      <c r="L193" s="38"/>
+      <c r="M193" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="N193" s="40"/>
-      <c r="O193" s="27">
-        <v>2</v>
-      </c>
-      <c r="P193" s="28" t="s">
+      <c r="N193" s="38"/>
+      <c r="O193" s="25">
+        <v>2</v>
+      </c>
+      <c r="P193" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="Q193" s="27" t="s">
+      <c r="Q193" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="R193" s="36">
+      <c r="R193" s="34">
         <v>-1</v>
       </c>
-      <c r="S193" s="36">
+      <c r="S193" s="34">
         <v>-1</v>
       </c>
-      <c r="T193" s="36">
+      <c r="T193" s="34">
         <v>-1</v>
       </c>
-      <c r="U193" s="36">
+      <c r="U193" s="34">
         <v>-1</v>
       </c>
-      <c r="V193" s="36">
+      <c r="V193" s="34">
         <v>-1</v>
       </c>
       <c r="W193" t="s">
@@ -13200,22 +13208,22 @@
       </c>
     </row>
     <row r="194" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A194" s="35" t="s">
+      <c r="A194" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B194" s="30"/>
-      <c r="C194" s="23" t="s">
+      <c r="B194" s="28"/>
+      <c r="C194" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D194" s="25" t="s">
+      <c r="D194" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="E194" s="25">
+      <c r="E194" s="23">
         <v>2</v>
       </c>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="24" t="s">
+      <c r="H194" s="22" t="s">
         <v>244</v>
       </c>
       <c r="I194" s="7"/>
@@ -13224,13 +13232,13 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
-      <c r="O194" s="27">
-        <v>1</v>
-      </c>
-      <c r="P194" s="28" t="s">
+      <c r="O194" s="25">
+        <v>1</v>
+      </c>
+      <c r="P194" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q194" s="27" t="s">
+      <c r="Q194" s="25" t="s">
         <v>94</v>
       </c>
       <c r="R194" s="4">
@@ -13242,10 +13250,10 @@
       <c r="T194" s="4">
         <v>22.2</v>
       </c>
-      <c r="U194" s="36">
+      <c r="U194" s="34">
         <v>-1</v>
       </c>
-      <c r="V194" s="36">
+      <c r="V194" s="34">
         <v>-1</v>
       </c>
       <c r="W194" t="s">
@@ -13253,52 +13261,52 @@
       </c>
     </row>
     <row r="195" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A195" s="35" t="s">
+      <c r="A195" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B195" s="30"/>
-      <c r="C195" s="23" t="s">
+      <c r="B195" s="28"/>
+      <c r="C195" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D195" s="25" t="s">
+      <c r="D195" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E195" s="25">
+      <c r="E195" s="23">
         <v>2</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
-      <c r="J195" s="26" t="s">
+      <c r="J195" s="24" t="s">
         <v>244</v>
       </c>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
-      <c r="O195" s="27">
-        <v>1</v>
-      </c>
-      <c r="P195" s="28" t="s">
+      <c r="O195" s="25">
+        <v>1</v>
+      </c>
+      <c r="P195" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q195" s="27" t="s">
+      <c r="Q195" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="R195" s="36">
+      <c r="R195" s="34">
         <v>-1</v>
       </c>
-      <c r="S195" s="36">
+      <c r="S195" s="34">
         <v>-1</v>
       </c>
-      <c r="T195" s="36">
+      <c r="T195" s="34">
         <v>-1</v>
       </c>
-      <c r="U195" s="36">
+      <c r="U195" s="34">
         <v>-1</v>
       </c>
-      <c r="V195" s="36">
+      <c r="V195" s="34">
         <v>-1</v>
       </c>
       <c r="W195" t="s">
@@ -13306,17 +13314,17 @@
       </c>
     </row>
     <row r="196" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A196" s="35" t="s">
+      <c r="A196" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B196" s="30"/>
-      <c r="C196" s="23" t="s">
+      <c r="B196" s="28"/>
+      <c r="C196" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="D196" s="24" t="s">
+      <c r="D196" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="E196" s="25">
+      <c r="E196" s="23">
         <v>2</v>
       </c>
       <c r="F196" s="7"/>
@@ -13324,19 +13332,19 @@
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
-      <c r="K196" s="24" t="s">
+      <c r="K196" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
-      <c r="O196" s="27">
-        <v>1</v>
-      </c>
-      <c r="P196" s="28" t="s">
+      <c r="O196" s="25">
+        <v>1</v>
+      </c>
+      <c r="P196" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q196" s="27" t="s">
+      <c r="Q196" s="25" t="s">
         <v>28</v>
       </c>
       <c r="R196" s="4">
@@ -13348,10 +13356,10 @@
       <c r="T196" s="4">
         <v>9.1</v>
       </c>
-      <c r="U196" s="36">
+      <c r="U196" s="34">
         <v>-1</v>
       </c>
-      <c r="V196" s="36">
+      <c r="V196" s="34">
         <v>-1</v>
       </c>
       <c r="W196" t="s">
@@ -13359,17 +13367,17 @@
       </c>
     </row>
     <row r="197" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A197" s="35" t="s">
+      <c r="A197" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B197" s="30"/>
-      <c r="C197" s="23" t="s">
+      <c r="B197" s="28"/>
+      <c r="C197" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D197" s="25" t="s">
+      <c r="D197" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="E197" s="25">
+      <c r="E197" s="23">
         <v>2</v>
       </c>
       <c r="F197" s="7"/>
@@ -13377,19 +13385,19 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
-      <c r="K197" s="24" t="s">
+      <c r="K197" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
-      <c r="O197" s="27">
-        <v>1</v>
-      </c>
-      <c r="P197" s="28" t="s">
+      <c r="O197" s="25">
+        <v>1</v>
+      </c>
+      <c r="P197" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q197" s="27" t="s">
+      <c r="Q197" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R197" s="4">
@@ -13401,10 +13409,10 @@
       <c r="T197" s="4">
         <v>0</v>
       </c>
-      <c r="U197" s="36">
+      <c r="U197" s="34">
         <v>-1</v>
       </c>
-      <c r="V197" s="36">
+      <c r="V197" s="34">
         <v>-1</v>
       </c>
       <c r="W197" t="s">
@@ -13412,17 +13420,17 @@
       </c>
     </row>
     <row r="198" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A198" s="35" t="s">
+      <c r="A198" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B198" s="30"/>
-      <c r="C198" s="23" t="s">
+      <c r="B198" s="28"/>
+      <c r="C198" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="D198" s="25" t="s">
+      <c r="D198" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="E198" s="25">
+      <c r="E198" s="23">
         <v>2</v>
       </c>
       <c r="F198" s="7"/>
@@ -13430,19 +13438,19 @@
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-      <c r="K198" s="24" t="s">
+      <c r="K198" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
-      <c r="O198" s="27">
-        <v>1</v>
-      </c>
-      <c r="P198" s="28" t="s">
+      <c r="O198" s="25">
+        <v>1</v>
+      </c>
+      <c r="P198" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q198" s="27" t="s">
+      <c r="Q198" s="25" t="s">
         <v>237</v>
       </c>
       <c r="R198" s="4">
@@ -13454,10 +13462,10 @@
       <c r="T198" s="4">
         <v>10</v>
       </c>
-      <c r="U198" s="36">
+      <c r="U198" s="34">
         <v>-1</v>
       </c>
-      <c r="V198" s="36">
+      <c r="V198" s="34">
         <v>-1</v>
       </c>
       <c r="W198" t="s">
@@ -13465,17 +13473,17 @@
       </c>
     </row>
     <row r="199" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A199" s="35" t="s">
+      <c r="A199" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B199" s="30"/>
-      <c r="C199" s="23" t="s">
+      <c r="B199" s="28"/>
+      <c r="C199" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D199" s="25" t="s">
+      <c r="D199" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E199" s="25">
+      <c r="E199" s="23">
         <v>2</v>
       </c>
       <c r="F199" s="7"/>
@@ -13484,18 +13492,18 @@
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
-      <c r="L199" s="26" t="s">
+      <c r="L199" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
-      <c r="O199" s="27">
-        <v>1</v>
-      </c>
-      <c r="P199" s="28" t="s">
+      <c r="O199" s="25">
+        <v>1</v>
+      </c>
+      <c r="P199" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q199" s="27" t="s">
+      <c r="Q199" s="25" t="s">
         <v>219</v>
       </c>
       <c r="R199" s="4">
@@ -13507,10 +13515,10 @@
       <c r="T199" s="4">
         <v>41.2</v>
       </c>
-      <c r="U199" s="36">
+      <c r="U199" s="34">
         <v>-1</v>
       </c>
-      <c r="V199" s="36">
+      <c r="V199" s="34">
         <v>-1</v>
       </c>
       <c r="W199" t="s">
@@ -13518,17 +13526,17 @@
       </c>
     </row>
     <row r="200" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A200" s="35" t="s">
+      <c r="A200" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B200" s="30"/>
-      <c r="C200" s="23" t="s">
+      <c r="B200" s="28"/>
+      <c r="C200" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D200" s="25" t="s">
+      <c r="D200" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="E200" s="25">
+      <c r="E200" s="23">
         <v>2</v>
       </c>
       <c r="F200" s="7"/>
@@ -13536,34 +13544,34 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
-      <c r="K200" s="24" t="s">
+      <c r="K200" s="22" t="s">
         <v>244</v>
       </c>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
-      <c r="O200" s="27">
-        <v>1</v>
-      </c>
-      <c r="P200" s="28" t="s">
+      <c r="O200" s="25">
+        <v>1</v>
+      </c>
+      <c r="P200" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q200" s="27" t="s">
+      <c r="Q200" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="R200" s="36">
+      <c r="R200" s="34">
         <v>-1</v>
       </c>
-      <c r="S200" s="36">
+      <c r="S200" s="34">
         <v>-1</v>
       </c>
-      <c r="T200" s="36">
+      <c r="T200" s="34">
         <v>-1</v>
       </c>
-      <c r="U200" s="36">
+      <c r="U200" s="34">
         <v>-1</v>
       </c>
-      <c r="V200" s="36">
+      <c r="V200" s="34">
         <v>-1</v>
       </c>
       <c r="W200" t="s">
@@ -13571,17 +13579,17 @@
       </c>
     </row>
     <row r="201" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A201" s="35" t="s">
+      <c r="A201" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B201" s="30"/>
-      <c r="C201" s="23" t="s">
+      <c r="B201" s="28"/>
+      <c r="C201" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D201" s="25" t="s">
+      <c r="D201" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="E201" s="25">
+      <c r="E201" s="23">
         <v>2</v>
       </c>
       <c r="F201" s="7"/>
@@ -13590,33 +13598,33 @@
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
-      <c r="L201" s="26" t="s">
+      <c r="L201" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M201" s="7"/>
       <c r="N201" s="7"/>
-      <c r="O201" s="27">
-        <v>1</v>
-      </c>
-      <c r="P201" s="28" t="s">
+      <c r="O201" s="25">
+        <v>1</v>
+      </c>
+      <c r="P201" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q201" s="27" t="s">
+      <c r="Q201" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="R201" s="36">
+      <c r="R201" s="34">
         <v>-1</v>
       </c>
-      <c r="S201" s="36">
+      <c r="S201" s="34">
         <v>-1</v>
       </c>
-      <c r="T201" s="36">
+      <c r="T201" s="34">
         <v>-1</v>
       </c>
-      <c r="U201" s="36">
+      <c r="U201" s="34">
         <v>-1</v>
       </c>
-      <c r="V201" s="36">
+      <c r="V201" s="34">
         <v>-1</v>
       </c>
       <c r="W201" t="s">
@@ -13624,23 +13632,23 @@
       </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A202" s="35" t="s">
+      <c r="A202" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B202" s="30"/>
-      <c r="C202" s="23" t="s">
+      <c r="B202" s="28"/>
+      <c r="C202" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="D202" s="25" t="s">
+      <c r="D202" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="E202" s="25">
+      <c r="E202" s="23">
         <v>2</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
-      <c r="I202" s="28" t="s">
+      <c r="I202" s="26" t="s">
         <v>244</v>
       </c>
       <c r="J202" s="7"/>
@@ -13648,28 +13656,28 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
       <c r="N202" s="7"/>
-      <c r="O202" s="27">
-        <v>1</v>
-      </c>
-      <c r="P202" s="28" t="s">
+      <c r="O202" s="25">
+        <v>1</v>
+      </c>
+      <c r="P202" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q202" s="27" t="s">
+      <c r="Q202" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="R202" s="36">
+      <c r="R202" s="34">
         <v>-1</v>
       </c>
-      <c r="S202" s="36">
+      <c r="S202" s="34">
         <v>-1</v>
       </c>
-      <c r="T202" s="36">
+      <c r="T202" s="34">
         <v>-1</v>
       </c>
-      <c r="U202" s="36">
+      <c r="U202" s="34">
         <v>-1</v>
       </c>
-      <c r="V202" s="36">
+      <c r="V202" s="34">
         <v>-1</v>
       </c>
       <c r="W202" t="s">
@@ -13677,37 +13685,37 @@
       </c>
     </row>
     <row r="203" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A203" s="35" t="s">
+      <c r="A203" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B203" s="30"/>
-      <c r="C203" s="23" t="s">
+      <c r="B203" s="28"/>
+      <c r="C203" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="D203" s="25" t="s">
+      <c r="D203" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="E203" s="25">
+      <c r="E203" s="23">
         <v>2</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
-      <c r="J203" s="26" t="s">
+      <c r="J203" s="24" t="s">
         <v>244</v>
       </c>
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
       <c r="N203" s="7"/>
-      <c r="O203" s="27">
-        <v>1</v>
-      </c>
-      <c r="P203" s="28" t="s">
+      <c r="O203" s="25">
+        <v>1</v>
+      </c>
+      <c r="P203" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q203" s="27" t="s">
+      <c r="Q203" s="25" t="s">
         <v>224</v>
       </c>
       <c r="R203" s="4">
@@ -13719,10 +13727,10 @@
       <c r="T203" s="4">
         <v>0</v>
       </c>
-      <c r="U203" s="36">
+      <c r="U203" s="34">
         <v>-1</v>
       </c>
-      <c r="V203" s="36">
+      <c r="V203" s="34">
         <v>-1</v>
       </c>
       <c r="W203" t="s">
@@ -13730,17 +13738,17 @@
       </c>
     </row>
     <row r="204" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A204" s="35" t="s">
+      <c r="A204" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B204" s="30"/>
-      <c r="C204" s="23" t="s">
+      <c r="B204" s="28"/>
+      <c r="C204" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="D204" s="24" t="s">
+      <c r="D204" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="E204" s="25">
+      <c r="E204" s="23">
         <v>2</v>
       </c>
       <c r="F204" s="7"/>
@@ -13749,33 +13757,33 @@
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
-      <c r="L204" s="26" t="s">
+      <c r="L204" s="24" t="s">
         <v>244</v>
       </c>
       <c r="M204" s="7"/>
       <c r="N204" s="7"/>
-      <c r="O204" s="27">
-        <v>1</v>
-      </c>
-      <c r="P204" s="28" t="s">
+      <c r="O204" s="25">
+        <v>1</v>
+      </c>
+      <c r="P204" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q204" s="27" t="s">
+      <c r="Q204" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="R204" s="36">
+      <c r="R204" s="34">
         <v>-1</v>
       </c>
-      <c r="S204" s="36">
+      <c r="S204" s="34">
         <v>-1</v>
       </c>
-      <c r="T204" s="36">
+      <c r="T204" s="34">
         <v>-1</v>
       </c>
-      <c r="U204" s="36">
+      <c r="U204" s="34">
         <v>-1</v>
       </c>
-      <c r="V204" s="36">
+      <c r="V204" s="34">
         <v>-1</v>
       </c>
       <c r="W204" t="s">
@@ -13783,17 +13791,17 @@
       </c>
     </row>
     <row r="205" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A205" s="35" t="s">
+      <c r="A205" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B205" s="30"/>
-      <c r="C205" s="23" t="s">
+      <c r="B205" s="28"/>
+      <c r="C205" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D205" s="24" t="s">
+      <c r="D205" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="E205" s="25">
+      <c r="E205" s="23">
         <v>4</v>
       </c>
       <c r="F205" s="7"/>
@@ -13803,19 +13811,19 @@
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
       <c r="L205" s="7"/>
-      <c r="M205" s="24" t="s">
+      <c r="M205" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N205" s="28" t="s">
+      <c r="N205" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="O205" s="27">
-        <v>2</v>
-      </c>
-      <c r="P205" s="28" t="s">
+      <c r="O205" s="25">
+        <v>2</v>
+      </c>
+      <c r="P205" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="Q205" s="27" t="s">
+      <c r="Q205" s="25" t="s">
         <v>350</v>
       </c>
       <c r="R205" s="4">
@@ -13827,25 +13835,25 @@
       <c r="T205" s="4">
         <v>50</v>
       </c>
-      <c r="U205" s="36">
+      <c r="U205" s="34">
         <v>-1</v>
       </c>
-      <c r="V205" s="36">
+      <c r="V205" s="34">
         <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A206" s="35" t="s">
+      <c r="A206" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B206" s="30"/>
-      <c r="C206" s="23" t="s">
+      <c r="B206" s="28"/>
+      <c r="C206" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D206" s="24" t="s">
+      <c r="D206" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="E206" s="25">
+      <c r="E206" s="23">
         <v>8</v>
       </c>
       <c r="F206" s="7"/>
@@ -13855,19 +13863,19 @@
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
-      <c r="M206" s="24" t="s">
+      <c r="M206" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="N206" s="28" t="s">
+      <c r="N206" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O206" s="27">
+      <c r="O206" s="25">
         <v>4</v>
       </c>
-      <c r="P206" s="28" t="s">
+      <c r="P206" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="Q206" s="27" t="s">
+      <c r="Q206" s="25" t="s">
         <v>350</v>
       </c>
       <c r="R206" s="4">
@@ -13879,15 +13887,15 @@
       <c r="T206" s="4">
         <v>2.7</v>
       </c>
-      <c r="U206" s="36">
+      <c r="U206" s="34">
         <v>-1</v>
       </c>
-      <c r="V206" s="36">
+      <c r="V206" s="34">
         <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B207" s="30"/>
+      <c r="B207" s="28"/>
       <c r="R207" s="4">
         <v>0</v>
       </c>
@@ -13897,10 +13905,10 @@
       <c r="T207" s="4">
         <v>50</v>
       </c>
-      <c r="U207" s="36">
+      <c r="U207" s="34">
         <v>-1</v>
       </c>
-      <c r="V207" s="36">
+      <c r="V207" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -13914,15 +13922,23 @@
       <c r="T208" s="4">
         <v>2.7</v>
       </c>
-      <c r="U208" s="36">
+      <c r="U208" s="34">
         <v>-1</v>
       </c>
-      <c r="V208" s="36">
+      <c r="V208" s="34">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="I193:J193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
     <mergeCell ref="G191:H191"/>
     <mergeCell ref="I191:J191"/>
     <mergeCell ref="K191:L191"/>
@@ -13935,14 +13951,6 @@
     <mergeCell ref="K190:L190"/>
     <mergeCell ref="M190:N190"/>
     <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="I193:J193"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:N193"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <hyperlinks>
